--- a/dataset/corona_pred.xlsx
+++ b/dataset/corona_pred.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\Projetos Python\Function Approximator\covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Octavio\Desktop\Projetos Python\Function Approximator\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>199789.19273645099</v>
+        <v>199781.76999961201</v>
       </c>
       <c r="D3" s="1">
         <v>43905</v>
@@ -914,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>199713.24366307701</v>
+        <v>199693.10842242301</v>
       </c>
       <c r="D4" s="1">
         <v>43906</v>
@@ -931,7 +931,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>199615.178643647</v>
+        <v>199574.45366275799</v>
       </c>
       <c r="D5" s="1">
         <v>43907</v>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>199488.595043448</v>
+        <v>199415.72308305599</v>
       </c>
       <c r="D6" s="1">
         <v>43908</v>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>199325.262030196</v>
+        <v>199203.49649959101</v>
       </c>
       <c r="D7" s="1">
         <v>43909</v>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>199114.61491001101</v>
+        <v>198919.948041002</v>
       </c>
       <c r="D8" s="1">
         <v>43910</v>
@@ -999,7 +999,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>198843.120042628</v>
+        <v>198541.47403002699</v>
       </c>
       <c r="D9" s="1">
         <v>43911</v>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>198493.48835070399</v>
+        <v>198036.94435341001</v>
       </c>
       <c r="D10" s="1">
         <v>43912</v>
@@ -1033,7 +1033,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>198043.70709597401</v>
+        <v>197365.52526507399</v>
       </c>
       <c r="D11" s="1">
         <v>43913</v>
@@ -1050,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>197465.874503953</v>
+        <v>196474.044991706</v>
       </c>
       <c r="D12" s="1">
         <v>43914</v>
@@ -1067,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>196724.82803290899</v>
+        <v>195293.94747387801</v>
       </c>
       <c r="D13" s="1">
         <v>43915</v>
@@ -1084,7 +1084,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>195776.58798939499</v>
+        <v>193738.01966592699</v>
       </c>
       <c r="D14" s="1">
         <v>43916</v>
@@ -1101,7 +1101,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>194566.685239713</v>
+        <v>191697.326535008</v>
       </c>
       <c r="D15" s="1">
         <v>43917</v>
@@ -1118,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>193028.525069055</v>
+        <v>189039.191993518</v>
       </c>
       <c r="D16" s="1">
         <v>43918</v>
@@ -1135,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>191082.06542196899</v>
+        <v>185607.60870919799</v>
       </c>
       <c r="D17" s="1">
         <v>43919</v>
@@ -1152,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>188633.25808833801</v>
+        <v>181228.17390409901</v>
       </c>
       <c r="D18" s="1">
         <v>43920</v>
@@ -1169,7 +1169,7 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>185574.935114586</v>
+        <v>175720.13325958501</v>
       </c>
       <c r="D19" s="1">
         <v>43921</v>
@@ -1186,7 +1186,7 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>181790.05527568501</v>
+        <v>168918.025861464</v>
       </c>
       <c r="D20" s="1">
         <v>43922</v>
@@ -1203,7 +1203,7 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>177158.36126888599</v>
+        <v>160703.82396658199</v>
       </c>
       <c r="D21" s="1">
         <v>43923</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>171567.425683004</v>
+        <v>151046.59900138099</v>
       </c>
       <c r="D22" s="1">
         <v>43924</v>
@@ -1237,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>164928.47402004799</v>
+        <v>140040.93085742899</v>
       </c>
       <c r="D23" s="1">
         <v>43925</v>
@@ -1254,7 +1254,7 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>157196.09950988999</v>
+        <v>127929.677561469</v>
       </c>
       <c r="D24" s="1">
         <v>43926</v>
@@ -1271,7 +1271,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>148388.99765623501</v>
+        <v>115096.418698137</v>
       </c>
       <c r="D25" s="1">
         <v>43927</v>
@@ -1288,7 +1288,7 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>138606.73472373499</v>
+        <v>102020.801201403</v>
       </c>
       <c r="D26" s="1">
         <v>43928</v>
@@ -1305,7 +1305,7 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>128036.29206776099</v>
+        <v>89205.758158925804</v>
       </c>
       <c r="D27" s="1">
         <v>43929</v>
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>116943.184364945</v>
+        <v>77099.033944894501</v>
       </c>
       <c r="D28" s="1">
         <v>43930</v>
@@ -1339,7 +1339,7 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>105645.92954144</v>
+        <v>66034.295320625301</v>
       </c>
       <c r="D29" s="1">
         <v>43931</v>
@@ -1356,7 +1356,7 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>94478.409936801007</v>
+        <v>56206.134473235797</v>
       </c>
       <c r="D30" s="1">
         <v>43932</v>
@@ -1373,7 +1373,7 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>83749.272595936694</v>
+        <v>47678.148800137897</v>
       </c>
       <c r="D31" s="1">
         <v>43933</v>
@@ -1390,7 +1390,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>73708.664787245507</v>
+        <v>40412.043096183399</v>
       </c>
       <c r="D32" s="1">
         <v>43934</v>
@@ -1407,7 +1407,7 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>64529.339198444999</v>
+        <v>34303.676997710398</v>
       </c>
       <c r="D33" s="1">
         <v>43935</v>
@@ -1424,7 +1424,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>56303.6389347882</v>
+        <v>29215.541254894299</v>
       </c>
       <c r="D34" s="1">
         <v>43936</v>
@@ -1441,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>49053.0713117669</v>
+        <v>25000.9408711832</v>
       </c>
       <c r="D35" s="1">
         <v>43937</v>
@@ -1458,7 +1458,7 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>42744.936696909499</v>
+        <v>21519.340055504901</v>
       </c>
       <c r="D36" s="1">
         <v>43938</v>
@@ -1475,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>37310.608826322103</v>
+        <v>18644.439327471198</v>
       </c>
       <c r="D37" s="1">
         <v>43939</v>
@@ -1492,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>32661.813448266199</v>
+        <v>16267.348790534401</v>
       </c>
       <c r="D38" s="1">
         <v>43940</v>
@@ -1509,7 +1509,7 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>28703.183573787599</v>
+        <v>14296.694382559999</v>
       </c>
       <c r="D39" s="1">
         <v>43941</v>
@@ -1526,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>25340.8359228587</v>
+        <v>12657.1622872192</v>
       </c>
       <c r="D40" s="1">
         <v>43942</v>
@@ -1543,7 +1543,7 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>22487.5137002583</v>
+        <v>11287.3853678386</v>
       </c>
       <c r="D41" s="1">
         <v>43943</v>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>20065.1431191189</v>
+        <v>10137.7084013151</v>
       </c>
       <c r="D42" s="1">
         <v>43944</v>
@@ -1577,7 +1577,7 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>18005.696557246101</v>
+        <v>9168.0968882440302</v>
       </c>
       <c r="D43" s="1">
         <v>43945</v>
@@ -1594,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>16250.9591418123</v>
+        <v>8346.3107888775794</v>
       </c>
       <c r="D44" s="1">
         <v>43946</v>
@@ -1611,7 +1611,7 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>14751.735532316599</v>
+        <v>7646.3777516529699</v>
       </c>
       <c r="D45" s="1">
         <v>43947</v>
@@ -1628,7 +1628,7 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>13466.7988598343</v>
+        <v>7047.3356879532403</v>
       </c>
       <c r="D46" s="1">
         <v>43948</v>
@@ -1645,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>12361.784741580001</v>
+        <v>6532.22025048466</v>
       </c>
       <c r="D47" s="1">
         <v>43949</v>
@@ -1662,7 +1662,7 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>11408.1366088946</v>
+        <v>6087.2555661853903</v>
       </c>
       <c r="D48" s="1">
         <v>43950</v>
@@ -1679,7 +1679,7 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>10582.1528310084</v>
+        <v>5701.2114368552502</v>
       </c>
       <c r="D49" s="1">
         <v>43951</v>
@@ -1696,7 +1696,7 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>9864.1639055493106</v>
+        <v>5364.8943795783898</v>
       </c>
       <c r="D50" s="1">
         <v>43952</v>
@@ -1713,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>9237.8298423593296</v>
+        <v>5070.7449798314101</v>
       </c>
       <c r="D51" s="1">
         <v>43953</v>
@@ -1730,7 +1730,7 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>8689.5528509471405</v>
+        <v>4812.5192166017196</v>
       </c>
       <c r="D52" s="1">
         <v>43954</v>
@@ -1747,7 +1747,7 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>8207.9907207509805</v>
+        <v>4585.0358635429102</v>
       </c>
       <c r="D53" s="1">
         <v>43955</v>
@@ -1764,7 +1764,7 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>7783.6563876003702</v>
+        <v>4383.9754463395702</v>
       </c>
       <c r="D54" s="1">
         <v>43956</v>
@@ -1781,7 +1781,7 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>7408.59313995516</v>
+        <v>4205.7208551178101</v>
       </c>
       <c r="D55" s="1">
         <v>43957</v>
@@ -1798,7 +1798,7 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>7076.1040964487402</v>
+        <v>4047.2301879858901</v>
       </c>
       <c r="D56" s="1">
         <v>43958</v>
@@ -1815,7 +1815,7 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>6780.5327594314704</v>
+        <v>3905.9330917717498</v>
       </c>
       <c r="D57" s="1">
         <v>43959</v>
@@ -1832,7 +1832,7 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>6517.0853340473705</v>
+        <v>3779.6480558670801</v>
       </c>
       <c r="D58" s="1">
         <v>43960</v>
@@ -1849,7 +1849,7 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>6281.6851670537799</v>
+        <v>3666.5161313602298</v>
       </c>
       <c r="D59" s="1">
         <v>43961</v>
@@ -1866,7 +1866,7 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>6070.8529712440304</v>
+        <v>3564.94686861129</v>
       </c>
       <c r="D60" s="1">
         <v>43962</v>
@@ -1883,7 +1883,7 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>5881.6087932952696</v>
+        <v>3473.5740778611898</v>
       </c>
       <c r="D61" s="1">
         <v>43963</v>
@@ -1900,7 +1900,7 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>5711.3914314740896</v>
+        <v>3391.2197172237102</v>
       </c>
       <c r="D62" s="1">
         <v>43964</v>
@@ -1917,7 +1917,7 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>5557.9920211016297</v>
+        <v>3316.8642359626001</v>
       </c>
       <c r="D63" s="1">
         <v>43965</v>
@@ -1934,7 +1934,7 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>5419.4991436624696</v>
+        <v>3249.62212031016</v>
       </c>
       <c r="D64" s="1">
         <v>43966</v>
@@ -1951,7 +1951,7 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>5294.2533299449997</v>
+        <v>3188.72164964065</v>
       </c>
       <c r="D65" s="1">
         <v>43967</v>
@@ -1968,7 +1968,7 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>5180.8092358140502</v>
+        <v>3133.4880737929502</v>
       </c>
       <c r="D66" s="1">
         <v>43968</v>
@@ -1985,7 +1985,7 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>5077.9041008242102</v>
+        <v>3083.3295803221999</v>
       </c>
       <c r="D67" s="1">
         <v>43969</v>
@@ -2002,7 +2002,7 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>4984.4313644465901</v>
+        <v>3037.7255454946699</v>
       </c>
       <c r="D68" s="1">
         <v>43970</v>
@@ -2019,7 +2019,7 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>4899.4185277228598</v>
+        <v>2996.2166614349298</v>
       </c>
       <c r="D69" s="1">
         <v>43971</v>
@@ -2036,7 +2036,7 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>4822.0085192475899</v>
+        <v>2958.3966101563401</v>
       </c>
       <c r="D70" s="1">
         <v>43972</v>
@@ -2053,7 +2053,7 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>4751.4439619367304</v>
+        <v>2923.9050175090101</v>
       </c>
       <c r="D71" s="1">
         <v>43973</v>
@@ -2070,7 +2070,7 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>4687.0538479161296</v>
+        <v>2892.42146983267</v>
       </c>
       <c r="D72" s="1">
         <v>43974</v>
@@ -2087,7 +2087,7 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>4628.2422183211502</v>
+        <v>2863.66041598118</v>
       </c>
       <c r="D73" s="1">
         <v>43975</v>
@@ -2104,7 +2104,7 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>4574.4785171519197</v>
+        <v>2837.3668094474401</v>
       </c>
       <c r="D74" s="1">
         <v>43976</v>
@@ -2121,7 +2121,7 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>4525.2893469722303</v>
+        <v>2813.31237118731</v>
       </c>
       <c r="D75" s="1">
         <v>43977</v>
@@ -2138,7 +2138,7 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>4480.2514018823404</v>
+        <v>2791.2923746828001</v>
       </c>
       <c r="D76" s="1">
         <v>43978</v>
@@ -2155,7 +2155,7 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>4438.9853919975803</v>
+        <v>2771.1228717928898</v>
       </c>
       <c r="D77" s="1">
         <v>43979</v>
@@ -2172,7 +2172,7 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>4401.1508053440903</v>
+        <v>2752.63829179917</v>
       </c>
       <c r="D78" s="1">
         <v>43980</v>
@@ -2189,7 +2189,7 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>4366.4413790141598</v>
+        <v>2735.6893573807201</v>
       </c>
       <c r="D79" s="1">
         <v>43981</v>
@@ -2206,7 +2206,7 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>4334.58117270401</v>
+        <v>2720.1412705411299</v>
       </c>
       <c r="D80" s="1">
         <v>43982</v>
@@ -2223,7 +2223,7 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>4305.3211552659805</v>
+        <v>2705.87212914871</v>
       </c>
       <c r="D81" s="1">
         <v>43983</v>
@@ -2240,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>4278.4362293501999</v>
+        <v>2692.7715410524302</v>
       </c>
       <c r="D82" s="1">
         <v>43984</v>
@@ -2257,7 +2257,7 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>4253.7226311555296</v>
+        <v>2680.7394079484602</v>
       </c>
       <c r="D83" s="1">
         <v>43985</v>
@@ -2274,7 +2274,7 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>4230.9956522131197</v>
+        <v>2669.6848554969902</v>
       </c>
       <c r="D84" s="1">
         <v>43986</v>
@@ -2291,7 +2291,7 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>4210.0876383581699</v>
+        <v>2659.52528978692</v>
       </c>
       <c r="D85" s="1">
         <v>43987</v>
@@ -2308,7 +2308,7 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>4190.8462279048199</v>
+        <v>2650.1855632473998</v>
       </c>
       <c r="D86" s="1">
         <v>43988</v>
@@ -2325,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>4173.1327967695497</v>
+        <v>2641.59723561588</v>
       </c>
       <c r="D87" s="1">
         <v>43989</v>
@@ -2342,7 +2342,7 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>4156.8210830861599</v>
+        <v>2633.6979176776199</v>
       </c>
       <c r="D88" s="1">
         <v>43990</v>
@@ -2359,7 +2359,7 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>4141.7959678832603</v>
+        <v>2626.43068726207</v>
       </c>
       <c r="D89" s="1">
         <v>43991</v>
@@ -2376,7 +2376,7 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>4127.9523917834204</v>
+        <v>2619.7435684735301</v>
       </c>
       <c r="D90" s="1">
         <v>43992</v>
@@ -2393,7 +2393,7 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>4115.1943905403296</v>
+        <v>2613.5890663944001</v>
       </c>
       <c r="D91" s="1">
         <v>43993</v>
@@ -2410,7 +2410,7 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>4103.4342346460999</v>
+        <v>2607.9237505675601</v>
       </c>
       <c r="D92" s="1">
         <v>43994</v>
@@ -2427,7 +2427,7 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>4092.5916602862999</v>
+        <v>2602.7078814709098</v>
       </c>
       <c r="D93" s="1">
         <v>43995</v>
@@ -2444,7 +2444,7 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>4082.5931806578001</v>
+        <v>2597.9050749694002</v>
       </c>
       <c r="D94" s="1">
         <v>43996</v>
@@ -2461,7 +2461,7 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>4073.3714681425199</v>
+        <v>2593.4820003879699</v>
       </c>
       <c r="D95" s="1">
         <v>43997</v>
@@ -2478,7 +2478,7 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>4064.8647990909099</v>
+        <v>2589.4081084121399</v>
       </c>
       <c r="D96" s="1">
         <v>43998</v>
@@ -2495,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>4057.0165540458602</v>
+        <v>2585.6553855053098</v>
       </c>
       <c r="D97" s="1">
         <v>43999</v>
@@ -2512,7 +2512,7 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>4049.7747671609</v>
+        <v>2582.1981319465999</v>
       </c>
       <c r="D98" s="1">
         <v>44000</v>
@@ -2529,7 +2529,7 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>4043.0917193580199</v>
+        <v>2579.0127609497299</v>
       </c>
       <c r="D99" s="1">
         <v>44001</v>
@@ -2546,7 +2546,7 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>4036.92357045173</v>
+        <v>2576.07761663156</v>
       </c>
       <c r="D100" s="1">
         <v>44002</v>
@@ -2563,7 +2563,7 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>4031.23002605282</v>
+        <v>2573.37280886501</v>
       </c>
       <c r="D101" s="1">
         <v>44003</v>
@@ -2580,7 +2580,7 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>4025.9740355726699</v>
+        <v>2570.8800632821799</v>
       </c>
       <c r="D102" s="1">
         <v>44004</v>
@@ -2597,7 +2597,7 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>4021.12151808719</v>
+        <v>2568.5825848937302</v>
       </c>
       <c r="D103" s="1">
         <v>44005</v>
@@ -2614,7 +2614,7 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>4016.6411132007001</v>
+        <v>2566.4649339651301</v>
       </c>
       <c r="D104" s="1">
         <v>44006</v>
@@ -2631,7 +2631,7 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>4012.50395438033</v>
+        <v>2564.5129129429802</v>
       </c>
       <c r="D105" s="1">
         <v>44007</v>
@@ -2648,7 +2648,7 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>4008.6834625197598</v>
+        <v>2562.7134633572</v>
       </c>
       <c r="D106" s="1">
         <v>44008</v>
@@ -2665,7 +2665,7 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>4005.1551577425198</v>
+        <v>2561.05457174194</v>
       </c>
       <c r="D107" s="1">
         <v>44009</v>
@@ -2682,7 +2682,7 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>4001.89648767469</v>
+        <v>2559.52518372029</v>
       </c>
       <c r="D108" s="1">
         <v>44010</v>
@@ -2699,7 +2699,7 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>3998.8866706096901</v>
+        <v>2558.1151254879301</v>
       </c>
       <c r="D109" s="1">
         <v>44011</v>
@@ -2716,7 +2716,7 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>3996.1065521565001</v>
+        <v>2556.8150320105001</v>
       </c>
       <c r="D110" s="1">
         <v>44012</v>
@@ -2733,7 +2733,7 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>3993.5384741118601</v>
+        <v>2555.61628131917</v>
       </c>
       <c r="D111" s="1">
         <v>44013</v>
@@ -2750,7 +2750,7 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>3991.1661544276799</v>
+        <v>2554.5109343517001</v>
       </c>
       <c r="D112" s="1">
         <v>44014</v>
@@ -2767,7 +2767,7 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>3988.9745772608799</v>
+        <v>2553.4916798406498</v>
       </c>
       <c r="D113" s="1">
         <v>44015</v>
@@ -2784,7 +2784,7 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>3986.94989219525</v>
+        <v>2552.55178379974</v>
       </c>
       <c r="D114" s="1">
         <v>44016</v>
@@ -2801,7 +2801,7 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>3985.07932181568</v>
+        <v>2551.6850432029801</v>
       </c>
       <c r="D115" s="1">
         <v>44017</v>
@@ -2818,7 +2818,7 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>3983.3510768958799</v>
+        <v>2550.88574348972</v>
       </c>
       <c r="D116" s="1">
         <v>44018</v>
@@ -2835,7 +2835,7 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>3981.7542785322898</v>
+        <v>2550.1486195638199</v>
       </c>
       <c r="D117" s="1">
         <v>44019</v>
@@ -2852,7 +2852,7 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>3980.2788866209598</v>
+        <v>2549.4688199859502</v>
       </c>
       <c r="D118" s="1">
         <v>44020</v>
@@ -2869,7 +2869,7 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>3978.9156341313701</v>
+        <v>2548.8418740860802</v>
       </c>
       <c r="D119" s="1">
         <v>44021</v>
@@ -2886,7 +2886,7 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>3977.6559666819699</v>
+        <v>2548.2636617481699</v>
       </c>
       <c r="D120" s="1">
         <v>44022</v>
@@ -2903,7 +2903,7 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>3976.4919869683899</v>
+        <v>2547.73038564137</v>
       </c>
       <c r="D121" s="1">
         <v>44023</v>
@@ -2920,7 +2920,7 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>3975.4164036358802</v>
+        <v>2547.2385456925599</v>
       </c>
       <c r="D122" s="1">
         <v>44024</v>
@@ -2937,7 +2937,7 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>3974.4224842249</v>
+        <v>2546.7849156132402</v>
       </c>
       <c r="D123" s="1">
         <v>44025</v>
@@ -2954,7 +2954,7 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>3973.50401185174</v>
+        <v>2546.3665213101099</v>
       </c>
       <c r="D124" s="1">
         <v>44026</v>
@@ -2971,7 +2971,7 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>3972.6552453160698</v>
+        <v>2545.9806210238598</v>
       </c>
       <c r="D125" s="1">
         <v>44027</v>
@@ -2988,7 +2988,7 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>3971.8708823543602</v>
+        <v>2545.6246870538498</v>
       </c>
       <c r="D126" s="1">
         <v>44028</v>
@@ -3005,7 +3005,7 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>3971.1460257827098</v>
+        <v>2545.2963889391299</v>
       </c>
       <c r="D127" s="1">
         <v>44029</v>
@@ -3022,7 +3022,7 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>3970.47615229442</v>
+        <v>2544.9935779766101</v>
       </c>
       <c r="D128" s="1">
         <v>44030</v>
@@ -3039,7 +3039,7 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>3969.8570836980998</v>
+        <v>2544.7142729681</v>
       </c>
       <c r="D129" s="1">
         <v>44031</v>
@@ -3056,7 +3056,7 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>3969.2849603999498</v>
+        <v>2544.4566470964301</v>
       </c>
       <c r="D130" s="1">
         <v>44032</v>
@@ -3073,7 +3073,7 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>3968.75621695073</v>
+        <v>2544.2190158395902</v>
       </c>
       <c r="D131" s="1">
         <v>44033</v>
@@ -3090,7 +3090,7 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>3968.2675594925099</v>
+        <v>2543.9998258393898</v>
       </c>
       <c r="D132" s="1">
         <v>44034</v>
@@ -3107,7 +3107,7 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>3967.8159449545301</v>
+        <v>2543.7976446479402</v>
       </c>
       <c r="D133" s="1">
         <v>44035</v>
@@ -3124,7 +3124,7 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>3967.3985618594802</v>
+        <v>2543.6111512817301</v>
       </c>
       <c r="D134" s="1">
         <v>44036</v>
@@ -3141,7 +3141,7 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>3967.0128126132099</v>
+        <v>2543.43912751879</v>
       </c>
       <c r="D135" s="1">
         <v>44037</v>
@@ -3158,7 +3158,7 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>3966.6562971610701</v>
+        <v>2543.28044987969</v>
       </c>
       <c r="D136" s="1">
         <v>44038</v>
@@ -3175,7 +3175,7 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>3966.3267979037</v>
+        <v>2543.1340822380498</v>
       </c>
       <c r="D137" s="1">
         <v>44039</v>
@@ -3192,7 +3192,7 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>3966.0222657735899</v>
+        <v>2542.9990690105601</v>
       </c>
       <c r="D138" s="1">
         <v>44040</v>
@@ -3209,7 +3209,7 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>3965.7408073819001</v>
+        <v>2542.8745288805399</v>
       </c>
       <c r="D139" s="1">
         <v>44041</v>
@@ -3226,7 +3226,7 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>3965.4806731521298</v>
+        <v>2542.7596490129799</v>
       </c>
       <c r="D140" s="1">
         <v>44042</v>
@@ -3243,7 +3243,7 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>3965.2402463638</v>
+        <v>2542.6536797220901</v>
       </c>
       <c r="D141" s="1">
         <v>44043</v>
@@ -3260,7 +3260,7 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>3965.0180330357598</v>
+        <v>2542.55592955571</v>
       </c>
       <c r="D142" s="1">
         <v>44044</v>
@@ -3277,7 +3277,7 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>3964.8126525838202</v>
+        <v>2542.4657607638501</v>
       </c>
       <c r="D143" s="1">
         <v>44045</v>
@@ -3294,7 +3294,7 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>3964.6228291931302</v>
+        <v>2542.3825851209499</v>
       </c>
       <c r="D144" s="1">
         <v>44046</v>
@@ -3311,7 +3311,7 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>3964.4473838498602</v>
+        <v>2542.3058600742602</v>
       </c>
       <c r="D145" s="1">
         <v>44047</v>
@@ -3328,7 +3328,7 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>3964.2852269814998</v>
+        <v>2542.2350851925498</v>
       </c>
       <c r="D146" s="1">
         <v>44048</v>
@@ -3345,7 +3345,7 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>3964.1353516589402</v>
+        <v>2542.1697988917699</v>
       </c>
       <c r="D147" s="1">
         <v>44049</v>
@@ -3362,7 +3362,7 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>3963.9968273170598</v>
+        <v>2542.10957541585</v>
       </c>
       <c r="D148" s="1">
         <v>44050</v>
@@ -3379,7 +3379,7 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>3963.86879395401</v>
+        <v>2542.05402205263</v>
       </c>
       <c r="D149" s="1">
         <v>44051</v>
@@ -3396,7 +3396,7 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>3963.75045677253</v>
+        <v>2542.00277656669</v>
       </c>
       <c r="D150" s="1">
         <v>44052</v>
@@ -3413,7 +3413,7 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>3963.6410812293302</v>
+        <v>2541.9555048319198</v>
       </c>
       <c r="D151" s="1">
         <v>44053</v>
@@ -3430,7 +3430,7 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>3963.5399884614098</v>
+        <v>2541.91189864839</v>
       </c>
       <c r="D152" s="1">
         <v>44054</v>
@@ -3447,7 +3447,7 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>3963.44655106033</v>
+        <v>2541.8716737290001</v>
       </c>
       <c r="D153" s="1">
         <v>44055</v>
@@ -3464,7 +3464,7 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>3963.36018916796</v>
+        <v>2541.83456784277</v>
       </c>
       <c r="D154" s="1">
         <v>44056</v>
@@ -3481,7 +3481,7 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>3963.2803668690499</v>
+        <v>2541.8003391024499</v>
       </c>
       <c r="D155" s="1">
         <v>44057</v>
@@ -3498,7 +3498,7 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>3963.20658885804</v>
+        <v>2541.7687643853001</v>
       </c>
       <c r="D156" s="1">
         <v>44058</v>
@@ -3515,7 +3515,7 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>3963.1383973591701</v>
+        <v>2541.7396378765602</v>
       </c>
       <c r="D157" s="1">
         <v>44059</v>
@@ -3532,7 +3532,7 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>3963.0753692805301</v>
+        <v>2541.7127697261299</v>
       </c>
       <c r="D158" s="1">
         <v>44060</v>
@@ -3549,7 +3549,7 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>3963.0171135842402</v>
+        <v>2541.6879848096301</v>
       </c>
       <c r="D159" s="1">
         <v>44061</v>
@@ -3566,7 +3566,7 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>3962.9632688563602</v>
+        <v>2541.66512158566</v>
       </c>
       <c r="D160" s="1">
         <v>44062</v>
@@ -3583,7 +3583,7 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>3962.9135010612399</v>
+        <v>2541.6440310418302</v>
       </c>
       <c r="D161" s="1">
         <v>44063</v>
@@ -3600,7 +3600,7 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>3962.8675014663199</v>
+        <v>2541.6245757226702</v>
       </c>
       <c r="D162" s="1">
         <v>44064</v>
@@ -3617,7 +3617,7 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>3962.8249847243801</v>
+        <v>2541.6066288329698</v>
       </c>
       <c r="D163" s="1">
         <v>44065</v>
@@ -3634,7 +3634,7 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>3962.78568710133</v>
+        <v>2541.5900734107699</v>
       </c>
       <c r="D164" s="1">
         <v>44066</v>
@@ -3651,7 +3651,7 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>3962.7493648383802</v>
+        <v>2541.5748015645499</v>
       </c>
       <c r="D165" s="1">
         <v>44067</v>
@@ -3668,7 +3668,7 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>3962.7157926384698</v>
+        <v>2541.5607137695802</v>
       </c>
       <c r="D166" s="1">
         <v>44068</v>
@@ -3685,7 +3685,7 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>3962.68476226749</v>
+        <v>2541.5477182189502</v>
       </c>
       <c r="D167" s="1">
         <v>44069</v>
@@ -3702,7 +3702,7 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>3962.6560812615198</v>
+        <v>2541.5357302249399</v>
       </c>
       <c r="D168" s="1">
         <v>44070</v>
@@ -3719,7 +3719,7 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>3962.62957173209</v>
+        <v>2541.5246716668298</v>
       </c>
       <c r="D169" s="1">
         <v>44071</v>
@@ -3736,7 +3736,7 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>3962.6050692620702</v>
+        <v>2541.5144704815498</v>
       </c>
       <c r="D170" s="1">
         <v>44072</v>
@@ -3753,7 +3753,7 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>3962.5824218851699</v>
+        <v>2541.5050601939101</v>
       </c>
       <c r="D171" s="1">
         <v>44073</v>
@@ -3770,7 +3770,7 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>3962.5614891428299</v>
+        <v>2541.4963794831801</v>
       </c>
       <c r="D172" s="1">
         <v>44074</v>
@@ -3787,7 +3787,7 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>3962.5421412125802</v>
+        <v>2541.4883717834</v>
       </c>
       <c r="D173" s="1">
         <v>44075</v>
@@ -3804,7 +3804,7 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>3962.5242581024499</v>
+        <v>2541.48098491462</v>
       </c>
       <c r="D174" s="1">
         <v>44076</v>
@@ -3821,7 +3821,7 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>3962.5077289064202</v>
+        <v>2541.4741707427602</v>
       </c>
       <c r="D175" s="1">
         <v>44077</v>
@@ -3838,7 +3838,7 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>3962.4924511162799</v>
+        <v>2541.46788486589</v>
       </c>
       <c r="D176" s="1">
         <v>44078</v>
@@ -3855,7 +3855,7 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>3962.4783299856699</v>
+        <v>2541.4620863248201</v>
       </c>
       <c r="D177" s="1">
         <v>44079</v>
@@ -3872,7 +3872,7 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>3962.4652779421799</v>
+        <v>2541.4567373361201</v>
       </c>
       <c r="D178" s="1">
         <v>44080</v>
@@ -3889,7 +3889,7 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>3962.4532140441802</v>
+        <v>2541.4518030458498</v>
       </c>
       <c r="D179" s="1">
         <v>44081</v>
@@ -3906,7 +3906,7 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>3962.4420634785902</v>
+        <v>2541.4472513024598</v>
       </c>
       <c r="D180" s="1">
         <v>44082</v>
@@ -3923,7 +3923,7 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>3962.4317570968501</v>
+        <v>2541.44305244717</v>
       </c>
       <c r="D181" s="1">
         <v>44083</v>
@@ -3940,7 +3940,7 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>3962.4222309859301</v>
+        <v>2541.4391791207599</v>
       </c>
       <c r="D182" s="1">
         <v>44084</v>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>195.09210063130101</v>
+        <v>202.23552640786599</v>
       </c>
       <c r="D184" s="1">
         <v>43905</v>
@@ -3982,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="C185">
-        <v>252.03025746201001</v>
+        <v>270.81633663415801</v>
       </c>
       <c r="D185" s="1">
         <v>43906</v>
@@ -3996,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="C186">
-        <v>325.53779063389499</v>
+        <v>362.583284485435</v>
       </c>
       <c r="D186" s="1">
         <v>43907</v>
@@ -4010,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>420.40442259822601</v>
+        <v>485.31964124578298</v>
       </c>
       <c r="D187" s="1">
         <v>43908</v>
@@ -4024,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="C188">
-        <v>542.78272939887597</v>
+        <v>649.37630413326599</v>
       </c>
       <c r="D188" s="1">
         <v>43909</v>
@@ -4038,7 +4038,7 @@
         <v>6</v>
       </c>
       <c r="C189">
-        <v>700.56185715863</v>
+        <v>868.48647323585703</v>
       </c>
       <c r="D189" s="1">
         <v>43910</v>
@@ -4052,7 +4052,7 @@
         <v>7</v>
       </c>
       <c r="C190">
-        <v>903.83466634641502</v>
+        <v>1160.8064518118199</v>
       </c>
       <c r="D190" s="1">
         <v>43911</v>
@@ -4066,7 +4066,7 @@
         <v>8</v>
       </c>
       <c r="C191">
-        <v>1165.4724864837301</v>
+        <v>1550.23162155253</v>
       </c>
       <c r="D191" s="1">
         <v>43912</v>
@@ -4080,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="C192">
-        <v>1501.8264003844999</v>
+        <v>2068.0160822902699</v>
       </c>
       <c r="D192" s="1">
         <v>43913</v>
@@ -4094,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="C193">
-        <v>1933.56060181051</v>
+        <v>2754.69748499759</v>
       </c>
       <c r="D193" s="1">
         <v>43914</v>
@@ -4108,7 +4108,7 @@
         <v>11</v>
       </c>
       <c r="C194">
-        <v>2486.6149414619299</v>
+        <v>3662.2584969258201</v>
       </c>
       <c r="D194" s="1">
         <v>43915</v>
@@ -4122,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="C195">
-        <v>3193.2654988054501</v>
+        <v>4856.3260006104701</v>
       </c>
       <c r="D195" s="1">
         <v>43916</v>
@@ -4136,7 +4136,7 @@
         <v>13</v>
       </c>
       <c r="C196">
-        <v>4093.2084997044299</v>
+        <v>6417.9869511554198</v>
       </c>
       <c r="D196" s="1">
         <v>43917</v>
@@ -4150,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="C197">
-        <v>5234.5194166740102</v>
+        <v>8444.4458160399099</v>
       </c>
       <c r="D197" s="1">
         <v>43918</v>
@@ -4164,7 +4164,7 @@
         <v>15</v>
       </c>
       <c r="C198">
-        <v>6674.2298213818704</v>
+        <v>11047.2873199642</v>
       </c>
       <c r="D198" s="1">
         <v>43919</v>
@@ -4178,7 +4178,7 @@
         <v>16</v>
       </c>
       <c r="C199">
-        <v>8478.1216213820499</v>
+        <v>14346.529007839101</v>
       </c>
       <c r="D199" s="1">
         <v>43920</v>
@@ -4192,7 +4192,7 @@
         <v>17</v>
       </c>
       <c r="C200">
-        <v>10719.147526380701</v>
+        <v>18458.328617707</v>
       </c>
       <c r="D200" s="1">
         <v>43921</v>
@@ -4206,7 +4206,7 @@
         <v>18</v>
       </c>
       <c r="C201">
-        <v>13473.712932668201</v>
+        <v>23474.4816519622</v>
       </c>
       <c r="D201" s="1">
         <v>43922</v>
@@ -4220,7 +4220,7 @@
         <v>19</v>
       </c>
       <c r="C202">
-        <v>16814.9848256201</v>
+        <v>29433.547811304401</v>
       </c>
       <c r="D202" s="1">
         <v>43923</v>
@@ -4234,7 +4234,7 @@
         <v>20</v>
       </c>
       <c r="C203">
-        <v>20802.5378162698</v>
+        <v>36287.164936302797</v>
       </c>
       <c r="D203" s="1">
         <v>43924</v>
@@ -4248,7 +4248,7 @@
         <v>21</v>
       </c>
       <c r="C204">
-        <v>25468.270642023199</v>
+        <v>43870.4128379412</v>
       </c>
       <c r="D204" s="1">
         <v>43925</v>
@@ -4262,7 +4262,7 @@
         <v>22</v>
       </c>
       <c r="C205">
-        <v>30799.759276621098</v>
+        <v>51889.701014497703</v>
       </c>
       <c r="D205" s="1">
         <v>43926</v>
@@ -4276,7 +4276,7 @@
         <v>23</v>
       </c>
       <c r="C206">
-        <v>36724.023975987999</v>
+        <v>59940.808068309903</v>
       </c>
       <c r="D206" s="1">
         <v>43927</v>
@@ -4290,7 +4290,7 @@
         <v>24</v>
       </c>
       <c r="C207">
-        <v>43096.467827796703</v>
+        <v>67560.986319787495</v>
       </c>
       <c r="D207" s="1">
         <v>43928</v>
@@ -4304,7 +4304,7 @@
         <v>25</v>
       </c>
       <c r="C208">
-        <v>49700.565262192402</v>
+        <v>74303.637391524899</v>
       </c>
       <c r="D208" s="1">
         <v>43929</v>
@@ -4318,7 +4318,7 @@
         <v>26</v>
       </c>
       <c r="C209">
-        <v>56262.386201002199</v>
+        <v>79812.149706465396</v>
       </c>
       <c r="D209" s="1">
         <v>43930</v>
@@ -4332,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="C210">
-        <v>62479.8735842116</v>
+        <v>83868.764301310002</v>
       </c>
       <c r="D210" s="1">
         <v>43931</v>
@@ -4346,7 +4346,7 @@
         <v>28</v>
       </c>
       <c r="C211">
-        <v>68061.275629625699</v>
+        <v>86406.908393901103</v>
       </c>
       <c r="D211" s="1">
         <v>43932</v>
@@ -4360,7 +4360,7 @@
         <v>29</v>
       </c>
       <c r="C212">
-        <v>72763.198831971502</v>
+        <v>87490.869223800502</v>
       </c>
       <c r="D212" s="1">
         <v>43933</v>
@@ -4374,7 +4374,7 @@
         <v>30</v>
       </c>
       <c r="C213">
-        <v>76418.444386393894</v>
+        <v>87277.091934527503</v>
       </c>
       <c r="D213" s="1">
         <v>43934</v>
@@ -4388,7 +4388,7 @@
         <v>31</v>
       </c>
       <c r="C214">
-        <v>78947.764069710698</v>
+        <v>85972.066154674205</v>
       </c>
       <c r="D214" s="1">
         <v>43935</v>
@@ -4402,7 +4402,7 @@
         <v>32</v>
       </c>
       <c r="C215">
-        <v>80355.444838041294</v>
+        <v>83797.146311591903</v>
       </c>
       <c r="D215" s="1">
         <v>43936</v>
@@ -4416,7 +4416,7 @@
         <v>33</v>
       </c>
       <c r="C216">
-        <v>80713.2204978464</v>
+        <v>80964.215719806205</v>
       </c>
       <c r="D216" s="1">
         <v>43937</v>
@@ -4430,7 +4430,7 @@
         <v>34</v>
       </c>
       <c r="C217">
-        <v>80138.775727896005</v>
+        <v>77661.8113749576</v>
       </c>
       <c r="D217" s="1">
         <v>43938</v>
@@ -4444,7 +4444,7 @@
         <v>35</v>
       </c>
       <c r="C218">
-        <v>78774.464290196702</v>
+        <v>74049.349246559097</v>
       </c>
       <c r="D218" s="1">
         <v>43939</v>
@@ -4458,7 +4458,7 @@
         <v>36</v>
       </c>
       <c r="C219">
-        <v>76769.706563076703</v>
+        <v>70256.478207886699</v>
       </c>
       <c r="D219" s="1">
         <v>43940</v>
@@ -4472,7 +4472,7 @@
         <v>37</v>
       </c>
       <c r="C220">
-        <v>74268.403547426395</v>
+        <v>66385.442134515601</v>
       </c>
       <c r="D220" s="1">
         <v>43941</v>
@@ -4486,7 +4486,7 @@
         <v>38</v>
       </c>
       <c r="C221">
-        <v>71401.194874793699</v>
+        <v>62514.7275514469</v>
       </c>
       <c r="D221" s="1">
         <v>43942</v>
@@ -4500,7 +4500,7 @@
         <v>39</v>
       </c>
       <c r="C222">
-        <v>68281.638120643707</v>
+        <v>58703.036939756297</v>
       </c>
       <c r="D222" s="1">
         <v>43943</v>
@@ -4514,7 +4514,7 @@
         <v>40</v>
       </c>
       <c r="C223">
-        <v>65005.178515671003</v>
+        <v>54993.052891449399</v>
       </c>
       <c r="D223" s="1">
         <v>43944</v>
@@ -4528,7 +4528,7 @@
         <v>41</v>
       </c>
       <c r="C224">
-        <v>61649.803231866601</v>
+        <v>51414.751443535599</v>
       </c>
       <c r="D224" s="1">
         <v>43945</v>
@@ -4542,7 +4542,7 @@
         <v>42</v>
       </c>
       <c r="C225">
-        <v>58277.709941153902</v>
+        <v>47988.1934901528</v>
       </c>
       <c r="D225" s="1">
         <v>43946</v>
@@ -4556,7 +4556,7 @@
         <v>43</v>
       </c>
       <c r="C226">
-        <v>54937.361244903099</v>
+        <v>44725.8006309794</v>
       </c>
       <c r="D226" s="1">
         <v>43947</v>
@@ -4570,7 +4570,7 @@
         <v>44</v>
       </c>
       <c r="C227">
-        <v>51665.618379303203</v>
+        <v>41634.181236540702</v>
       </c>
       <c r="D227" s="1">
         <v>43948</v>
@@ -4584,7 +4584,7 @@
         <v>45</v>
       </c>
       <c r="C228">
-        <v>48489.752553760103</v>
+        <v>38715.575906408303</v>
       </c>
       <c r="D228" s="1">
         <v>43949</v>
@@ -4598,7 +4598,7 @@
         <v>46</v>
       </c>
       <c r="C229">
-        <v>45429.240195447499</v>
+        <v>35968.990577403201</v>
       </c>
       <c r="D229" s="1">
         <v>43950</v>
@@ -4612,7 +4612,7 @@
         <v>47</v>
       </c>
       <c r="C230">
-        <v>42497.313996742101</v>
+        <v>33391.0766925235</v>
       </c>
       <c r="D230" s="1">
         <v>43951</v>
@@ -4626,7 +4626,7 @@
         <v>48</v>
       </c>
       <c r="C231">
-        <v>39702.264852279703</v>
+        <v>30976.811115684799</v>
       </c>
       <c r="D231" s="1">
         <v>43952</v>
@@ -4640,7 +4640,7 @@
         <v>49</v>
       </c>
       <c r="C232">
-        <v>37048.517047249901</v>
+        <v>28720.018632974999</v>
       </c>
       <c r="D232" s="1">
         <v>43953</v>
@@ -4654,7 +4654,7 @@
         <v>50</v>
       </c>
       <c r="C233">
-        <v>34537.507107001999</v>
+        <v>26613.771279896901</v>
       </c>
       <c r="D233" s="1">
         <v>43954</v>
@@ -4668,7 +4668,7 @@
         <v>51</v>
       </c>
       <c r="C234">
-        <v>32168.395234530501</v>
+        <v>24650.691727134301</v>
       </c>
       <c r="D234" s="1">
         <v>43955</v>
@@ -4682,7 +4682,7 @@
         <v>52</v>
       </c>
       <c r="C235">
-        <v>29938.635219075</v>
+        <v>22823.182636735699</v>
       </c>
       <c r="D235" s="1">
         <v>43956</v>
@@ -4696,7 +4696,7 @@
         <v>53</v>
       </c>
       <c r="C236">
-        <v>27844.4232979484</v>
+        <v>21123.596931333799</v>
       </c>
       <c r="D236" s="1">
         <v>43957</v>
@@ -4710,7 +4710,7 @@
         <v>54</v>
       </c>
       <c r="C237">
-        <v>25881.062062027198</v>
+        <v>19544.363323584599</v>
       </c>
       <c r="D237" s="1">
         <v>43958</v>
@@ -4724,7 +4724,7 @@
         <v>55</v>
       </c>
       <c r="C238">
-        <v>24043.243945669099</v>
+        <v>18078.079902501599</v>
       </c>
       <c r="D238" s="1">
         <v>43959</v>
@@ -4738,7 +4738,7 @@
         <v>56</v>
       </c>
       <c r="C239">
-        <v>22325.270423021801</v>
+        <v>16717.579294060099</v>
       </c>
       <c r="D239" s="1">
         <v>43960</v>
@@ -4752,7 +4752,7 @@
         <v>57</v>
       </c>
       <c r="C240">
-        <v>20721.223386628801</v>
+        <v>15455.972642057999</v>
       </c>
       <c r="D240" s="1">
         <v>43961</v>
@@ -4766,7 +4766,7 @@
         <v>58</v>
       </c>
       <c r="C241">
-        <v>19225.0979041069</v>
+        <v>14286.678580527599</v>
       </c>
       <c r="D241" s="1">
         <v>43962</v>
@@ -4780,7 +4780,7 @@
         <v>59</v>
       </c>
       <c r="C242">
-        <v>17830.903139024002</v>
+        <v>13203.4404005243</v>
       </c>
       <c r="D242" s="1">
         <v>43963</v>
@@ -4794,7 +4794,7 @@
         <v>60</v>
       </c>
       <c r="C243">
-        <v>16532.738338598301</v>
+        <v>12200.334000697099</v>
       </c>
       <c r="D243" s="1">
         <v>43964</v>
@@ -4808,7 +4808,7 @@
         <v>61</v>
       </c>
       <c r="C244">
-        <v>15324.8490174495</v>
+        <v>11271.769022344</v>
       </c>
       <c r="D244" s="1">
         <v>43965</v>
@@ -4822,7 +4822,7 @@
         <v>62</v>
       </c>
       <c r="C245">
-        <v>14201.6675047099</v>
+        <v>10412.4849042347</v>
       </c>
       <c r="D245" s="1">
         <v>43966</v>
@@ -4836,7 +4836,7 @@
         <v>63</v>
       </c>
       <c r="C246">
-        <v>13157.8411865449</v>
+        <v>9617.5432322541801</v>
       </c>
       <c r="D246" s="1">
         <v>43967</v>
@@ -4850,7 +4850,7 @@
         <v>64</v>
       </c>
       <c r="C247">
-        <v>12188.2510873231</v>
+        <v>8882.3174439104405</v>
       </c>
       <c r="D247" s="1">
         <v>43968</v>
@@ -4864,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="C248">
-        <v>11288.022915707799</v>
+        <v>8202.48070524576</v>
       </c>
       <c r="D248" s="1">
         <v>43969</v>
@@ -4878,7 +4878,7 @@
         <v>66</v>
       </c>
       <c r="C249">
-        <v>10452.5322690786</v>
+        <v>7573.9925957584101</v>
       </c>
       <c r="D249" s="1">
         <v>43970</v>
@@ -4892,7 +4892,7 @@
         <v>67</v>
       </c>
       <c r="C250">
-        <v>9677.4053479812901</v>
+        <v>6993.08508869248</v>
       </c>
       <c r="D250" s="1">
         <v>43971</v>
@@ -4906,7 +4906,7 @@
         <v>68</v>
       </c>
       <c r="C251">
-        <v>8958.5162579535408</v>
+        <v>6456.2481996059796</v>
       </c>
       <c r="D251" s="1">
         <v>43972</v>
@@ -4920,7 +4920,7 @@
         <v>69</v>
       </c>
       <c r="C252">
-        <v>8291.9817559000894</v>
+        <v>5960.2155859240302</v>
       </c>
       <c r="D252" s="1">
         <v>43973</v>
@@ -4934,7 +4934,7 @@
         <v>70</v>
       </c>
       <c r="C253">
-        <v>7674.1541219792498</v>
+        <v>5501.9503093459998</v>
       </c>
       <c r="D253" s="1">
         <v>43974</v>
@@ -4948,7 +4948,7 @@
         <v>71</v>
       </c>
       <c r="C254">
-        <v>7101.6126965080102</v>
+        <v>5078.6309174952503</v>
       </c>
       <c r="D254" s="1">
         <v>43975</v>
@@ -4962,7 +4962,7 @@
         <v>72</v>
       </c>
       <c r="C255">
-        <v>6571.1545079453199</v>
+        <v>4687.6379576855497</v>
       </c>
       <c r="D255" s="1">
         <v>43976</v>
@@ -4976,7 +4976,7 @@
         <v>73</v>
       </c>
       <c r="C256">
-        <v>6079.7843269788</v>
+        <v>4326.5410016747701</v>
       </c>
       <c r="D256" s="1">
         <v>43977</v>
@@ -4990,7 +4990,7 @@
         <v>74</v>
       </c>
       <c r="C257">
-        <v>5624.7044086877104</v>
+        <v>3993.0862337724998</v>
       </c>
       <c r="D257" s="1">
         <v>43978</v>
@@ -5004,7 +5004,7 @@
         <v>75</v>
       </c>
       <c r="C258">
-        <v>5203.3041261531098</v>
+        <v>3685.1846340980301</v>
       </c>
       <c r="D258" s="1">
         <v>43979</v>
@@ -5018,7 +5018,7 @@
         <v>76</v>
       </c>
       <c r="C259">
-        <v>4813.1496519012298</v>
+        <v>3400.90077291732</v>
       </c>
       <c r="D259" s="1">
         <v>43980</v>
@@ -5032,7 +5032,7 @@
         <v>77</v>
       </c>
       <c r="C260">
-        <v>4451.9738059318897</v>
+        <v>3138.4422198400098</v>
       </c>
       <c r="D260" s="1">
         <v>43981</v>
@@ -5046,7 +5046,7 @@
         <v>78</v>
       </c>
       <c r="C261">
-        <v>4117.6661589852201</v>
+        <v>2896.14956245852</v>
       </c>
       <c r="D261" s="1">
         <v>43982</v>
@@ -5060,7 +5060,7 @@
         <v>79</v>
       </c>
       <c r="C262">
-        <v>3808.2634556767198</v>
+        <v>2672.4870221440401</v>
       </c>
       <c r="D262" s="1">
         <v>43983</v>
@@ -5074,7 +5074,7 @@
         <v>80</v>
       </c>
       <c r="C263">
-        <v>3521.94040301017</v>
+        <v>2466.03364969003</v>
       </c>
       <c r="D263" s="1">
         <v>43984</v>
@@ -5088,7 +5088,7 @@
         <v>81</v>
       </c>
       <c r="C264">
-        <v>3257.0008546159802</v>
+        <v>2275.47507992295</v>
       </c>
       <c r="D264" s="1">
         <v>43985</v>
@@ -5102,7 +5102,7 @@
         <v>82</v>
       </c>
       <c r="C265">
-        <v>3011.8694090956901</v>
+        <v>2099.5958219713598</v>
       </c>
       <c r="D265" s="1">
         <v>43986</v>
@@ -5116,7 +5116,7 @@
         <v>83</v>
       </c>
       <c r="C266">
-        <v>2785.08343146792</v>
+        <v>1937.27206035105</v>
       </c>
       <c r="D266" s="1">
         <v>43987</v>
@@ -5130,7 +5130,7 @@
         <v>84</v>
       </c>
       <c r="C267">
-        <v>2575.2854994074701</v>
+        <v>1787.4649411861999</v>
       </c>
       <c r="D267" s="1">
         <v>43988</v>
@@ -5144,7 +5144,7 @@
         <v>85</v>
       </c>
       <c r="C268">
-        <v>2381.2162703459098</v>
+        <v>1649.2143175879801</v>
       </c>
       <c r="D268" s="1">
         <v>43989</v>
@@ -5158,7 +5158,7 @@
         <v>86</v>
       </c>
       <c r="C269">
-        <v>2201.70776123102</v>
+        <v>1521.6329283254499</v>
       </c>
       <c r="D269" s="1">
         <v>43990</v>
@@ -5172,7 +5172,7 @@
         <v>87</v>
       </c>
       <c r="C270">
-        <v>2035.67702955959</v>
+        <v>1403.90098434829</v>
       </c>
       <c r="D270" s="1">
         <v>43991</v>
@@ -5186,7 +5186,7 @@
         <v>88</v>
       </c>
       <c r="C271">
-        <v>1882.1202419871199</v>
+        <v>1295.26113837764</v>
       </c>
       <c r="D271" s="1">
         <v>43992</v>
@@ -5200,7 +5200,7 @@
         <v>89</v>
       </c>
       <c r="C272">
-        <v>1740.1071152053401</v>
+        <v>1195.0138136048799</v>
       </c>
       <c r="D272" s="1">
         <v>43993</v>
@@ -5214,7 +5214,7 @@
         <v>90</v>
       </c>
       <c r="C273">
-        <v>1608.77571272054</v>
+        <v>1102.5128684793301</v>
       </c>
       <c r="D273" s="1">
         <v>43994</v>
@@ -5228,7 +5228,7 @@
         <v>91</v>
       </c>
       <c r="C274">
-        <v>1487.32758054848</v>
+        <v>1017.16157558409</v>
       </c>
       <c r="D274" s="1">
         <v>43995</v>
@@ -5242,7 +5242,7 @@
         <v>92</v>
       </c>
       <c r="C275">
-        <v>1375.0232045703201</v>
+        <v>938.408893663036</v>
       </c>
       <c r="D275" s="1">
         <v>43996</v>
@@ -5256,7 +5256,7 @@
         <v>93</v>
       </c>
       <c r="C276">
-        <v>1271.1777722929</v>
+        <v>865.74601294739296</v>
       </c>
       <c r="D276" s="1">
         <v>43997</v>
@@ -5270,7 +5270,7 @@
         <v>94</v>
       </c>
       <c r="C277">
-        <v>1175.15722196413</v>
+        <v>798.70315501809205</v>
       </c>
       <c r="D277" s="1">
         <v>43998</v>
@@ -5284,7 +5284,7 @@
         <v>95</v>
       </c>
       <c r="C278">
-        <v>1086.37456235993</v>
+        <v>736.84660951560704</v>
       </c>
       <c r="D278" s="1">
         <v>43999</v>
@@ -5298,7 +5298,7 @@
         <v>96</v>
       </c>
       <c r="C279">
-        <v>1004.2864470429899</v>
+        <v>679.77599106172204</v>
       </c>
       <c r="D279" s="1">
         <v>44000</v>
@@ -5312,7 +5312,7 @@
         <v>97</v>
       </c>
       <c r="C280">
-        <v>928.38998746314996</v>
+        <v>627.12170077915596</v>
       </c>
       <c r="D280" s="1">
         <v>44001</v>
@@ -5326,7 +5326,7 @@
         <v>98</v>
       </c>
       <c r="C281">
-        <v>858.21978989772299</v>
+        <v>578.542577779672</v>
       </c>
       <c r="D281" s="1">
         <v>44002</v>
@@ -5340,7 +5340,7 @@
         <v>99</v>
       </c>
       <c r="C282">
-        <v>793.34520189758803</v>
+        <v>533.72372693516695</v>
       </c>
       <c r="D282" s="1">
         <v>44003</v>
@@ -5354,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="C283">
-        <v>733.36775459394403</v>
+        <v>492.37451014667403</v>
       </c>
       <c r="D283" s="1">
         <v>44004</v>
@@ -5368,7 +5368,7 @@
         <v>101</v>
       </c>
       <c r="C284">
-        <v>677.91878791871704</v>
+        <v>454.22668918199099</v>
       </c>
       <c r="D284" s="1">
         <v>44005</v>
@@ -5382,7 +5382,7 @@
         <v>102</v>
       </c>
       <c r="C285">
-        <v>626.65724648813796</v>
+        <v>419.03270896305702</v>
       </c>
       <c r="D285" s="1">
         <v>44006</v>
@@ -5396,7 +5396,7 @@
         <v>103</v>
       </c>
       <c r="C286">
-        <v>579.26763458622497</v>
+        <v>386.56411094959401</v>
       </c>
       <c r="D286" s="1">
         <v>44007</v>
@@ -5410,7 +5410,7 @@
         <v>104</v>
       </c>
       <c r="C287">
-        <v>535.45811935664301</v>
+        <v>356.61006698646003</v>
       </c>
       <c r="D287" s="1">
         <v>44008</v>
@@ -5424,7 +5424,7 @@
         <v>105</v>
       </c>
       <c r="C288">
-        <v>494.95877196330002</v>
+        <v>328.97602465990002</v>
       </c>
       <c r="D288" s="1">
         <v>44009</v>
@@ -5438,7 +5438,7 @@
         <v>106</v>
       </c>
       <c r="C289">
-        <v>457.51993710865202</v>
+        <v>303.482455843563</v>
       </c>
       <c r="D289" s="1">
         <v>44010</v>
@@ -5452,7 +5452,7 @@
         <v>107</v>
       </c>
       <c r="C290">
-        <v>422.91072190192301</v>
+        <v>279.96370071068998</v>
       </c>
       <c r="D290" s="1">
         <v>44011</v>
@@ -5466,7 +5466,7 @@
         <v>108</v>
       </c>
       <c r="C291">
-        <v>390.91759564567099</v>
+        <v>258.266900045684</v>
       </c>
       <c r="D291" s="1">
         <v>44012</v>
@@ -5480,7 +5480,7 @@
         <v>109</v>
       </c>
       <c r="C292">
-        <v>361.343092657699</v>
+        <v>238.25100920841101</v>
       </c>
       <c r="D292" s="1">
         <v>44013</v>
@@ -5494,7 +5494,7 @@
         <v>110</v>
       </c>
       <c r="C293">
-        <v>334.00461076575198</v>
+        <v>219.78588758976699</v>
       </c>
       <c r="D293" s="1">
         <v>44014</v>
@@ -5508,7 +5508,7 @@
         <v>111</v>
       </c>
       <c r="C294">
-        <v>308.73329860491799</v>
+        <v>202.751457849215</v>
       </c>
       <c r="D294" s="1">
         <v>44015</v>
@@ -5522,7 +5522,7 @@
         <v>112</v>
       </c>
       <c r="C295">
-        <v>285.373025312555</v>
+        <v>187.036929645985</v>
       </c>
       <c r="D295" s="1">
         <v>44016</v>
@@ -5536,7 +5536,7 @@
         <v>113</v>
       </c>
       <c r="C296">
-        <v>263.77942665350298</v>
+        <v>172.54008296725701</v>
       </c>
       <c r="D296" s="1">
         <v>44017</v>
@@ -5550,7 +5550,7 @@
         <v>114</v>
       </c>
       <c r="C297">
-        <v>243.81902202006799</v>
+        <v>159.16660652073</v>
       </c>
       <c r="D297" s="1">
         <v>44018</v>
@@ -5564,7 +5564,7 @@
         <v>115</v>
       </c>
       <c r="C298">
-        <v>225.36839713785801</v>
+        <v>146.82948699712301</v>
       </c>
       <c r="D298" s="1">
         <v>44019</v>
@@ -5578,7 +5578,7 @@
         <v>116</v>
       </c>
       <c r="C299">
-        <v>208.31344767081501</v>
+        <v>135.44844532217101</v>
       </c>
       <c r="D299" s="1">
         <v>44020</v>
@@ -5592,7 +5592,7 @@
         <v>117</v>
       </c>
       <c r="C300">
-        <v>192.548679258036</v>
+        <v>124.949416308959</v>
       </c>
       <c r="D300" s="1">
         <v>44021</v>
@@ -5606,7 +5606,7 @@
         <v>118</v>
       </c>
       <c r="C301">
-        <v>177.97655983209501</v>
+        <v>115.264068391633</v>
       </c>
       <c r="D301" s="1">
         <v>44022</v>
@@ -5620,7 +5620,7 @@
         <v>119</v>
       </c>
       <c r="C302">
-        <v>164.506920364872</v>
+        <v>106.329360371965</v>
       </c>
       <c r="D302" s="1">
         <v>44023</v>
@@ -5634,7 +5634,7 @@
         <v>120</v>
       </c>
       <c r="C303">
-        <v>152.056400463377</v>
+        <v>98.087132342296599</v>
       </c>
       <c r="D303" s="1">
         <v>44024</v>
@@ -5648,7 +5648,7 @@
         <v>121</v>
       </c>
       <c r="C304">
-        <v>140.54793549585901</v>
+        <v>90.483728163373698</v>
       </c>
       <c r="D304" s="1">
         <v>44025</v>
@@ -5662,7 +5662,7 @@
         <v>122</v>
       </c>
       <c r="C305">
-        <v>129.91028216870899</v>
+        <v>83.469647074559106</v>
       </c>
       <c r="D305" s="1">
         <v>44026</v>
@@ -5676,7 +5676,7 @@
         <v>123</v>
       </c>
       <c r="C306">
-        <v>120.077579698319</v>
+        <v>76.999222198194502</v>
       </c>
       <c r="D306" s="1">
         <v>44027</v>
@@ -5690,7 +5690,7 @@
         <v>124</v>
       </c>
       <c r="C307">
-        <v>110.988943930188</v>
+        <v>71.030323870333504</v>
       </c>
       <c r="D307" s="1">
         <v>44028</v>
@@ -5704,7 +5704,7 @@
         <v>125</v>
       </c>
       <c r="C308">
-        <v>102.588091951132</v>
+        <v>65.524085887808297</v>
       </c>
       <c r="D308" s="1">
         <v>44029</v>
@@ -5718,7 +5718,7 @@
         <v>126</v>
       </c>
       <c r="C309">
-        <v>94.822994920332306</v>
+        <v>60.444652907472602</v>
       </c>
       <c r="D309" s="1">
         <v>44030</v>
@@ -5732,7 +5732,7 @@
         <v>127</v>
       </c>
       <c r="C310">
-        <v>87.645557012168794</v>
+        <v>55.758947368367899</v>
       </c>
       <c r="D310" s="1">
         <v>44031</v>
@@ -5746,7 +5746,7 @@
         <v>128</v>
       </c>
       <c r="C311">
-        <v>81.011318518972004</v>
+        <v>51.436454432282297</v>
       </c>
       <c r="D311" s="1">
         <v>44032</v>
@@ -5760,7 +5760,7 @@
         <v>129</v>
       </c>
       <c r="C312">
-        <v>74.879181305970306</v>
+        <v>47.4490235534672</v>
       </c>
       <c r="D312" s="1">
         <v>44033</v>
@@ -5774,7 +5774,7 @@
         <v>130</v>
       </c>
       <c r="C313">
-        <v>69.211154944439102</v>
+        <v>43.770685394831197</v>
       </c>
       <c r="D313" s="1">
         <v>44034</v>
@@ -5788,7 +5788,7 @@
         <v>131</v>
       </c>
       <c r="C314">
-        <v>63.972121973129603</v>
+        <v>40.377482906397802</v>
       </c>
       <c r="D314" s="1">
         <v>44035</v>
@@ -5802,7 +5802,7 @@
         <v>132</v>
       </c>
       <c r="C315">
-        <v>59.129620853121097</v>
+        <v>37.247315472792799</v>
       </c>
       <c r="D315" s="1">
         <v>44036</v>
@@ -5816,7 +5816,7 @@
         <v>133</v>
       </c>
       <c r="C316">
-        <v>54.653645287933003</v>
+        <v>34.359795120578099</v>
       </c>
       <c r="D316" s="1">
         <v>44037</v>
@@ -5830,7 +5830,7 @@
         <v>134</v>
       </c>
       <c r="C317">
-        <v>50.516458679622303</v>
+        <v>31.696113853885301</v>
       </c>
       <c r="D317" s="1">
         <v>44038</v>
@@ -5844,7 +5844,7 @@
         <v>135</v>
       </c>
       <c r="C318">
-        <v>46.692422583248003</v>
+        <v>29.238921258515401</v>
       </c>
       <c r="D318" s="1">
         <v>44039</v>
@@ -5858,7 +5858,7 @@
         <v>136</v>
       </c>
       <c r="C319">
-        <v>43.157838106999201</v>
+        <v>26.972211580893902</v>
       </c>
       <c r="D319" s="1">
         <v>44040</v>
@@ -5872,7 +5872,7 @@
         <v>137</v>
       </c>
       <c r="C320">
-        <v>39.890799283949697</v>
+        <v>24.88121954943</v>
       </c>
       <c r="D320" s="1">
         <v>44041</v>
@@ -5886,7 +5886,7 @@
         <v>138</v>
       </c>
       <c r="C321">
-        <v>36.871057514264002</v>
+        <v>22.952324262299999</v>
       </c>
       <c r="D321" s="1">
         <v>44042</v>
@@ -5900,7 +5900,7 @@
         <v>139</v>
       </c>
       <c r="C322">
-        <v>34.0798962441527</v>
+        <v>21.1729605178102</v>
       </c>
       <c r="D322" s="1">
         <v>44043</v>
@@ -5914,7 +5914,7 @@
         <v>140</v>
       </c>
       <c r="C323">
-        <v>31.500015110348901</v>
+        <v>19.531537011639202</v>
       </c>
       <c r="D323" s="1">
         <v>44044</v>
@@ -5928,7 +5928,7 @@
         <v>141</v>
       </c>
       <c r="C324">
-        <v>29.115422836717801</v>
+        <v>18.0173608696904</v>
       </c>
       <c r="D324" s="1">
         <v>44045</v>
@@ -5942,7 +5942,7 @@
         <v>142</v>
       </c>
       <c r="C325">
-        <v>26.911338223151599</v>
+        <v>16.620568026316398</v>
       </c>
       <c r="D325" s="1">
         <v>44046</v>
@@ -5956,7 +5956,7 @@
         <v>143</v>
       </c>
       <c r="C326">
-        <v>24.874098616454901</v>
+        <v>15.332058995537899</v>
       </c>
       <c r="D326" s="1">
         <v>44047</v>
@@ -5970,7 +5970,7 @@
         <v>144</v>
       </c>
       <c r="C327">
-        <v>22.991075298789902</v>
+        <v>14.143439617835799</v>
       </c>
       <c r="D327" s="1">
         <v>44048</v>
@@ -5984,7 +5984,7 @@
         <v>145</v>
       </c>
       <c r="C328">
-        <v>21.250595271689001</v>
+        <v>13.046966397352399</v>
       </c>
       <c r="D328" s="1">
         <v>44049</v>
@@ -5998,7 +5998,7 @@
         <v>146</v>
       </c>
       <c r="C329">
-        <v>19.641868952910901</v>
+        <v>12.0354960741157</v>
       </c>
       <c r="D329" s="1">
         <v>44050</v>
@@ -6012,7 +6012,7 @@
         <v>147</v>
       </c>
       <c r="C330">
-        <v>18.1549233397505</v>
+        <v>11.102439103375501</v>
       </c>
       <c r="D330" s="1">
         <v>44051</v>
@@ -6026,7 +6026,7 @@
         <v>148</v>
       </c>
       <c r="C331">
-        <v>16.780540226023799</v>
+        <v>10.241716739501999</v>
       </c>
       <c r="D331" s="1">
         <v>44052</v>
@@ -6040,7 +6040,7 @@
         <v>149</v>
       </c>
       <c r="C332">
-        <v>15.5101990910449</v>
+        <v>9.4477214453002905</v>
       </c>
       <c r="D332" s="1">
         <v>44053</v>
@@ -6054,7 +6054,7 @@
         <v>150</v>
       </c>
       <c r="C333">
-        <v>14.3360243076751</v>
+        <v>8.7152803691888394</v>
       </c>
       <c r="D333" s="1">
         <v>44054</v>
@@ -6068,7 +6068,7 @@
         <v>151</v>
       </c>
       <c r="C334">
-        <v>13.2507363431284</v>
+        <v>8.0396216526198394</v>
       </c>
       <c r="D334" s="1">
         <v>44055</v>
@@ -6082,7 +6082,7 @@
         <v>152</v>
       </c>
       <c r="C335">
-        <v>12.2476066508265</v>
+        <v>7.4163433485090096</v>
       </c>
       <c r="D335" s="1">
         <v>44056</v>
@@ -6096,7 +6096,7 @@
         <v>153</v>
       </c>
       <c r="C336">
-        <v>11.3204159743534</v>
+        <v>6.84138474841013</v>
       </c>
       <c r="D336" s="1">
         <v>44057</v>
@@ -6110,7 +6110,7 @@
         <v>154</v>
       </c>
       <c r="C337">
-        <v>10.4634158056078</v>
+        <v>6.3109999318275198</v>
       </c>
       <c r="D337" s="1">
         <v>44058</v>
@@ -6124,7 +6124,7 @@
         <v>155</v>
       </c>
       <c r="C338">
-        <v>9.6712927587157207</v>
+        <v>5.8217333655061001</v>
       </c>
       <c r="D338" s="1">
         <v>44059</v>
@@ -6138,7 +6138,7 @@
         <v>156</v>
       </c>
       <c r="C339">
-        <v>8.9391356392668797</v>
+        <v>5.3703973938691103</v>
       </c>
       <c r="D339" s="1">
         <v>44060</v>
@@ -6152,7 +6152,7 @@
         <v>157</v>
       </c>
       <c r="C340">
-        <v>8.2624050050794402</v>
+        <v>4.9540514740720001</v>
       </c>
       <c r="D340" s="1">
         <v>44061</v>
@@ -6166,7 +6166,7 @@
         <v>158</v>
       </c>
       <c r="C341">
-        <v>7.63690503009241</v>
+        <v>4.5699830204891203</v>
       </c>
       <c r="D341" s="1">
         <v>44062</v>
@@ -6180,7 +6180,7 @@
         <v>159</v>
       </c>
       <c r="C342">
-        <v>7.05875749721333</v>
+        <v>4.2156897339194197</v>
       </c>
       <c r="D342" s="1">
         <v>44063</v>
@@ -6194,7 +6194,7 @@
         <v>160</v>
       </c>
       <c r="C343">
-        <v>6.5243777591082202</v>
+        <v>3.8888633004570301</v>
       </c>
       <c r="D343" s="1">
         <v>44064</v>
@@ -6208,7 +6208,7 @@
         <v>161</v>
       </c>
       <c r="C344">
-        <v>6.0304525180871398</v>
+        <v>3.5873743538848801</v>
       </c>
       <c r="D344" s="1">
         <v>44065</v>
@@ -6222,7 +6222,7 @@
         <v>162</v>
       </c>
       <c r="C345">
-        <v>5.5739192874866701</v>
+        <v>3.30925860367164</v>
       </c>
       <c r="D345" s="1">
         <v>44066</v>
@@ -6236,7 +6236,7 @@
         <v>163</v>
       </c>
       <c r="C346">
-        <v>5.1519474073511304</v>
+        <v>3.0527040382382702</v>
       </c>
       <c r="D346" s="1">
         <v>44067</v>
@@ -6250,7 +6250,7 @@
         <v>164</v>
       </c>
       <c r="C347">
-        <v>4.7619204968289299</v>
+        <v>2.8160391201589401</v>
       </c>
       <c r="D347" s="1">
         <v>44068</v>
@@ -6264,7 +6264,7 @@
         <v>165</v>
       </c>
       <c r="C348">
-        <v>4.4014202345899296</v>
+        <v>2.5977218964179398</v>
       </c>
       <c r="D348" s="1">
         <v>44069</v>
@@ -6278,7 +6278,7 @@
         <v>166</v>
       </c>
       <c r="C349">
-        <v>4.0682113667877697</v>
+        <v>2.3963299528006399</v>
       </c>
       <c r="D349" s="1">
         <v>44070</v>
@@ -6292,7 +6292,7 @@
         <v>167</v>
       </c>
       <c r="C350">
-        <v>3.7602278496885799</v>
+        <v>2.2105511469922798</v>
       </c>
       <c r="D350" s="1">
         <v>44071</v>
@@ -6306,7 +6306,7 @@
         <v>168</v>
       </c>
       <c r="C351">
-        <v>3.47556004111118</v>
+        <v>2.03917506002808</v>
       </c>
       <c r="D351" s="1">
         <v>44072</v>
@@ -6320,7 +6320,7 @@
         <v>169</v>
       </c>
       <c r="C352">
-        <v>3.2124428613168301</v>
+        <v>1.88108511041517</v>
       </c>
       <c r="D352" s="1">
         <v>44073</v>
@@ -6334,7 +6334,7 @@
         <v>170</v>
       </c>
       <c r="C353">
-        <v>2.96924484998934</v>
+        <v>1.7352512795619699</v>
       </c>
       <c r="D353" s="1">
         <v>44074</v>
@@ -6348,7 +6348,7 @@
         <v>171</v>
       </c>
       <c r="C354">
-        <v>2.7444580514947101</v>
+        <v>1.6007234011309299</v>
       </c>
       <c r="D354" s="1">
         <v>44075</v>
@@ -6362,7 +6362,7 @@
         <v>172</v>
       </c>
       <c r="C355">
-        <v>2.5366886657395602</v>
+        <v>1.4766249706030801</v>
       </c>
       <c r="D355" s="1">
         <v>44076</v>
@@ -6376,7 +6376,7 @@
         <v>173</v>
       </c>
       <c r="C356">
-        <v>2.34464840668885</v>
+        <v>1.36214743473025</v>
       </c>
       <c r="D356" s="1">
         <v>44077</v>
@@ -6390,7 +6390,7 @@
         <v>174</v>
       </c>
       <c r="C357">
-        <v>2.1671465149870501</v>
+        <v>1.2565449236763699</v>
       </c>
       <c r="D357" s="1">
         <v>44078</v>
@@ -6404,7 +6404,7 @@
         <v>175</v>
       </c>
       <c r="C358">
-        <v>2.0030823751786899</v>
+        <v>1.1591293915320999</v>
       </c>
       <c r="D358" s="1">
         <v>44079</v>
@@ -6418,7 +6418,7 @@
         <v>176</v>
       </c>
       <c r="C359">
-        <v>1.85143869176958</v>
+        <v>1.06926613354688</v>
       </c>
       <c r="D359" s="1">
         <v>44080</v>
@@ -6432,7 +6432,7 @@
         <v>177</v>
       </c>
       <c r="C360">
-        <v>1.7112751818327301</v>
+        <v>0.98636965087613604</v>
       </c>
       <c r="D360" s="1">
         <v>44081</v>
@@ -6446,7 +6446,7 @@
         <v>178</v>
       </c>
       <c r="C361">
-        <v>1.5817227450628899</v>
+        <v>0.90989983590458801</v>
       </c>
       <c r="D361" s="1">
         <v>44082</v>
@@ -6460,7 +6460,7 @@
         <v>179</v>
       </c>
       <c r="C362">
-        <v>1.4619780751424301</v>
+        <v>0.83935845329507097</v>
       </c>
       <c r="D362" s="1">
         <v>44083</v>
@@ -6474,7 +6474,7 @@
         <v>180</v>
       </c>
       <c r="C363">
-        <v>1.3512986790158299</v>
+        <v>0.77428589383813495</v>
       </c>
       <c r="D363" s="1">
         <v>44084</v>
@@ -6502,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C365">
-        <v>15.7151629181459</v>
+        <v>15.9944739806767</v>
       </c>
       <c r="D365" s="1">
         <v>43905</v>
@@ -6516,7 +6516,7 @@
         <v>2</v>
       </c>
       <c r="C366">
-        <v>34.7260794612273</v>
+        <v>36.075240942538599</v>
       </c>
       <c r="D366" s="1">
         <v>43906</v>
@@ -6530,7 +6530,7 @@
         <v>3</v>
       </c>
       <c r="C367">
-        <v>59.283565719326603</v>
+        <v>62.963052756111097</v>
       </c>
       <c r="D367" s="1">
         <v>43907</v>
@@ -6544,7 +6544,7 @@
         <v>4</v>
       </c>
       <c r="C368">
-        <v>91.000533954270594</v>
+        <v>98.957275698544606</v>
       </c>
       <c r="D368" s="1">
         <v>43908</v>
@@ -6558,7 +6558,7 @@
         <v>5</v>
       </c>
       <c r="C369">
-        <v>131.95524040485401</v>
+        <v>147.12719627583499</v>
       </c>
       <c r="D369" s="1">
         <v>43909</v>
@@ -6572,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="C370">
-        <v>184.82323283023999</v>
+        <v>211.56548576228201</v>
       </c>
       <c r="D370" s="1">
         <v>43910</v>
@@ -6586,7 +6586,7 @@
         <v>7</v>
       </c>
       <c r="C371">
-        <v>253.04529102583601</v>
+        <v>297.719518161069</v>
       </c>
       <c r="D371" s="1">
         <v>43911</v>
@@ -6600,7 +6600,7 @@
         <v>8</v>
       </c>
       <c r="C372">
-        <v>341.03916281228499</v>
+        <v>412.82402503752701</v>
       </c>
       <c r="D372" s="1">
         <v>43912</v>
@@ -6614,7 +6614,7 @@
         <v>9</v>
       </c>
       <c r="C373">
-        <v>454.46650364161297</v>
+        <v>566.45865263606504</v>
       </c>
       <c r="D373" s="1">
         <v>43913</v>
@@ -6628,7 +6628,7 @@
         <v>10</v>
       </c>
       <c r="C374">
-        <v>600.56489423689402</v>
+        <v>771.25752329629904</v>
       </c>
       <c r="D374" s="1">
         <v>43914</v>
@@ -6642,7 +6642,7 @@
         <v>11</v>
       </c>
       <c r="C375">
-        <v>788.55702562888905</v>
+        <v>1043.7940291963901</v>
       </c>
       <c r="D375" s="1">
         <v>43915</v>
@@ -6656,7 +6656,7 @@
         <v>12</v>
       </c>
       <c r="C376">
-        <v>1030.14651179969</v>
+        <v>1405.6543334627199</v>
       </c>
       <c r="D376" s="1">
         <v>43916</v>
@@ -6670,7 +6670,7 @@
         <v>13</v>
       </c>
       <c r="C377">
-        <v>1340.1062605822001</v>
+        <v>1884.68651383622</v>
       </c>
       <c r="D377" s="1">
         <v>43917</v>
@@ -6684,7 +6684,7 @@
         <v>14</v>
       </c>
       <c r="C378">
-        <v>1736.9555142713</v>
+        <v>2516.36219044167</v>
       </c>
       <c r="D378" s="1">
         <v>43918</v>
@@ -6698,7 +6698,7 @@
         <v>15</v>
       </c>
       <c r="C379">
-        <v>2243.7047566490301</v>
+        <v>3345.1039708373701</v>
       </c>
       <c r="D379" s="1">
         <v>43919</v>
@@ -6712,7 +6712,7 @@
         <v>16</v>
       </c>
       <c r="C380">
-        <v>2888.6202902796799</v>
+        <v>4425.2970880614603</v>
       </c>
       <c r="D380" s="1">
         <v>43920</v>
@@ -6726,7 +6726,7 @@
         <v>17</v>
       </c>
       <c r="C381">
-        <v>3705.9173590334999</v>
+        <v>5821.5381227079297</v>
       </c>
       <c r="D381" s="1">
         <v>43921</v>
@@ -6740,7 +6740,7 @@
         <v>18</v>
       </c>
       <c r="C382">
-        <v>4736.2317916465799</v>
+        <v>7607.4924865739704</v>
       </c>
       <c r="D382" s="1">
         <v>43922</v>
@@ -6754,7 +6754,7 @@
         <v>19</v>
       </c>
       <c r="C383">
-        <v>6026.6539054935902</v>
+        <v>9862.6282221137208</v>
       </c>
       <c r="D383" s="1">
         <v>43923</v>
@@ -6768,7 +6768,7 @@
         <v>20</v>
       </c>
       <c r="C384">
-        <v>7630.0365007263199</v>
+        <v>12666.2360623162</v>
       </c>
       <c r="D384" s="1">
         <v>43924</v>
@@ -6782,7 +6782,7 @@
         <v>21</v>
       </c>
       <c r="C385">
-        <v>9603.2553379287801</v>
+        <v>16088.6563046301</v>
       </c>
       <c r="D385" s="1">
         <v>43925</v>
@@ -6796,7 +6796,7 @@
         <v>22</v>
       </c>
       <c r="C386">
-        <v>12004.1412134891</v>
+        <v>20180.621424033099</v>
       </c>
       <c r="D386" s="1">
         <v>43926</v>
@@ -6810,7 +6810,7 @@
         <v>23</v>
       </c>
       <c r="C387">
-        <v>14886.978367776999</v>
+        <v>24962.773233553398</v>
       </c>
       <c r="D387" s="1">
         <v>43927</v>
@@ -6824,7 +6824,7 @@
         <v>24</v>
       </c>
       <c r="C388">
-        <v>18296.7974484679</v>
+        <v>30418.212478809299</v>
       </c>
       <c r="D388" s="1">
         <v>43928</v>
@@ -6838,7 +6838,7 @@
         <v>25</v>
       </c>
       <c r="C389">
-        <v>22263.142670046502</v>
+        <v>36490.604449549202</v>
       </c>
       <c r="D389" s="1">
         <v>43929</v>
@@ -6852,7 +6852,7 @@
         <v>26</v>
       </c>
       <c r="C390">
-        <v>26794.429434053302</v>
+        <v>43088.816348640001</v>
       </c>
       <c r="D390" s="1">
         <v>43930</v>
@@ -6866,7 +6866,7 @@
         <v>27</v>
       </c>
       <c r="C391">
-        <v>31874.196874348301</v>
+        <v>50096.940378064501</v>
       </c>
       <c r="D391" s="1">
         <v>43931</v>
@@ -6880,7 +6880,7 @@
         <v>28</v>
       </c>
       <c r="C392">
-        <v>37460.314433573498</v>
+        <v>57386.957132862997</v>
       </c>
       <c r="D392" s="1">
         <v>43932</v>
@@ -6894,7 +6894,7 @@
         <v>29</v>
       </c>
       <c r="C393">
-        <v>43487.528572092</v>
+        <v>64830.981976061397</v>
       </c>
       <c r="D393" s="1">
         <v>43933</v>
@@ -6908,7 +6908,7 @@
         <v>30</v>
       </c>
       <c r="C394">
-        <v>49872.890826360701</v>
+        <v>72310.864969289003</v>
       </c>
       <c r="D394" s="1">
         <v>43934</v>
@@ -6922,7 +6922,7 @@
         <v>31</v>
       </c>
       <c r="C395">
-        <v>56522.896731844303</v>
+        <v>79724.256847615194</v>
       </c>
       <c r="D395" s="1">
         <v>43935</v>
@@ -6936,7 +6936,7 @@
         <v>32</v>
       </c>
       <c r="C396">
-        <v>63340.916227170601</v>
+        <v>86987.312433513696</v>
       </c>
       <c r="D396" s="1">
         <v>43936</v>
@@ -6950,7 +6950,7 @@
         <v>33</v>
       </c>
       <c r="C397">
-        <v>70233.708190386795</v>
+        <v>94034.843409010398</v>
       </c>
       <c r="D397" s="1">
         <v>43937</v>
@@ -6964,7 +6964,7 @@
         <v>34</v>
       </c>
       <c r="C398">
-        <v>77116.287575194598</v>
+        <v>100818.848569537</v>
       </c>
       <c r="D398" s="1">
         <v>43938</v>
@@ -6978,7 +6978,7 @@
         <v>35</v>
       </c>
       <c r="C399">
-        <v>83914.926883481196</v>
+        <v>107306.21142597</v>
       </c>
       <c r="D399" s="1">
         <v>43939</v>
@@ -6992,7 +6992,7 @@
         <v>36</v>
       </c>
       <c r="C400">
-        <v>90568.4799886572</v>
+        <v>113476.17300157899</v>
       </c>
       <c r="D400" s="1">
         <v>43940</v>
@@ -7006,7 +7006,7 @@
         <v>37</v>
       </c>
       <c r="C401">
-        <v>97028.412878786097</v>
+        <v>119317.863482924</v>
       </c>
       <c r="D401" s="1">
         <v>43941</v>
@@ -7020,7 +7020,7 @@
         <v>38</v>
       </c>
       <c r="C402">
-        <v>103257.969202348</v>
+        <v>124828.110161334</v>
       </c>
       <c r="D402" s="1">
         <v>43942</v>
@@ -7034,7 +7034,7 @@
         <v>39</v>
       </c>
       <c r="C403">
-        <v>109230.848179098</v>
+        <v>130009.577692405</v>
       </c>
       <c r="D403" s="1">
         <v>43943</v>
@@ -7048,7 +7048,7 @@
         <v>40</v>
       </c>
       <c r="C404">
-        <v>114929.67836521</v>
+        <v>134869.238707235</v>
       </c>
       <c r="D404" s="1">
         <v>43944</v>
@@ -7062,7 +7062,7 @@
         <v>41</v>
       </c>
       <c r="C405">
-        <v>120344.500210887</v>
+        <v>139417.15166822</v>
       </c>
       <c r="D405" s="1">
         <v>43945</v>
@@ -7076,7 +7076,7 @@
         <v>42</v>
       </c>
       <c r="C406">
-        <v>125471.33091703401</v>
+        <v>143665.49572096899</v>
       </c>
       <c r="D406" s="1">
         <v>43946</v>
@@ -7090,7 +7090,7 @@
         <v>43</v>
       </c>
       <c r="C407">
-        <v>130310.90322278001</v>
+        <v>147627.82161736701</v>
       </c>
       <c r="D407" s="1">
         <v>43947</v>
@@ -7104,7 +7104,7 @@
         <v>44</v>
       </c>
       <c r="C408">
-        <v>134867.58276086301</v>
+        <v>151318.483075506</v>
       </c>
       <c r="D408" s="1">
         <v>43948</v>
@@ -7118,7 +7118,7 @@
         <v>45</v>
       </c>
       <c r="C409">
-        <v>139148.46270465999</v>
+        <v>154752.20384310701</v>
       </c>
       <c r="D409" s="1">
         <v>43949</v>
@@ -7132,7 +7132,7 @@
         <v>46</v>
       </c>
       <c r="C410">
-        <v>143162.623195658</v>
+        <v>157943.753856411</v>
       </c>
       <c r="D410" s="1">
         <v>43950</v>
@@ -7146,7 +7146,7 @@
         <v>47</v>
       </c>
       <c r="C411">
-        <v>146920.53317225</v>
+        <v>160907.71187062099</v>
       </c>
       <c r="D411" s="1">
         <v>43951</v>
@@ -7160,7 +7160,7 @@
         <v>48</v>
       </c>
       <c r="C412">
-        <v>150433.57124217099</v>
+        <v>163658.29450473699</v>
       </c>
       <c r="D412" s="1">
         <v>43952</v>
@@ -7174,7 +7174,7 @@
         <v>49</v>
       </c>
       <c r="C413">
-        <v>153713.65311039099</v>
+        <v>166209.23638719399</v>
       </c>
       <c r="D413" s="1">
         <v>43953</v>
@@ -7188,7 +7188,7 @@
         <v>50</v>
       </c>
       <c r="C414">
-        <v>156772.94004205099</v>
+        <v>168573.70950350101</v>
       </c>
       <c r="D414" s="1">
         <v>43954</v>
@@ -7202,7 +7202,7 @@
         <v>51</v>
       </c>
       <c r="C415">
-        <v>159623.614044719</v>
+        <v>170764.27240932299</v>
       </c>
       <c r="D415" s="1">
         <v>43955</v>
@@ -7216,7 +7216,7 @@
         <v>52</v>
       </c>
       <c r="C416">
-        <v>162277.70839332501</v>
+        <v>172792.84191692501</v>
       </c>
       <c r="D416" s="1">
         <v>43956</v>
@@ -7230,7 +7230,7 @@
         <v>53</v>
       </c>
       <c r="C417">
-        <v>164746.98356209701</v>
+        <v>174670.68221354799</v>
       </c>
       <c r="D417" s="1">
         <v>43957</v>
@@ -7244,7 +7244,7 @@
         <v>54</v>
       </c>
       <c r="C418">
-        <v>167042.833841524</v>
+        <v>176408.406488429</v>
       </c>
       <c r="D418" s="1">
         <v>43958</v>
@@ -7258,7 +7258,7 @@
         <v>55</v>
       </c>
       <c r="C419">
-        <v>169176.2232949</v>
+        <v>178015.98700572699</v>
       </c>
       <c r="D419" s="1">
         <v>43959</v>
@@ -7272,7 +7272,7 @@
         <v>56</v>
       </c>
       <c r="C420">
-        <v>171157.64424293101</v>
+        <v>179502.77265007299</v>
       </c>
       <c r="D420" s="1">
         <v>43960</v>
@@ -7286,7 +7286,7 @@
         <v>57</v>
       </c>
       <c r="C421">
-        <v>172997.091446317</v>
+        <v>180877.51122658199</v>
       </c>
       <c r="D421" s="1">
         <v>43961</v>
@@ -7300,7 +7300,7 @@
         <v>58</v>
       </c>
       <c r="C422">
-        <v>174704.049124649</v>
+        <v>182148.37455086099</v>
       </c>
       <c r="D422" s="1">
         <v>43962</v>
@@ -7314,7 +7314,7 @@
         <v>59</v>
       </c>
       <c r="C423">
-        <v>176287.488067681</v>
+        <v>183322.985521614</v>
       </c>
       <c r="D423" s="1">
         <v>43963</v>
@@ -7328,7 +7328,7 @@
         <v>60</v>
       </c>
       <c r="C424">
-        <v>177755.870229928</v>
+        <v>184408.44628207901</v>
       </c>
       <c r="D424" s="1">
         <v>43964</v>
@@ -7342,7 +7342,7 @@
         <v>61</v>
       </c>
       <c r="C425">
-        <v>179117.15896144899</v>
+        <v>185411.366741693</v>
       </c>
       <c r="D425" s="1">
         <v>43965</v>
@@ -7356,7 +7356,7 @@
         <v>62</v>
       </c>
       <c r="C426">
-        <v>180378.83335162801</v>
+        <v>186337.892975455</v>
       </c>
       <c r="D426" s="1">
         <v>43966</v>
@@ -7370,7 +7370,7 @@
         <v>63</v>
       </c>
       <c r="C427">
-        <v>181547.90548351</v>
+        <v>187193.73511810499</v>
       </c>
       <c r="D427" s="1">
         <v>43967</v>
@@ -7384,7 +7384,7 @@
         <v>64</v>
       </c>
       <c r="C428">
-        <v>182630.939676863</v>
+        <v>187984.194482297</v>
       </c>
       <c r="D428" s="1">
         <v>43968</v>
@@ -7398,7 +7398,7 @@
         <v>65</v>
       </c>
       <c r="C429">
-        <v>183634.07298346801</v>
+        <v>188714.189714432</v>
       </c>
       <c r="D429" s="1">
         <v>43969</v>
@@ -7412,7 +7412,7 @@
         <v>66</v>
       </c>
       <c r="C430">
-        <v>184563.03636647499</v>
+        <v>189388.28185874701</v>
       </c>
       <c r="D430" s="1">
         <v>43970</v>
@@ -7426,7 +7426,7 @@
         <v>67</v>
       </c>
       <c r="C431">
-        <v>185423.17612429601</v>
+        <v>190010.69824987301</v>
       </c>
       <c r="D431" s="1">
         <v>43971</v>
@@ -7440,7 +7440,7 @@
         <v>68</v>
       </c>
       <c r="C432">
-        <v>186219.475222799</v>
+        <v>190585.35519023801</v>
       </c>
       <c r="D432" s="1">
         <v>43972</v>
@@ -7454,7 +7454,7 @@
         <v>69</v>
       </c>
       <c r="C433">
-        <v>186956.574282163</v>
+        <v>191115.879396567</v>
       </c>
       <c r="D433" s="1">
         <v>43973</v>
@@ -7468,7 +7468,7 @@
         <v>70</v>
       </c>
       <c r="C434">
-        <v>187638.79203010499</v>
+        <v>191605.628220821</v>
       </c>
       <c r="D434" s="1">
         <v>43974</v>
@@ -7482,7 +7482,7 @@
         <v>71</v>
       </c>
       <c r="C435">
-        <v>188270.14508517101</v>
+        <v>192057.70866652401</v>
       </c>
       <c r="D435" s="1">
         <v>43975</v>
@@ -7496,7 +7496,7 @@
         <v>72</v>
       </c>
       <c r="C436">
-        <v>188854.36697490301</v>
+        <v>192474.99523286699</v>
       </c>
       <c r="D436" s="1">
         <v>43976</v>
@@ -7510,7 +7510,7 @@
         <v>73</v>
       </c>
       <c r="C437">
-        <v>189394.926326049</v>
+        <v>192860.14662713799</v>
       </c>
       <c r="D437" s="1">
         <v>43977</v>
@@ -7524,7 +7524,7 @@
         <v>74</v>
       </c>
       <c r="C438">
-        <v>189895.04418942999</v>
+        <v>193215.62139154499</v>
       </c>
       <c r="D438" s="1">
         <v>43978</v>
@@ -7538,7 +7538,7 @@
         <v>75</v>
       </c>
       <c r="C439">
-        <v>190357.710481849</v>
+        <v>193543.69249410901</v>
       </c>
       <c r="D439" s="1">
         <v>43979</v>
@@ -7552,7 +7552,7 @@
         <v>76</v>
       </c>
       <c r="C440">
-        <v>190785.699542755</v>
+        <v>193846.46093528401</v>
       </c>
       <c r="D440" s="1">
         <v>43980</v>
@@ -7566,7 +7566,7 @@
         <v>77</v>
       </c>
       <c r="C441">
-        <v>191181.584815054</v>
+        <v>194125.86842277899</v>
       </c>
       <c r="D441" s="1">
         <v>43981</v>
@@ -7580,7 +7580,7 @@
         <v>78</v>
       </c>
       <c r="C442">
-        <v>191547.752668311</v>
+        <v>194383.70916699999</v>
       </c>
       <c r="D442" s="1">
         <v>43982</v>
@@ -7594,7 +7594,7 @@
         <v>79</v>
       </c>
       <c r="C443">
-        <v>191886.41538905699</v>
+        <v>194621.640848707</v>
       </c>
       <c r="D443" s="1">
         <v>43983</v>
@@ -7608,7 +7608,7 @@
         <v>80</v>
       </c>
       <c r="C444">
-        <v>192199.62336763999</v>
+        <v>194841.19480925801</v>
       </c>
       <c r="D444" s="1">
         <v>43984</v>
@@ -7622,7 +7622,7 @@
         <v>81</v>
       </c>
       <c r="C445">
-        <v>192489.27651422899</v>
+        <v>195043.78551212899</v>
       </c>
       <c r="D445" s="1">
         <v>43985</v>
@@ -7636,7 +7636,7 @@
         <v>82</v>
       </c>
       <c r="C446">
-        <v>192757.13493869099</v>
+        <v>195230.71932253201</v>
       </c>
       <c r="D446" s="1">
         <v>43986</v>
@@ -7650,7 +7650,7 @@
         <v>83</v>
       </c>
       <c r="C447">
-        <v>193004.828930174</v>
+        <v>195403.20264986201</v>
       </c>
       <c r="D447" s="1">
         <v>43987</v>
@@ -7664,7 +7664,7 @@
         <v>84</v>
       </c>
       <c r="C448">
-        <v>193233.86827268801</v>
+        <v>195562.34949556601</v>
       </c>
       <c r="D448" s="1">
         <v>43988</v>
@@ -7678,7 +7678,7 @@
         <v>85</v>
       </c>
       <c r="C449">
-        <v>193445.65093288501</v>
+        <v>195709.188446796</v>
       </c>
       <c r="D449" s="1">
         <v>43989</v>
@@ -7692,7 +7692,7 @@
         <v>86</v>
       </c>
       <c r="C450">
-        <v>193641.47115568299</v>
+        <v>195844.66915399701</v>
       </c>
       <c r="D450" s="1">
         <v>43990</v>
@@ -7706,7 +7706,7 @@
         <v>87</v>
       </c>
       <c r="C451">
-        <v>193822.52700255701</v>
+        <v>195969.66832838999</v>
       </c>
       <c r="D451" s="1">
         <v>43991</v>
@@ -7720,7 +7720,7 @@
         <v>88</v>
       </c>
       <c r="C452">
-        <v>193989.92736623</v>
+        <v>196084.995293149</v>
       </c>
       <c r="D452" s="1">
         <v>43992</v>
@@ -7734,7 +7734,7 @@
         <v>89</v>
       </c>
       <c r="C453">
-        <v>194144.698494254</v>
+        <v>196191.397120001</v>
       </c>
       <c r="D453" s="1">
         <v>43993</v>
@@ -7748,7 +7748,7 @@
         <v>90</v>
       </c>
       <c r="C454">
-        <v>194287.790052633</v>
+        <v>196289.56338095301</v>
       </c>
       <c r="D454" s="1">
         <v>43994</v>
@@ -7762,7 +7762,7 @@
         <v>91</v>
       </c>
       <c r="C455">
-        <v>194420.08075916499</v>
+        <v>196380.130542945</v>
       </c>
       <c r="D455" s="1">
         <v>43995</v>
@@ -7776,7 +7776,7 @@
         <v>92</v>
       </c>
       <c r="C456">
-        <v>194542.383614772</v>
+        <v>196463.68603136801</v>
       </c>
       <c r="D456" s="1">
         <v>43996</v>
@@ -7790,7 +7790,7 @@
         <v>93</v>
       </c>
       <c r="C457">
-        <v>194655.45075956499</v>
+        <v>196540.771986665</v>
       </c>
       <c r="D457" s="1">
         <v>43997</v>
@@ -7804,7 +7804,7 @@
         <v>94</v>
       </c>
       <c r="C458">
-        <v>194759.97797894501</v>
+        <v>196611.88873656999</v>
       </c>
       <c r="D458" s="1">
         <v>43998</v>
@@ -7818,7 +7818,7 @@
         <v>95</v>
       </c>
       <c r="C459">
-        <v>194856.60888359399</v>
+        <v>196677.49800497899</v>
       </c>
       <c r="D459" s="1">
         <v>43999</v>
@@ -7832,7 +7832,7 @@
         <v>96</v>
       </c>
       <c r="C460">
-        <v>194945.938785796</v>
+        <v>196738.025876992</v>
       </c>
       <c r="D460" s="1">
         <v>44000</v>
@@ -7846,7 +7846,7 @@
         <v>97</v>
       </c>
       <c r="C461">
-        <v>195028.51829317899</v>
+        <v>196793.865538271</v>
       </c>
       <c r="D461" s="1">
         <v>44001</v>
@@ -7860,7 +7860,7 @@
         <v>98</v>
       </c>
       <c r="C462">
-        <v>195104.856639651</v>
+        <v>196845.37980558901</v>
       </c>
       <c r="D462" s="1">
         <v>44002</v>
@@ -7874,7 +7874,7 @@
         <v>99</v>
       </c>
       <c r="C463">
-        <v>195175.42477205</v>
+        <v>196892.9034642</v>
       </c>
       <c r="D463" s="1">
         <v>44003</v>
@@ -7888,7 +7888,7 @@
         <v>100</v>
       </c>
       <c r="C464">
-        <v>195240.658209833</v>
+        <v>196936.745426571</v>
       </c>
       <c r="D464" s="1">
         <v>44004</v>
@@ -7902,7 +7902,7 @@
         <v>101</v>
       </c>
       <c r="C465">
-        <v>195300.95969399399</v>
+        <v>196977.19072592401</v>
       </c>
       <c r="D465" s="1">
         <v>44005</v>
@@ -7916,7 +7916,7 @@
         <v>102</v>
       </c>
       <c r="C466">
-        <v>195356.70164031099</v>
+        <v>197014.50235707199</v>
       </c>
       <c r="D466" s="1">
         <v>44006</v>
@@ -7930,7 +7930,7 @@
         <v>103</v>
       </c>
       <c r="C467">
-        <v>195408.22841103401</v>
+        <v>197048.92297610801</v>
       </c>
       <c r="D467" s="1">
         <v>44007</v>
@@ -7944,7 +7944,7 @@
         <v>104</v>
       </c>
       <c r="C468">
-        <v>195455.858418124</v>
+        <v>197080.676469656</v>
       </c>
       <c r="D468" s="1">
         <v>44008</v>
@@ -7958,7 +7958,7 @@
         <v>105</v>
       </c>
       <c r="C469">
-        <v>195499.88607029399</v>
+        <v>197109.96940359799</v>
       </c>
       <c r="D469" s="1">
         <v>44009</v>
@@ -7972,7 +7972,7 @@
         <v>106</v>
       </c>
       <c r="C470">
-        <v>195540.583575217</v>
+        <v>197136.99236043601</v>
       </c>
       <c r="D470" s="1">
         <v>44010</v>
@@ -7986,7 +7986,7 @@
         <v>107</v>
       </c>
       <c r="C471">
-        <v>195578.20260748899</v>
+        <v>197161.92117380199</v>
       </c>
       <c r="D471" s="1">
         <v>44011</v>
@@ -8000,7 +8000,7 @@
         <v>108</v>
       </c>
       <c r="C472">
-        <v>195612.975852198</v>
+        <v>197184.918067944</v>
       </c>
       <c r="D472" s="1">
         <v>44012</v>
@@ -8014,7 +8014,7 @@
         <v>109</v>
       </c>
       <c r="C473">
-        <v>195645.11843323099</v>
+        <v>197206.13270947299</v>
       </c>
       <c r="D473" s="1">
         <v>44013</v>
@@ -8028,7 +8028,7 @@
         <v>110</v>
       </c>
       <c r="C474">
-        <v>195674.829234807</v>
+        <v>197225.70317805899</v>
       </c>
       <c r="D474" s="1">
         <v>44014</v>
@@ -8042,7 +8042,7 @@
         <v>111</v>
       </c>
       <c r="C475">
-        <v>195702.29212413399</v>
+        <v>197243.75686230999</v>
       </c>
       <c r="D475" s="1">
         <v>44015</v>
@@ -8056,7 +8056,7 @@
         <v>112</v>
       </c>
       <c r="C476">
-        <v>195727.67708249201</v>
+        <v>197260.41128655401</v>
       </c>
       <c r="D476" s="1">
         <v>44016</v>
@@ -8070,7 +8070,7 @@
         <v>113</v>
       </c>
       <c r="C477">
-        <v>195751.14125153099</v>
+        <v>197275.77487383</v>
       </c>
       <c r="D477" s="1">
         <v>44017</v>
@@ -8084,7 +8084,7 @@
         <v>114</v>
       </c>
       <c r="C478">
-        <v>195772.82990108401</v>
+        <v>197289.94764999</v>
       </c>
       <c r="D478" s="1">
         <v>44018</v>
@@ -8098,7 +8098,7 @@
         <v>115</v>
       </c>
       <c r="C479">
-        <v>195792.87732433001</v>
+        <v>197303.021893439</v>
       </c>
       <c r="D479" s="1">
         <v>44019</v>
@@ -8112,7 +8112,7 @@
         <v>116</v>
       </c>
       <c r="C480">
-        <v>195811.40766570799</v>
+        <v>197315.082734692</v>
       </c>
       <c r="D480" s="1">
         <v>44020</v>
@@ -8126,7 +8126,7 @@
         <v>117</v>
       </c>
       <c r="C481">
-        <v>195828.53568661099</v>
+        <v>197326.20870960501</v>
       </c>
       <c r="D481" s="1">
         <v>44021</v>
@@ -8140,7 +8140,7 @@
         <v>118</v>
       </c>
       <c r="C482">
-        <v>195844.367473486</v>
+        <v>197336.47226986001</v>
       </c>
       <c r="D482" s="1">
         <v>44022</v>
@@ -8154,7 +8154,7 @@
         <v>119</v>
       </c>
       <c r="C483">
-        <v>195859.00109266699</v>
+        <v>197345.94025398701</v>
       </c>
       <c r="D483" s="1">
         <v>44023</v>
@@ -8168,7 +8168,7 @@
         <v>120</v>
       </c>
       <c r="C484">
-        <v>195872.527195901</v>
+        <v>197354.67432196499</v>
       </c>
       <c r="D484" s="1">
         <v>44024</v>
@@ -8182,7 +8182,7 @@
         <v>121</v>
       </c>
       <c r="C485">
-        <v>195885.02958027899</v>
+        <v>197362.73135622399</v>
       </c>
       <c r="D485" s="1">
         <v>44025</v>
@@ -8196,7 +8196,7 @@
         <v>122</v>
       </c>
       <c r="C486">
-        <v>195896.58570597999</v>
+        <v>197370.163831616</v>
       </c>
       <c r="D486" s="1">
         <v>44026</v>
@@ -8210,7 +8210,7 @@
         <v>123</v>
       </c>
       <c r="C487">
-        <v>195907.26717498599</v>
+        <v>197377.02015677799</v>
       </c>
       <c r="D487" s="1">
         <v>44027</v>
@@ -8224,7 +8224,7 @@
         <v>124</v>
       </c>
       <c r="C488">
-        <v>195917.140173716</v>
+        <v>197383.34498907599</v>
       </c>
       <c r="D488" s="1">
         <v>44028</v>
@@ -8238,7 +8238,7 @@
         <v>125</v>
       </c>
       <c r="C489">
-        <v>195926.26588226599</v>
+        <v>197389.17952517301</v>
       </c>
       <c r="D489" s="1">
         <v>44029</v>
@@ -8252,7 +8252,7 @@
         <v>126</v>
       </c>
       <c r="C490">
-        <v>195934.700852785</v>
+        <v>197394.561769116</v>
       </c>
       <c r="D490" s="1">
         <v>44030</v>
@@ -8266,7 +8266,7 @@
         <v>127</v>
       </c>
       <c r="C491">
-        <v>195942.49735928999</v>
+        <v>197399.52677966401</v>
       </c>
       <c r="D491" s="1">
         <v>44031</v>
@@ -8280,7 +8280,7 @@
         <v>128</v>
       </c>
       <c r="C492">
-        <v>195949.70372108099</v>
+        <v>197404.106898472</v>
       </c>
       <c r="D492" s="1">
         <v>44032</v>
@@ -8294,7 +8294,7 @@
         <v>129</v>
       </c>
       <c r="C493">
-        <v>195956.364601743</v>
+        <v>197408.331960607</v>
       </c>
       <c r="D493" s="1">
         <v>44033</v>
@@ -8308,7 +8308,7 @@
         <v>130</v>
       </c>
       <c r="C494">
-        <v>195962.52128556301</v>
+        <v>197412.229488766</v>
       </c>
       <c r="D494" s="1">
         <v>44034</v>
@@ -8322,7 +8322,7 @@
         <v>131</v>
       </c>
       <c r="C495">
-        <v>195968.21193307199</v>
+        <v>197415.82487244601</v>
       </c>
       <c r="D495" s="1">
         <v>44035</v>
@@ -8336,7 +8336,7 @@
         <v>132</v>
       </c>
       <c r="C496">
-        <v>195973.47181728799</v>
+        <v>197419.141533246</v>
       </c>
       <c r="D496" s="1">
         <v>44036</v>
@@ -8350,7 +8350,7 @@
         <v>133</v>
       </c>
       <c r="C497">
-        <v>195978.33354209899</v>
+        <v>197422.20107736101</v>
       </c>
       <c r="D497" s="1">
         <v>44037</v>
@@ -8364,7 +8364,7 @@
         <v>134</v>
       </c>
       <c r="C498">
-        <v>195982.82724415901</v>
+        <v>197425.02343626699</v>
       </c>
       <c r="D498" s="1">
         <v>44038</v>
@@ -8378,7 +8378,7 @@
         <v>135</v>
       </c>
       <c r="C499">
-        <v>195986.98077951299</v>
+        <v>197427.626996504</v>
       </c>
       <c r="D499" s="1">
         <v>44039</v>
@@ -8392,7 +8392,7 @@
         <v>136</v>
       </c>
       <c r="C500">
-        <v>195990.81989612</v>
+        <v>197430.02871940899</v>
       </c>
       <c r="D500" s="1">
         <v>44040</v>
@@ -8406,7 +8406,7 @@
         <v>137</v>
       </c>
       <c r="C501">
-        <v>195994.36839333401</v>
+        <v>197432.24425156999</v>
       </c>
       <c r="D501" s="1">
         <v>44041</v>
@@ -8420,7 +8420,7 @@
         <v>138</v>
       </c>
       <c r="C502">
-        <v>195997.64826933399</v>
+        <v>197434.288026725</v>
       </c>
       <c r="D502" s="1">
         <v>44042</v>
@@ -8434,7 +8434,7 @@
         <v>139</v>
       </c>
       <c r="C503">
-        <v>196000.67985739201</v>
+        <v>197436.17335976</v>
       </c>
       <c r="D503" s="1">
         <v>44043</v>
@@ -8448,7 +8448,7 @@
         <v>140</v>
       </c>
       <c r="C504">
-        <v>196003.48195185399</v>
+        <v>197437.912533433</v>
       </c>
       <c r="D504" s="1">
         <v>44044</v>
@@ -8462,7 +8462,7 @@
         <v>141</v>
       </c>
       <c r="C505">
-        <v>196006.07192458</v>
+        <v>197439.51687836699</v>
       </c>
       <c r="D505" s="1">
         <v>44045</v>
@@ -8476,7 +8476,7 @@
         <v>142</v>
       </c>
       <c r="C506">
-        <v>196008.46583258401</v>
+        <v>197440.996846853</v>
       </c>
       <c r="D506" s="1">
         <v>44046</v>
@@ -8490,7 +8490,7 @@
         <v>143</v>
       </c>
       <c r="C507">
-        <v>196010.67851753399</v>
+        <v>197442.36208093</v>
       </c>
       <c r="D507" s="1">
         <v>44047</v>
@@ -8504,7 +8504,7 @@
         <v>144</v>
       </c>
       <c r="C508">
-        <v>196012.72369772001</v>
+        <v>197443.62147519001</v>
       </c>
       <c r="D508" s="1">
         <v>44048</v>
@@ -8518,7 +8518,7 @@
         <v>145</v>
       </c>
       <c r="C509">
-        <v>196014.61405306999</v>
+        <v>197444.78323471101</v>
       </c>
       <c r="D509" s="1">
         <v>44049</v>
@@ -8532,7 +8532,7 @@
         <v>146</v>
       </c>
       <c r="C510">
-        <v>196016.36130372999</v>
+        <v>197445.85492851</v>
       </c>
       <c r="D510" s="1">
         <v>44050</v>
@@ -8546,7 +8546,7 @@
         <v>147</v>
       </c>
       <c r="C511">
-        <v>196017.97628270599</v>
+        <v>197446.843538844</v>
       </c>
       <c r="D511" s="1">
         <v>44051</v>
@@ -8560,7 +8560,7 @@
         <v>148</v>
       </c>
       <c r="C512">
-        <v>196019.46900300201</v>
+        <v>197447.755506694</v>
       </c>
       <c r="D512" s="1">
         <v>44052</v>
@@ -8574,7 +8574,7 @@
         <v>149</v>
       </c>
       <c r="C513">
-        <v>196020.84871968001</v>
+        <v>197448.59677372299</v>
       </c>
       <c r="D513" s="1">
         <v>44053</v>
@@ -8588,7 +8588,7 @@
         <v>150</v>
       </c>
       <c r="C514">
-        <v>196022.123987231</v>
+        <v>197449.372820983</v>
       </c>
       <c r="D514" s="1">
         <v>44054</v>
@@ -8602,7 +8602,7 @@
         <v>151</v>
       </c>
       <c r="C515">
-        <v>196023.30271259701</v>
+        <v>197450.088704619</v>
       </c>
       <c r="D515" s="1">
         <v>44055</v>
@@ -8616,7 +8616,7 @@
         <v>152</v>
       </c>
       <c r="C516">
-        <v>196024.392204181</v>
+        <v>197450.74908880901</v>
       </c>
       <c r="D516" s="1">
         <v>44056</v>
@@ -8630,7 +8630,7 @@
         <v>153</v>
       </c>
       <c r="C517">
-        <v>196025.39921715701</v>
+        <v>197451.358276149</v>
       </c>
       <c r="D517" s="1">
         <v>44057</v>
@@ -8644,7 +8644,7 @@
         <v>154</v>
       </c>
       <c r="C518">
-        <v>196026.329995337</v>
+        <v>197451.92023568301</v>
       </c>
       <c r="D518" s="1">
         <v>44058</v>
@@ -8658,7 +8658,7 @@
         <v>155</v>
       </c>
       <c r="C519">
-        <v>196027.19030988199</v>
+        <v>197452.43862875801</v>
       </c>
       <c r="D519" s="1">
         <v>44059</v>
@@ -8672,7 +8672,7 @@
         <v>156</v>
       </c>
       <c r="C520">
-        <v>196027.98549508001</v>
+        <v>197452.91683288</v>
       </c>
       <c r="D520" s="1">
         <v>44060</v>
@@ -8686,7 +8686,7 @@
         <v>157</v>
       </c>
       <c r="C521">
-        <v>196028.720481411</v>
+        <v>197453.35796371699</v>
       </c>
       <c r="D521" s="1">
         <v>44061</v>
@@ -8700,7 +8700,7 @@
         <v>158</v>
       </c>
       <c r="C522">
-        <v>196029.39982611401</v>
+        <v>197453.76489539401</v>
       </c>
       <c r="D522" s="1">
         <v>44062</v>
@@ -8714,7 +8714,7 @@
         <v>159</v>
       </c>
       <c r="C523">
-        <v>196030.027741442</v>
+        <v>197454.14027922499</v>
       </c>
       <c r="D523" s="1">
         <v>44063</v>
@@ -8728,7 +8728,7 @@
         <v>160</v>
       </c>
       <c r="C524">
-        <v>196030.608120775</v>
+        <v>197454.48656097701</v>
       </c>
       <c r="D524" s="1">
         <v>44064</v>
@@ -8742,7 +8742,7 @@
         <v>161</v>
       </c>
       <c r="C525">
-        <v>196031.14456275801</v>
+        <v>197454.805996813</v>
       </c>
       <c r="D525" s="1">
         <v>44065</v>
@@ -8756,7 +8756,7 @@
         <v>162</v>
       </c>
       <c r="C526">
-        <v>196031.64039361099</v>
+        <v>197455.100667986</v>
       </c>
       <c r="D526" s="1">
         <v>44066</v>
@@ -8770,7 +8770,7 @@
         <v>163</v>
       </c>
       <c r="C527">
-        <v>196032.09868775401</v>
+        <v>197455.37249439699</v>
       </c>
       <c r="D527" s="1">
         <v>44067</v>
@@ -8784,7 +8784,7 @@
         <v>164</v>
       </c>
       <c r="C528">
-        <v>196032.52228686499</v>
+        <v>197455.62324711101</v>
       </c>
       <c r="D528" s="1">
         <v>44068</v>
@@ -8798,7 +8798,7 @@
         <v>165</v>
       </c>
       <c r="C529">
-        <v>196032.91381749799</v>
+        <v>197455.85455988499</v>
       </c>
       <c r="D529" s="1">
         <v>44069</v>
@@ -8812,7 +8812,7 @@
         <v>166</v>
       </c>
       <c r="C530">
-        <v>196033.275707372</v>
+        <v>197456.067939823</v>
       </c>
       <c r="D530" s="1">
         <v>44070</v>
@@ -8826,7 +8826,7 @@
         <v>167</v>
       </c>
       <c r="C531">
-        <v>196033.61020041801</v>
+        <v>197456.26477718601</v>
       </c>
       <c r="D531" s="1">
         <v>44071</v>
@@ -8840,7 +8840,7 @@
         <v>168</v>
       </c>
       <c r="C532">
-        <v>196033.919370697</v>
+        <v>197456.44635445901</v>
       </c>
       <c r="D532" s="1">
         <v>44072</v>
@@ -8854,7 +8854,7 @@
         <v>169</v>
       </c>
       <c r="C533">
-        <v>196034.20513525399</v>
+        <v>197456.61385469601</v>
       </c>
       <c r="D533" s="1">
         <v>44073</v>
@@ -8868,7 +8868,7 @@
         <v>170</v>
       </c>
       <c r="C534">
-        <v>196034.46926600701</v>
+        <v>197456.76836923801</v>
       </c>
       <c r="D534" s="1">
         <v>44074</v>
@@ -8882,7 +8882,7 @@
         <v>171</v>
       </c>
       <c r="C535">
-        <v>196034.71340073599</v>
+        <v>197456.910904816</v>
       </c>
       <c r="D535" s="1">
         <v>44075</v>
@@ -8896,7 +8896,7 @@
         <v>172</v>
       </c>
       <c r="C536">
-        <v>196034.939053232</v>
+        <v>197457.04239011501</v>
       </c>
       <c r="D536" s="1">
         <v>44076</v>
@@ -8910,7 +8910,7 @@
         <v>173</v>
       </c>
       <c r="C537">
-        <v>196035.14762268701</v>
+        <v>197457.163681823</v>
       </c>
       <c r="D537" s="1">
         <v>44077</v>
@@ -8924,7 +8924,7 @@
         <v>174</v>
       </c>
       <c r="C538">
-        <v>196035.34040236901</v>
+        <v>197457.275570211</v>
       </c>
       <c r="D538" s="1">
         <v>44078</v>
@@ -8938,7 +8938,7 @@
         <v>175</v>
       </c>
       <c r="C539">
-        <v>196035.518587639</v>
+        <v>197457.378784284</v>
       </c>
       <c r="D539" s="1">
         <v>44079</v>
@@ -8952,7 +8952,7 @@
         <v>176</v>
       </c>
       <c r="C540">
-        <v>196035.683283366</v>
+        <v>197457.47399653099</v>
       </c>
       <c r="D540" s="1">
         <v>44080</v>
@@ -8966,7 +8966,7 @@
         <v>177</v>
       </c>
       <c r="C541">
-        <v>196035.83551077399</v>
+        <v>197457.56182730399</v>
       </c>
       <c r="D541" s="1">
         <v>44081</v>
@@ -8980,7 +8980,7 @@
         <v>178</v>
       </c>
       <c r="C542">
-        <v>196035.97621377601</v>
+        <v>197457.64284886199</v>
       </c>
       <c r="D542" s="1">
         <v>44082</v>
@@ -8994,7 +8994,7 @@
         <v>179</v>
       </c>
       <c r="C543">
-        <v>196036.10626482801</v>
+        <v>197457.71758910001</v>
       </c>
       <c r="D543" s="1">
         <v>44083</v>
@@ -9008,7 +9008,7 @@
         <v>180</v>
       </c>
       <c r="C544">
-        <v>196036.22647033501</v>
+        <v>197457.78653498599</v>
       </c>
       <c r="D544" s="1">
         <v>44084</v>

--- a/dataset/corona_pred.xlsx
+++ b/dataset/corona_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD3B2DD-BD01-44F1-AB51-01DDAB2DAF51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FCE69-D96E-434A-896F-1B619F9D4325}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="11">
   <si>
     <t>tempo</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>usa</t>
+  </si>
+  <si>
+    <t>Infectados 04/04/2020</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -860,15 +862,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F523"/>
+  <dimension ref="A1:F683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="C523" sqref="C523"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="H515" sqref="H515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
@@ -877,7 +879,7 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -4514,7 +4516,7 @@
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>151</v>
       </c>
       <c r="D183" s="1">
@@ -4531,7 +4533,7 @@
       <c r="B184">
         <v>1</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>202.23552640786599</v>
       </c>
       <c r="D184" s="1">
@@ -4548,7 +4550,7 @@
       <c r="B185">
         <v>2</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>270.81633663415801</v>
       </c>
       <c r="D185" s="1">
@@ -4565,7 +4567,7 @@
       <c r="B186">
         <v>3</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>362.583284485435</v>
       </c>
       <c r="D186" s="1">
@@ -4582,7 +4584,7 @@
       <c r="B187">
         <v>4</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>485.31964124578298</v>
       </c>
       <c r="D187" s="1">
@@ -4599,7 +4601,7 @@
       <c r="B188">
         <v>5</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>649.37630413326599</v>
       </c>
       <c r="D188" s="1">
@@ -4616,7 +4618,7 @@
       <c r="B189">
         <v>6</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>868.48647323585703</v>
       </c>
       <c r="D189" s="1">
@@ -4633,7 +4635,7 @@
       <c r="B190">
         <v>7</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>1160.8064518118199</v>
       </c>
       <c r="D190" s="1">
@@ -4650,7 +4652,7 @@
       <c r="B191">
         <v>8</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>1550.23162155253</v>
       </c>
       <c r="D191" s="1">
@@ -4667,7 +4669,7 @@
       <c r="B192">
         <v>9</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>2068.0160822902699</v>
       </c>
       <c r="D192" s="1">
@@ -4684,7 +4686,7 @@
       <c r="B193">
         <v>10</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>2754.69748499759</v>
       </c>
       <c r="D193" s="1">
@@ -4701,7 +4703,7 @@
       <c r="B194">
         <v>11</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>3662.2584969258201</v>
       </c>
       <c r="D194" s="1">
@@ -4718,7 +4720,7 @@
       <c r="B195">
         <v>12</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>4856.3260006104701</v>
       </c>
       <c r="D195" s="1">
@@ -4735,7 +4737,7 @@
       <c r="B196">
         <v>13</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>6417.9869511554198</v>
       </c>
       <c r="D196" s="1">
@@ -4752,7 +4754,7 @@
       <c r="B197">
         <v>14</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>8444.4458160399099</v>
       </c>
       <c r="D197" s="1">
@@ -4769,7 +4771,7 @@
       <c r="B198">
         <v>15</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>11047.2873199642</v>
       </c>
       <c r="D198" s="1">
@@ -4786,7 +4788,7 @@
       <c r="B199">
         <v>16</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>14346.529007839101</v>
       </c>
       <c r="D199" s="1">
@@ -4803,7 +4805,7 @@
       <c r="B200">
         <v>17</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>18458.328617707</v>
       </c>
       <c r="D200" s="1">
@@ -4820,7 +4822,7 @@
       <c r="B201">
         <v>18</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>23474.4816519622</v>
       </c>
       <c r="D201" s="1">
@@ -4837,7 +4839,7 @@
       <c r="B202">
         <v>19</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>29433.547811304401</v>
       </c>
       <c r="D202" s="1">
@@ -4854,7 +4856,7 @@
       <c r="B203">
         <v>20</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>36287.164936302797</v>
       </c>
       <c r="D203" s="1">
@@ -4871,7 +4873,7 @@
       <c r="B204">
         <v>21</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>43870.4128379412</v>
       </c>
       <c r="D204" s="1">
@@ -4888,7 +4890,7 @@
       <c r="B205">
         <v>22</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>51889.701014497703</v>
       </c>
       <c r="D205" s="1">
@@ -4905,7 +4907,7 @@
       <c r="B206">
         <v>23</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>59940.808068309903</v>
       </c>
       <c r="D206" s="1">
@@ -4922,7 +4924,7 @@
       <c r="B207">
         <v>24</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>67560.986319787495</v>
       </c>
       <c r="D207" s="1">
@@ -4939,7 +4941,7 @@
       <c r="B208">
         <v>25</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>74303.637391524899</v>
       </c>
       <c r="D208" s="1">
@@ -4956,7 +4958,7 @@
       <c r="B209">
         <v>26</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>79812.149706465396</v>
       </c>
       <c r="D209" s="1">
@@ -4973,7 +4975,7 @@
       <c r="B210">
         <v>27</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>83868.764301310002</v>
       </c>
       <c r="D210" s="1">
@@ -4990,7 +4992,7 @@
       <c r="B211">
         <v>28</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>86406.908393901103</v>
       </c>
       <c r="D211" s="1">
@@ -5007,7 +5009,7 @@
       <c r="B212">
         <v>29</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="2">
         <v>87490.869223800502</v>
       </c>
       <c r="D212" s="1">
@@ -5024,7 +5026,7 @@
       <c r="B213">
         <v>30</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>87277.091934527503</v>
       </c>
       <c r="D213" s="1">
@@ -5041,7 +5043,7 @@
       <c r="B214">
         <v>31</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>85972.066154674205</v>
       </c>
       <c r="D214" s="1">
@@ -5058,7 +5060,7 @@
       <c r="B215">
         <v>32</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>83797.146311591903</v>
       </c>
       <c r="D215" s="1">
@@ -5075,7 +5077,7 @@
       <c r="B216">
         <v>33</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>80964.215719806205</v>
       </c>
       <c r="D216" s="1">
@@ -5092,7 +5094,7 @@
       <c r="B217">
         <v>34</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>77661.8113749576</v>
       </c>
       <c r="D217" s="1">
@@ -5109,7 +5111,7 @@
       <c r="B218">
         <v>35</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>74049.349246559097</v>
       </c>
       <c r="D218" s="1">
@@ -5126,7 +5128,7 @@
       <c r="B219">
         <v>36</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>70256.478207886699</v>
       </c>
       <c r="D219" s="1">
@@ -5143,7 +5145,7 @@
       <c r="B220">
         <v>37</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>66385.442134515601</v>
       </c>
       <c r="D220" s="1">
@@ -5160,7 +5162,7 @@
       <c r="B221">
         <v>38</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>62514.7275514469</v>
       </c>
       <c r="D221" s="1">
@@ -5177,7 +5179,7 @@
       <c r="B222">
         <v>39</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>58703.036939756297</v>
       </c>
       <c r="D222" s="1">
@@ -5194,7 +5196,7 @@
       <c r="B223">
         <v>40</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>54993.052891449399</v>
       </c>
       <c r="D223" s="1">
@@ -5211,7 +5213,7 @@
       <c r="B224">
         <v>41</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>51414.751443535599</v>
       </c>
       <c r="D224" s="1">
@@ -5228,7 +5230,7 @@
       <c r="B225">
         <v>42</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>47988.1934901528</v>
       </c>
       <c r="D225" s="1">
@@ -5245,7 +5247,7 @@
       <c r="B226">
         <v>43</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>44725.8006309794</v>
       </c>
       <c r="D226" s="1">
@@ -5262,7 +5264,7 @@
       <c r="B227">
         <v>44</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>41634.181236540702</v>
       </c>
       <c r="D227" s="1">
@@ -5279,7 +5281,7 @@
       <c r="B228">
         <v>45</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>38715.575906408303</v>
       </c>
       <c r="D228" s="1">
@@ -5296,7 +5298,7 @@
       <c r="B229">
         <v>46</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>35968.990577403201</v>
       </c>
       <c r="D229" s="1">
@@ -5313,7 +5315,7 @@
       <c r="B230">
         <v>47</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="2">
         <v>33391.0766925235</v>
       </c>
       <c r="D230" s="1">
@@ -5330,7 +5332,7 @@
       <c r="B231">
         <v>48</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="2">
         <v>30976.811115684799</v>
       </c>
       <c r="D231" s="1">
@@ -5347,7 +5349,7 @@
       <c r="B232">
         <v>49</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>28720.018632974999</v>
       </c>
       <c r="D232" s="1">
@@ -5364,7 +5366,7 @@
       <c r="B233">
         <v>50</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="2">
         <v>26613.771279896901</v>
       </c>
       <c r="D233" s="1">
@@ -5381,7 +5383,7 @@
       <c r="B234">
         <v>51</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="2">
         <v>24650.691727134301</v>
       </c>
       <c r="D234" s="1">
@@ -5398,7 +5400,7 @@
       <c r="B235">
         <v>52</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>22823.182636735699</v>
       </c>
       <c r="D235" s="1">
@@ -5415,7 +5417,7 @@
       <c r="B236">
         <v>53</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="2">
         <v>21123.596931333799</v>
       </c>
       <c r="D236" s="1">
@@ -5432,7 +5434,7 @@
       <c r="B237">
         <v>54</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="2">
         <v>19544.363323584599</v>
       </c>
       <c r="D237" s="1">
@@ -5449,7 +5451,7 @@
       <c r="B238">
         <v>55</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="2">
         <v>18078.079902501599</v>
       </c>
       <c r="D238" s="1">
@@ -5466,7 +5468,7 @@
       <c r="B239">
         <v>56</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>16717.579294060099</v>
       </c>
       <c r="D239" s="1">
@@ -5483,7 +5485,7 @@
       <c r="B240">
         <v>57</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="2">
         <v>15455.972642057999</v>
       </c>
       <c r="D240" s="1">
@@ -5500,7 +5502,7 @@
       <c r="B241">
         <v>58</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="2">
         <v>14286.678580527599</v>
       </c>
       <c r="D241" s="1">
@@ -5517,7 +5519,7 @@
       <c r="B242">
         <v>59</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>13203.4404005243</v>
       </c>
       <c r="D242" s="1">
@@ -5534,7 +5536,7 @@
       <c r="B243">
         <v>60</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>12200.334000697099</v>
       </c>
       <c r="D243" s="1">
@@ -5551,7 +5553,7 @@
       <c r="B244">
         <v>61</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>11271.769022344</v>
       </c>
       <c r="D244" s="1">
@@ -5568,7 +5570,7 @@
       <c r="B245">
         <v>62</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="2">
         <v>10412.4849042347</v>
       </c>
       <c r="D245" s="1">
@@ -5585,7 +5587,7 @@
       <c r="B246">
         <v>63</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>9617.5432322541801</v>
       </c>
       <c r="D246" s="1">
@@ -5602,7 +5604,7 @@
       <c r="B247">
         <v>64</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>8882.3174439104405</v>
       </c>
       <c r="D247" s="1">
@@ -5619,7 +5621,7 @@
       <c r="B248">
         <v>65</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="2">
         <v>8202.48070524576</v>
       </c>
       <c r="D248" s="1">
@@ -5636,7 +5638,7 @@
       <c r="B249">
         <v>66</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="2">
         <v>7573.9925957584101</v>
       </c>
       <c r="D249" s="1">
@@ -5653,7 +5655,7 @@
       <c r="B250">
         <v>67</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>6993.08508869248</v>
       </c>
       <c r="D250" s="1">
@@ -5670,7 +5672,7 @@
       <c r="B251">
         <v>68</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="2">
         <v>6456.2481996059796</v>
       </c>
       <c r="D251" s="1">
@@ -5687,7 +5689,7 @@
       <c r="B252">
         <v>69</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>5960.2155859240302</v>
       </c>
       <c r="D252" s="1">
@@ -5704,7 +5706,7 @@
       <c r="B253">
         <v>70</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>5501.9503093459998</v>
       </c>
       <c r="D253" s="1">
@@ -5721,7 +5723,7 @@
       <c r="B254">
         <v>71</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="2">
         <v>5078.6309174952503</v>
       </c>
       <c r="D254" s="1">
@@ -5738,7 +5740,7 @@
       <c r="B255">
         <v>72</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>4687.6379576855497</v>
       </c>
       <c r="D255" s="1">
@@ -5755,7 +5757,7 @@
       <c r="B256">
         <v>73</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="2">
         <v>4326.5410016747701</v>
       </c>
       <c r="D256" s="1">
@@ -5772,7 +5774,7 @@
       <c r="B257">
         <v>74</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="2">
         <v>3993.0862337724998</v>
       </c>
       <c r="D257" s="1">
@@ -5789,7 +5791,7 @@
       <c r="B258">
         <v>75</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>3685.1846340980301</v>
       </c>
       <c r="D258" s="1">
@@ -5806,7 +5808,7 @@
       <c r="B259">
         <v>76</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="2">
         <v>3400.90077291732</v>
       </c>
       <c r="D259" s="1">
@@ -5823,7 +5825,7 @@
       <c r="B260">
         <v>77</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="2">
         <v>3138.4422198400098</v>
       </c>
       <c r="D260" s="1">
@@ -5840,7 +5842,7 @@
       <c r="B261">
         <v>78</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="2">
         <v>2896.14956245852</v>
       </c>
       <c r="D261" s="1">
@@ -5857,7 +5859,7 @@
       <c r="B262">
         <v>79</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="2">
         <v>2672.4870221440401</v>
       </c>
       <c r="D262" s="1">
@@ -5874,7 +5876,7 @@
       <c r="B263">
         <v>80</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="2">
         <v>2466.03364969003</v>
       </c>
       <c r="D263" s="1">
@@ -5891,7 +5893,7 @@
       <c r="B264">
         <v>81</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="2">
         <v>2275.47507992295</v>
       </c>
       <c r="D264" s="1">
@@ -5908,7 +5910,7 @@
       <c r="B265">
         <v>82</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="2">
         <v>2099.5958219713598</v>
       </c>
       <c r="D265" s="1">
@@ -5925,7 +5927,7 @@
       <c r="B266">
         <v>83</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="2">
         <v>1937.27206035105</v>
       </c>
       <c r="D266" s="1">
@@ -5942,7 +5944,7 @@
       <c r="B267">
         <v>84</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="2">
         <v>1787.4649411861999</v>
       </c>
       <c r="D267" s="1">
@@ -5959,7 +5961,7 @@
       <c r="B268">
         <v>85</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="2">
         <v>1649.2143175879801</v>
       </c>
       <c r="D268" s="1">
@@ -5976,7 +5978,7 @@
       <c r="B269">
         <v>86</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="2">
         <v>1521.6329283254499</v>
       </c>
       <c r="D269" s="1">
@@ -5993,7 +5995,7 @@
       <c r="B270">
         <v>87</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="2">
         <v>1403.90098434829</v>
       </c>
       <c r="D270" s="1">
@@ -6010,7 +6012,7 @@
       <c r="B271">
         <v>88</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="2">
         <v>1295.26113837764</v>
       </c>
       <c r="D271" s="1">
@@ -6027,7 +6029,7 @@
       <c r="B272">
         <v>89</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="2">
         <v>1195.0138136048799</v>
       </c>
       <c r="D272" s="1">
@@ -6044,7 +6046,7 @@
       <c r="B273">
         <v>90</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="2">
         <v>1102.5128684793301</v>
       </c>
       <c r="D273" s="1">
@@ -6061,7 +6063,7 @@
       <c r="B274">
         <v>91</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="2">
         <v>1017.16157558409</v>
       </c>
       <c r="D274" s="1">
@@ -6078,7 +6080,7 @@
       <c r="B275">
         <v>92</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="2">
         <v>938.408893663036</v>
       </c>
       <c r="D275" s="1">
@@ -6095,7 +6097,7 @@
       <c r="B276">
         <v>93</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="2">
         <v>865.74601294739296</v>
       </c>
       <c r="D276" s="1">
@@ -6112,7 +6114,7 @@
       <c r="B277">
         <v>94</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="2">
         <v>798.70315501809205</v>
       </c>
       <c r="D277" s="1">
@@ -6129,7 +6131,7 @@
       <c r="B278">
         <v>95</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="2">
         <v>736.84660951560704</v>
       </c>
       <c r="D278" s="1">
@@ -6146,7 +6148,7 @@
       <c r="B279">
         <v>96</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="2">
         <v>679.77599106172204</v>
       </c>
       <c r="D279" s="1">
@@ -6163,7 +6165,7 @@
       <c r="B280">
         <v>97</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="2">
         <v>627.12170077915596</v>
       </c>
       <c r="D280" s="1">
@@ -6180,7 +6182,7 @@
       <c r="B281">
         <v>98</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>578.542577779672</v>
       </c>
       <c r="D281" s="1">
@@ -6197,7 +6199,7 @@
       <c r="B282">
         <v>99</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="2">
         <v>533.72372693516695</v>
       </c>
       <c r="D282" s="1">
@@ -6214,7 +6216,7 @@
       <c r="B283">
         <v>100</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="2">
         <v>492.37451014667403</v>
       </c>
       <c r="D283" s="1">
@@ -6231,7 +6233,7 @@
       <c r="B284">
         <v>101</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="2">
         <v>454.22668918199099</v>
       </c>
       <c r="D284" s="1">
@@ -6248,7 +6250,7 @@
       <c r="B285">
         <v>102</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="2">
         <v>419.03270896305702</v>
       </c>
       <c r="D285" s="1">
@@ -6265,7 +6267,7 @@
       <c r="B286">
         <v>103</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="2">
         <v>386.56411094959401</v>
       </c>
       <c r="D286" s="1">
@@ -6282,7 +6284,7 @@
       <c r="B287">
         <v>104</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="2">
         <v>356.61006698646003</v>
       </c>
       <c r="D287" s="1">
@@ -6299,7 +6301,7 @@
       <c r="B288">
         <v>105</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="2">
         <v>328.97602465990002</v>
       </c>
       <c r="D288" s="1">
@@ -6316,7 +6318,7 @@
       <c r="B289">
         <v>106</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="2">
         <v>303.482455843563</v>
       </c>
       <c r="D289" s="1">
@@ -6333,7 +6335,7 @@
       <c r="B290">
         <v>107</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="2">
         <v>279.96370071068998</v>
       </c>
       <c r="D290" s="1">
@@ -6350,7 +6352,7 @@
       <c r="B291">
         <v>108</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="2">
         <v>258.266900045684</v>
       </c>
       <c r="D291" s="1">
@@ -6367,7 +6369,7 @@
       <c r="B292">
         <v>109</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="2">
         <v>238.25100920841101</v>
       </c>
       <c r="D292" s="1">
@@ -6384,7 +6386,7 @@
       <c r="B293">
         <v>110</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="2">
         <v>219.78588758976699</v>
       </c>
       <c r="D293" s="1">
@@ -6401,7 +6403,7 @@
       <c r="B294">
         <v>111</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="2">
         <v>202.751457849215</v>
       </c>
       <c r="D294" s="1">
@@ -6418,7 +6420,7 @@
       <c r="B295">
         <v>112</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="2">
         <v>187.036929645985</v>
       </c>
       <c r="D295" s="1">
@@ -6435,7 +6437,7 @@
       <c r="B296">
         <v>113</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="2">
         <v>172.54008296725701</v>
       </c>
       <c r="D296" s="1">
@@ -6452,7 +6454,7 @@
       <c r="B297">
         <v>114</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="2">
         <v>159.16660652073</v>
       </c>
       <c r="D297" s="1">
@@ -6469,7 +6471,7 @@
       <c r="B298">
         <v>115</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="2">
         <v>146.82948699712301</v>
       </c>
       <c r="D298" s="1">
@@ -6486,7 +6488,7 @@
       <c r="B299">
         <v>116</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="2">
         <v>135.44844532217101</v>
       </c>
       <c r="D299" s="1">
@@ -6503,7 +6505,7 @@
       <c r="B300">
         <v>117</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="2">
         <v>124.949416308959</v>
       </c>
       <c r="D300" s="1">
@@ -6520,7 +6522,7 @@
       <c r="B301">
         <v>118</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="2">
         <v>115.264068391633</v>
       </c>
       <c r="D301" s="1">
@@ -6537,7 +6539,7 @@
       <c r="B302">
         <v>119</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="2">
         <v>106.329360371965</v>
       </c>
       <c r="D302" s="1">
@@ -6554,7 +6556,7 @@
       <c r="B303">
         <v>120</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="2">
         <v>98.087132342296599</v>
       </c>
       <c r="D303" s="1">
@@ -6571,7 +6573,7 @@
       <c r="B304">
         <v>121</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="2">
         <v>90.483728163373698</v>
       </c>
       <c r="D304" s="1">
@@ -6588,7 +6590,7 @@
       <c r="B305">
         <v>122</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <v>83.469647074559106</v>
       </c>
       <c r="D305" s="1">
@@ -6605,7 +6607,7 @@
       <c r="B306">
         <v>123</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="2">
         <v>76.999222198194502</v>
       </c>
       <c r="D306" s="1">
@@ -6622,7 +6624,7 @@
       <c r="B307">
         <v>124</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="2">
         <v>71.030323870333504</v>
       </c>
       <c r="D307" s="1">
@@ -6639,7 +6641,7 @@
       <c r="B308">
         <v>125</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="2">
         <v>65.524085887808297</v>
       </c>
       <c r="D308" s="1">
@@ -6656,7 +6658,7 @@
       <c r="B309">
         <v>126</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="2">
         <v>60.444652907472602</v>
       </c>
       <c r="D309" s="1">
@@ -6673,7 +6675,7 @@
       <c r="B310">
         <v>127</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="2">
         <v>55.758947368367899</v>
       </c>
       <c r="D310" s="1">
@@ -6690,7 +6692,7 @@
       <c r="B311">
         <v>128</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="2">
         <v>51.436454432282297</v>
       </c>
       <c r="D311" s="1">
@@ -6707,7 +6709,7 @@
       <c r="B312">
         <v>129</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="2">
         <v>47.4490235534672</v>
       </c>
       <c r="D312" s="1">
@@ -6724,7 +6726,7 @@
       <c r="B313">
         <v>130</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="2">
         <v>43.770685394831197</v>
       </c>
       <c r="D313" s="1">
@@ -6741,7 +6743,7 @@
       <c r="B314">
         <v>131</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="2">
         <v>40.377482906397802</v>
       </c>
       <c r="D314" s="1">
@@ -6758,7 +6760,7 @@
       <c r="B315">
         <v>132</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="2">
         <v>37.247315472792799</v>
       </c>
       <c r="D315" s="1">
@@ -6775,7 +6777,7 @@
       <c r="B316">
         <v>133</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="2">
         <v>34.359795120578099</v>
       </c>
       <c r="D316" s="1">
@@ -6792,7 +6794,7 @@
       <c r="B317">
         <v>134</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="2">
         <v>31.696113853885301</v>
       </c>
       <c r="D317" s="1">
@@ -6809,7 +6811,7 @@
       <c r="B318">
         <v>135</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="2">
         <v>29.238921258515401</v>
       </c>
       <c r="D318" s="1">
@@ -6826,7 +6828,7 @@
       <c r="B319">
         <v>136</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="2">
         <v>26.972211580893902</v>
       </c>
       <c r="D319" s="1">
@@ -6843,7 +6845,7 @@
       <c r="B320">
         <v>137</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="2">
         <v>24.88121954943</v>
       </c>
       <c r="D320" s="1">
@@ -6860,7 +6862,7 @@
       <c r="B321">
         <v>138</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="2">
         <v>22.952324262299999</v>
       </c>
       <c r="D321" s="1">
@@ -6877,7 +6879,7 @@
       <c r="B322">
         <v>139</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="2">
         <v>21.1729605178102</v>
       </c>
       <c r="D322" s="1">
@@ -6894,7 +6896,7 @@
       <c r="B323">
         <v>140</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="2">
         <v>19.531537011639202</v>
       </c>
       <c r="D323" s="1">
@@ -6911,7 +6913,7 @@
       <c r="B324">
         <v>141</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="2">
         <v>18.0173608696904</v>
       </c>
       <c r="D324" s="1">
@@ -6928,7 +6930,7 @@
       <c r="B325">
         <v>142</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="2">
         <v>16.620568026316398</v>
       </c>
       <c r="D325" s="1">
@@ -6945,7 +6947,7 @@
       <c r="B326">
         <v>143</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="2">
         <v>15.332058995537899</v>
       </c>
       <c r="D326" s="1">
@@ -6962,7 +6964,7 @@
       <c r="B327">
         <v>144</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="2">
         <v>14.143439617835799</v>
       </c>
       <c r="D327" s="1">
@@ -6979,7 +6981,7 @@
       <c r="B328">
         <v>145</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="2">
         <v>13.046966397352399</v>
       </c>
       <c r="D328" s="1">
@@ -6996,7 +6998,7 @@
       <c r="B329">
         <v>146</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="2">
         <v>12.0354960741157</v>
       </c>
       <c r="D329" s="1">
@@ -7013,7 +7015,7 @@
       <c r="B330">
         <v>147</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="2">
         <v>11.102439103375501</v>
       </c>
       <c r="D330" s="1">
@@ -7030,7 +7032,7 @@
       <c r="B331">
         <v>148</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="2">
         <v>10.241716739501999</v>
       </c>
       <c r="D331" s="1">
@@ -7047,7 +7049,7 @@
       <c r="B332">
         <v>149</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="2">
         <v>9.4477214453002905</v>
       </c>
       <c r="D332" s="1">
@@ -7064,7 +7066,7 @@
       <c r="B333">
         <v>150</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="2">
         <v>8.7152803691888394</v>
       </c>
       <c r="D333" s="1">
@@ -7081,7 +7083,7 @@
       <c r="B334">
         <v>151</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="2">
         <v>8.0396216526198394</v>
       </c>
       <c r="D334" s="1">
@@ -7098,7 +7100,7 @@
       <c r="B335">
         <v>152</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="2">
         <v>7.4163433485090096</v>
       </c>
       <c r="D335" s="1">
@@ -7115,7 +7117,7 @@
       <c r="B336">
         <v>153</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="2">
         <v>6.84138474841013</v>
       </c>
       <c r="D336" s="1">
@@ -7132,7 +7134,7 @@
       <c r="B337">
         <v>154</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="2">
         <v>6.3109999318275198</v>
       </c>
       <c r="D337" s="1">
@@ -7149,7 +7151,7 @@
       <c r="B338">
         <v>155</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="2">
         <v>5.8217333655061001</v>
       </c>
       <c r="D338" s="1">
@@ -7166,7 +7168,7 @@
       <c r="B339">
         <v>156</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="2">
         <v>5.3703973938691103</v>
       </c>
       <c r="D339" s="1">
@@ -7183,7 +7185,7 @@
       <c r="B340">
         <v>157</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="2">
         <v>4.9540514740720001</v>
       </c>
       <c r="D340" s="1">
@@ -7200,7 +7202,7 @@
       <c r="B341">
         <v>158</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="2">
         <v>4.5699830204891203</v>
       </c>
       <c r="D341" s="1">
@@ -7217,7 +7219,7 @@
       <c r="B342">
         <v>159</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="2">
         <v>4.2156897339194197</v>
       </c>
       <c r="D342" s="1">
@@ -7234,7 +7236,7 @@
       <c r="B343">
         <v>160</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="2">
         <v>3.8888633004570301</v>
       </c>
       <c r="D343" s="1">
@@ -7251,7 +7253,7 @@
       <c r="B344">
         <v>161</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="2">
         <v>3.5873743538848801</v>
       </c>
       <c r="D344" s="1">
@@ -7268,7 +7270,7 @@
       <c r="B345">
         <v>162</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="2">
         <v>3.30925860367164</v>
       </c>
       <c r="D345" s="1">
@@ -7285,7 +7287,7 @@
       <c r="B346">
         <v>163</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="2">
         <v>3.0527040382382702</v>
       </c>
       <c r="D346" s="1">
@@ -7302,7 +7304,7 @@
       <c r="B347">
         <v>164</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="2">
         <v>2.8160391201589401</v>
       </c>
       <c r="D347" s="1">
@@ -7319,7 +7321,7 @@
       <c r="B348">
         <v>165</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="2">
         <v>2.5977218964179398</v>
       </c>
       <c r="D348" s="1">
@@ -7336,7 +7338,7 @@
       <c r="B349">
         <v>166</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="2">
         <v>2.3963299528006399</v>
       </c>
       <c r="D349" s="1">
@@ -7353,7 +7355,7 @@
       <c r="B350">
         <v>167</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="2">
         <v>2.2105511469922798</v>
       </c>
       <c r="D350" s="1">
@@ -7370,7 +7372,7 @@
       <c r="B351">
         <v>168</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="2">
         <v>2.03917506002808</v>
       </c>
       <c r="D351" s="1">
@@ -7387,7 +7389,7 @@
       <c r="B352">
         <v>169</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="2">
         <v>1.88108511041517</v>
       </c>
       <c r="D352" s="1">
@@ -7404,7 +7406,7 @@
       <c r="B353">
         <v>170</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="2">
         <v>1.7352512795619699</v>
       </c>
       <c r="D353" s="1">
@@ -7421,7 +7423,7 @@
       <c r="B354">
         <v>171</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="2">
         <v>1.6007234011309299</v>
       </c>
       <c r="D354" s="1">
@@ -7438,7 +7440,7 @@
       <c r="B355">
         <v>172</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="2">
         <v>1.4766249706030801</v>
       </c>
       <c r="D355" s="1">
@@ -7455,7 +7457,7 @@
       <c r="B356">
         <v>173</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="2">
         <v>1.36214743473025</v>
       </c>
       <c r="D356" s="1">
@@ -7472,7 +7474,7 @@
       <c r="B357">
         <v>174</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="2">
         <v>1.2565449236763699</v>
       </c>
       <c r="D357" s="1">
@@ -7489,7 +7491,7 @@
       <c r="B358">
         <v>175</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="2">
         <v>1.1591293915320999</v>
       </c>
       <c r="D358" s="1">
@@ -7506,7 +7508,7 @@
       <c r="B359">
         <v>176</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="2">
         <v>1.06926613354688</v>
       </c>
       <c r="D359" s="1">
@@ -7523,7 +7525,7 @@
       <c r="B360">
         <v>177</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="2">
         <v>0.98636965087613604</v>
       </c>
       <c r="D360" s="1">
@@ -7540,7 +7542,7 @@
       <c r="B361">
         <v>178</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="2">
         <v>0.90989983590458801</v>
       </c>
       <c r="D361" s="1">
@@ -7557,7 +7559,7 @@
       <c r="B362">
         <v>179</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="2">
         <v>0.83935845329507097</v>
       </c>
       <c r="D362" s="1">
@@ -7574,7 +7576,7 @@
       <c r="B363">
         <v>180</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="2">
         <v>0.77428589383813495</v>
       </c>
       <c r="D363" s="1">
@@ -7591,7 +7593,7 @@
       <c r="B364">
         <v>1</v>
       </c>
-      <c r="C364" s="3">
+      <c r="C364" s="2">
         <v>100</v>
       </c>
       <c r="D364" s="1">
@@ -7608,8 +7610,8 @@
       <c r="B365">
         <v>2</v>
       </c>
-      <c r="C365" s="3">
-        <v>130.151859241511</v>
+      <c r="C365" s="2">
+        <v>130.891158645171</v>
       </c>
       <c r="D365" s="1">
         <v>43893</v>
@@ -7625,8 +7627,8 @@
       <c r="B366">
         <v>3</v>
       </c>
-      <c r="C366" s="3">
-        <v>169.39379278820701</v>
+      <c r="C366" s="2">
+        <v>171.32227823583401</v>
       </c>
       <c r="D366" s="1">
         <v>43894</v>
@@ -7642,8 +7644,8 @@
       <c r="B367">
         <v>4</v>
       </c>
-      <c r="C367" s="3">
-        <v>220.46536204131601</v>
+      <c r="C367" s="2">
+        <v>224.237629687457</v>
       </c>
       <c r="D367" s="1">
         <v>43895</v>
@@ -7659,8 +7661,8 @@
       <c r="B368">
         <v>5</v>
       </c>
-      <c r="C368" s="3">
-        <v>286.93116210505201</v>
+      <c r="C368" s="2">
+        <v>293.48879692121102</v>
       </c>
       <c r="D368" s="1">
         <v>43896</v>
@@ -7676,8 +7678,8 @@
       <c r="B369">
         <v>6</v>
       </c>
-      <c r="C369" s="3">
-        <v>373.428862819144</v>
+      <c r="C369" s="2">
+        <v>384.11331128872803</v>
       </c>
       <c r="D369" s="1">
         <v>43897</v>
@@ -7693,8 +7695,8 @@
       <c r="B370">
         <v>7</v>
       </c>
-      <c r="C370" s="3">
-        <v>485.99152437129601</v>
+      <c r="C370" s="2">
+        <v>502.69815432984097</v>
       </c>
       <c r="D370" s="1">
         <v>43898</v>
@@ -7710,8 +7712,8 @@
       <c r="B371">
         <v>8</v>
       </c>
-      <c r="C371" s="3">
-        <v>632.46622592778397</v>
+      <c r="C371" s="2">
+        <v>657.85349907612499</v>
       </c>
       <c r="D371" s="1">
         <v>43899</v>
@@ -7727,8 +7729,8 @@
       <c r="B372">
         <v>9</v>
       </c>
-      <c r="C372" s="3">
-        <v>823.05744271128003</v>
+      <c r="C372" s="2">
+        <v>860.82926593161994</v>
       </c>
       <c r="D372" s="1">
         <v>43900</v>
@@ -7744,8 +7746,8 @@
       <c r="B373">
         <v>10</v>
       </c>
-      <c r="C373" s="3">
-        <v>1071.03175678344</v>
+      <c r="C373" s="2">
+        <v>1126.31610948399</v>
       </c>
       <c r="D373" s="1">
         <v>43901</v>
@@ -7761,8 +7763,8 @@
       <c r="B374">
         <v>11</v>
       </c>
-      <c r="C374" s="3">
-        <v>1393.63081210316</v>
+      <c r="C374" s="2">
+        <v>1473.48352261525</v>
       </c>
       <c r="D374" s="1">
         <v>43902</v>
@@ -7778,8 +7780,8 @@
       <c r="B375">
         <v>12</v>
       </c>
-      <c r="C375" s="3">
-        <v>1813.2523682989699</v>
+      <c r="C375" s="2">
+        <v>1927.32101702402</v>
       </c>
       <c r="D375" s="1">
         <v>43903</v>
@@ -7795,8 +7797,8 @@
       <c r="B376">
         <v>13</v>
       </c>
-      <c r="C376" s="3">
-        <v>2358.97533916663</v>
+      <c r="C376" s="2">
+        <v>2520.3636272469498</v>
       </c>
       <c r="D376" s="1">
         <v>43904</v>
@@ -7812,8 +7814,8 @@
       <c r="B377">
         <v>14</v>
       </c>
-      <c r="C377" s="3">
-        <v>3068.5241800583399</v>
+      <c r="C377" s="2">
+        <v>3294.89948813208</v>
       </c>
       <c r="D377" s="1">
         <v>43905</v>
@@ -7829,8 +7831,8 @@
       <c r="B378">
         <v>15</v>
       </c>
-      <c r="C378" s="3">
-        <v>3990.79106683397</v>
+      <c r="C378" s="2">
+        <v>4305.7730161818499</v>
       </c>
       <c r="D378" s="1">
         <v>43906</v>
@@ -7846,8 +7848,8 @@
       <c r="B379">
         <v>16</v>
       </c>
-      <c r="C379" s="3">
-        <v>5189.0604612270099</v>
+      <c r="C379" s="2">
+        <v>5623.9083016158602</v>
       </c>
       <c r="D379" s="1">
         <v>43907</v>
@@ -7863,8 +7865,8 @@
       <c r="B380">
         <v>17</v>
       </c>
-      <c r="C380" s="3">
-        <v>6745.1085080632602</v>
+      <c r="C380" s="2">
+        <v>7340.67622149422</v>
       </c>
       <c r="D380" s="1">
         <v>43908</v>
@@ -7880,8 +7882,8 @@
       <c r="B381">
         <v>18</v>
       </c>
-      <c r="C381" s="3">
-        <v>8764.37505213228</v>
+      <c r="C381" s="2">
+        <v>9573.2019894416408</v>
       </c>
       <c r="D381" s="1">
         <v>43909</v>
@@ -7897,8 +7899,8 @@
       <c r="B382">
         <v>19</v>
       </c>
-      <c r="C382" s="3">
-        <v>11382.4229252149</v>
+      <c r="C382" s="2">
+        <v>12470.6365721609</v>
       </c>
       <c r="D382" s="1">
         <v>43910</v>
@@ -7914,8 +7916,8 @@
       <c r="B383">
         <v>20</v>
       </c>
-      <c r="C383" s="3">
-        <v>14772.892664090299</v>
+      <c r="C383" s="2">
+        <v>16221.2591263133</v>
       </c>
       <c r="D383" s="1">
         <v>43911</v>
@@ -7931,8 +7933,8 @@
       <c r="B384">
         <v>21</v>
       </c>
-      <c r="C384" s="3">
-        <v>19157.110088936901</v>
+      <c r="C384" s="2">
+        <v>21059.990613199101</v>
       </c>
       <c r="D384" s="1">
         <v>43912</v>
@@ -7948,8 +7950,8 @@
       <c r="B385">
         <v>22</v>
       </c>
-      <c r="C385" s="3">
-        <v>24815.370648598699</v>
+      <c r="C385" s="2">
+        <v>27275.409085869502</v>
       </c>
       <c r="D385" s="1">
         <v>43913</v>
@@ -7965,8 +7967,8 @@
       <c r="B386">
         <v>23</v>
       </c>
-      <c r="C386" s="3">
-        <v>32099.652261903699</v>
+      <c r="C386" s="2">
+        <v>35214.597577555702</v>
       </c>
       <c r="D386" s="1">
         <v>43914</v>
@@ -7982,8 +7984,8 @@
       <c r="B387">
         <v>24</v>
       </c>
-      <c r="C387" s="3">
-        <v>41447.011378376803</v>
+      <c r="C387" s="2">
+        <v>45283.060710891899</v>
       </c>
       <c r="D387" s="1">
         <v>43915</v>
@@ -7999,8 +8001,8 @@
       <c r="B388">
         <v>25</v>
       </c>
-      <c r="C388" s="3">
-        <v>53392.091250547601</v>
+      <c r="C388" s="2">
+        <v>57935.575566821099</v>
       </c>
       <c r="D388" s="1">
         <v>43916</v>
@@ -8016,8 +8018,8 @@
       <c r="B389">
         <v>26</v>
       </c>
-      <c r="C389" s="3">
-        <v>68575.885941844201</v>
+      <c r="C389" s="2">
+        <v>73652.453123827596</v>
       </c>
       <c r="D389" s="1">
         <v>43917</v>
@@ -8033,8 +8035,8 @@
       <c r="B390">
         <v>27</v>
       </c>
-      <c r="C390" s="3">
-        <v>87746.085283240405</v>
+      <c r="C390" s="2">
+        <v>92894.973580017802</v>
       </c>
       <c r="D390" s="1">
         <v>43918</v>
@@ -8050,8 +8052,8 @@
       <c r="B391">
         <v>28</v>
       </c>
-      <c r="C391" s="3">
-        <v>111742.028974949</v>
+      <c r="C391" s="2">
+        <v>116034.982003357</v>
       </c>
       <c r="D391" s="1">
         <v>43919</v>
@@ -8067,8 +8069,8 @@
       <c r="B392">
         <v>29</v>
       </c>
-      <c r="C392" s="3">
-        <v>141454.940889438</v>
+      <c r="C392" s="2">
+        <v>143258.496559519</v>
       </c>
       <c r="D392" s="1">
         <v>43920</v>
@@ -8084,8 +8086,8 @@
       <c r="B393">
         <v>30</v>
       </c>
-      <c r="C393" s="3">
-        <v>177752.75369509301</v>
+      <c r="C393" s="2">
+        <v>174453.03044325701</v>
       </c>
       <c r="D393" s="1">
         <v>43921</v>
@@ -8101,8 +8103,8 @@
       <c r="B394">
         <v>31</v>
       </c>
-      <c r="C394" s="3">
-        <v>221360.424639228</v>
+      <c r="C394" s="2">
+        <v>209102.330593477</v>
       </c>
       <c r="D394" s="1">
         <v>43922</v>
@@ -8118,8 +8120,8 @@
       <c r="B395">
         <v>32</v>
       </c>
-      <c r="C395" s="3">
-        <v>272693.91029546497</v>
+      <c r="C395" s="2">
+        <v>246225.294208915</v>
       </c>
       <c r="D395" s="1">
         <v>43923</v>
@@ -8135,8 +8137,8 @@
       <c r="B396">
         <v>33</v>
       </c>
-      <c r="C396" s="3">
-        <v>331661.30024635303</v>
+      <c r="C396" s="2">
+        <v>284398.40677136899</v>
       </c>
       <c r="D396" s="1">
         <v>43924</v>
@@ -8152,8 +8154,8 @@
       <c r="B397">
         <v>34</v>
       </c>
-      <c r="C397" s="3">
-        <v>397467.43575995899</v>
+      <c r="C397" s="2">
+        <v>321884.05872358999</v>
       </c>
       <c r="D397" s="1">
         <v>43925</v>
@@ -8169,8 +8171,8 @@
       <c r="B398">
         <v>35</v>
       </c>
-      <c r="C398" s="3">
-        <v>468481.71584330802</v>
+      <c r="C398" s="2">
+        <v>356850.99253052601</v>
       </c>
       <c r="D398" s="1">
         <v>43926</v>
@@ -8186,8 +8188,8 @@
       <c r="B399">
         <v>36</v>
       </c>
-      <c r="C399" s="3">
-        <v>542238.325697892</v>
+      <c r="C399" s="2">
+        <v>387633.44258937001</v>
       </c>
       <c r="D399" s="1">
         <v>43927</v>
@@ -8203,8 +8205,8 @@
       <c r="B400">
         <v>37</v>
       </c>
-      <c r="C400" s="3">
-        <v>615617.71310668602</v>
+      <c r="C400" s="2">
+        <v>412955.92708311102</v>
       </c>
       <c r="D400" s="1">
         <v>43928</v>
@@ -8220,8 +8222,8 @@
       <c r="B401">
         <v>38</v>
       </c>
-      <c r="C401" s="3">
-        <v>685203.57042297302</v>
+      <c r="C401" s="2">
+        <v>432064.42914640199</v>
       </c>
       <c r="D401" s="1">
         <v>43929</v>
@@ -8237,8 +8239,8 @@
       <c r="B402">
         <v>39</v>
       </c>
-      <c r="C402" s="3">
-        <v>747740.31692466303</v>
+      <c r="C402" s="2">
+        <v>444743.46689891297</v>
       </c>
       <c r="D402" s="1">
         <v>43930</v>
@@ -8254,8 +8256,8 @@
       <c r="B403">
         <v>40</v>
       </c>
-      <c r="C403" s="3">
-        <v>800569.41238487605</v>
+      <c r="C403" s="2">
+        <v>451238.84622453398</v>
       </c>
       <c r="D403" s="1">
         <v>43931</v>
@@ -8271,8 +8273,8 @@
       <c r="B404">
         <v>41</v>
       </c>
-      <c r="C404" s="3">
-        <v>841928.74884164694</v>
+      <c r="C404" s="2">
+        <v>452128.27481471997</v>
       </c>
       <c r="D404" s="1">
         <v>43932</v>
@@ -8288,8 +8290,8 @@
       <c r="B405">
         <v>42</v>
       </c>
-      <c r="C405" s="3">
-        <v>871054.85036974796</v>
+      <c r="C405" s="2">
+        <v>448182.38023919502</v>
       </c>
       <c r="D405" s="1">
         <v>43933</v>
@@ -8305,8 +8307,8 @@
       <c r="B406">
         <v>43</v>
       </c>
-      <c r="C406" s="3">
-        <v>888099.76859024703</v>
+      <c r="C406" s="2">
+        <v>440245.21104626602</v>
       </c>
       <c r="D406" s="1">
         <v>43934</v>
@@ -8322,8 +8324,8 @@
       <c r="B407">
         <v>44</v>
       </c>
-      <c r="C407" s="3">
-        <v>893925.60288114694</v>
+      <c r="C407" s="2">
+        <v>429147.03143600503</v>
       </c>
       <c r="D407" s="1">
         <v>43935</v>
@@ -8339,8 +8341,8 @@
       <c r="B408">
         <v>45</v>
       </c>
-      <c r="C408" s="3">
-        <v>889853.85881366394</v>
+      <c r="C408" s="2">
+        <v>415649.91836311499</v>
       </c>
       <c r="D408" s="1">
         <v>43936</v>
@@ -8356,8 +8358,8 @@
       <c r="B409">
         <v>46</v>
       </c>
-      <c r="C409" s="3">
-        <v>877430.95804643701</v>
+      <c r="C409" s="2">
+        <v>400420.19109570701</v>
       </c>
       <c r="D409" s="1">
         <v>43937</v>
@@ -8373,8 +8375,8 @@
       <c r="B410">
         <v>47</v>
       </c>
-      <c r="C410" s="3">
-        <v>858243.85938536795</v>
+      <c r="C410" s="2">
+        <v>384019.80850438302</v>
       </c>
       <c r="D410" s="1">
         <v>43938</v>
@@ -8390,8 +8392,8 @@
       <c r="B411">
         <v>48</v>
       </c>
-      <c r="C411" s="3">
-        <v>833795.07076066395</v>
+      <c r="C411" s="2">
+        <v>366909.57446907402</v>
       </c>
       <c r="D411" s="1">
         <v>43939</v>
@@ -8407,8 +8409,8 @@
       <c r="B412">
         <v>49</v>
       </c>
-      <c r="C412" s="3">
-        <v>805430.88446274004</v>
+      <c r="C412" s="2">
+        <v>349458.69724652998</v>
       </c>
       <c r="D412" s="1">
         <v>43940</v>
@@ -8424,8 +8426,8 @@
       <c r="B413">
         <v>50</v>
       </c>
-      <c r="C413" s="3">
-        <v>774310.10400137794</v>
+      <c r="C413" s="2">
+        <v>331957.01540490199</v>
       </c>
       <c r="D413" s="1">
         <v>43941</v>
@@ -8441,8 +8443,8 @@
       <c r="B414">
         <v>51</v>
       </c>
-      <c r="C414" s="3">
-        <v>741399.906359485</v>
+      <c r="C414" s="2">
+        <v>314627.63974253798</v>
       </c>
       <c r="D414" s="1">
         <v>43942</v>
@@ -8458,8 +8460,8 @@
       <c r="B415">
         <v>52</v>
       </c>
-      <c r="C415" s="3">
-        <v>707487.76887797494</v>
+      <c r="C415" s="2">
+        <v>297638.78557533497</v>
       </c>
       <c r="D415" s="1">
         <v>43943</v>
@@ -8475,8 +8477,8 @@
       <c r="B416">
         <v>53</v>
       </c>
-      <c r="C416" s="3">
-        <v>673201.42644038005</v>
+      <c r="C416" s="2">
+        <v>281114.23073364299</v>
       </c>
       <c r="D416" s="1">
         <v>43944</v>
@@ -8492,8 +8494,8 @@
       <c r="B417">
         <v>54</v>
       </c>
-      <c r="C417" s="3">
-        <v>639031.62659875804</v>
+      <c r="C417" s="2">
+        <v>265142.230162844</v>
       </c>
       <c r="D417" s="1">
         <v>43945</v>
@@ -8509,8 +8511,8 @@
       <c r="B418">
         <v>55</v>
       </c>
-      <c r="C418" s="3">
-        <v>605354.58974029298</v>
+      <c r="C418" s="2">
+        <v>249782.93334376</v>
       </c>
       <c r="D418" s="1">
         <v>43946</v>
@@ -8526,8 +8528,8 @@
       <c r="B419">
         <v>56</v>
       </c>
-      <c r="C419" s="3">
-        <v>572452.56209814502</v>
+      <c r="C419" s="2">
+        <v>235074.45418639801</v>
       </c>
       <c r="D419" s="1">
         <v>43947</v>
@@ -8543,8 +8545,8 @@
       <c r="B420">
         <v>57</v>
       </c>
-      <c r="C420" s="3">
-        <v>540531.77080377005</v>
+      <c r="C420" s="2">
+        <v>221037.77932598899</v>
       </c>
       <c r="D420" s="1">
         <v>43948</v>
@@ -8560,8 +8562,8 @@
       <c r="B421">
         <v>58</v>
       </c>
-      <c r="C421" s="3">
-        <v>509737.64515324199</v>
+      <c r="C421" s="2">
+        <v>207680.70445811399</v>
       </c>
       <c r="D421" s="1">
         <v>43949</v>
@@ -8577,8 +8579,8 @@
       <c r="B422">
         <v>59</v>
       </c>
-      <c r="C422" s="3">
-        <v>480167.45827628701</v>
+      <c r="C422" s="2">
+        <v>195000.971009509</v>
       </c>
       <c r="D422" s="1">
         <v>43950</v>
@@ -8594,8 +8596,8 @@
       <c r="B423">
         <v>60</v>
       </c>
-      <c r="C423" s="3">
-        <v>451880.67251563299</v>
+      <c r="C423" s="2">
+        <v>182988.753846846</v>
       </c>
       <c r="D423" s="1">
         <v>43951</v>
@@ -8611,8 +8613,8 @@
       <c r="B424">
         <v>61</v>
       </c>
-      <c r="C424" s="3">
-        <v>424907.32651214401</v>
+      <c r="C424" s="2">
+        <v>171628.62654999999</v>
       </c>
       <c r="D424" s="1">
         <v>43952</v>
@@ -8628,8 +8630,8 @@
       <c r="B425">
         <v>62</v>
       </c>
-      <c r="C425" s="3">
-        <v>399254.77162170003</v>
+      <c r="C425" s="2">
+        <v>160901.108817136</v>
       </c>
       <c r="D425" s="1">
         <v>43953</v>
@@ -8645,8 +8647,8 @@
       <c r="B426">
         <v>63</v>
       </c>
-      <c r="C426" s="3">
-        <v>374913.06154010299</v>
+      <c r="C426" s="2">
+        <v>150783.88012838599</v>
       </c>
       <c r="D426" s="1">
         <v>43954</v>
@@ -8662,8 +8664,8 @@
       <c r="B427">
         <v>64</v>
       </c>
-      <c r="C427" s="3">
-        <v>351859.23911346501</v>
+      <c r="C427" s="2">
+        <v>141252.729262926</v>
       </c>
       <c r="D427" s="1">
         <v>43955</v>
@@ -8679,8 +8681,8 @@
       <c r="B428">
         <v>65</v>
       </c>
-      <c r="C428" s="3">
-        <v>330060.73575075797</v>
+      <c r="C428" s="2">
+        <v>132282.292924863</v>
       </c>
       <c r="D428" s="1">
         <v>43956</v>
@@ -8696,8 +8698,8 @@
       <c r="B429">
         <v>66</v>
       </c>
-      <c r="C429" s="3">
-        <v>309478.055984715</v>
+      <c r="C429" s="2">
+        <v>123846.627755939</v>
       </c>
       <c r="D429" s="1">
         <v>43957</v>
@@ -8713,8 +8715,8 @@
       <c r="B430">
         <v>67</v>
       </c>
-      <c r="C430" s="3">
-        <v>290066.89321388199</v>
+      <c r="C430" s="2">
+        <v>115919.650533472</v>
       </c>
       <c r="D430" s="1">
         <v>43958</v>
@@ -8730,8 +8732,8 @@
       <c r="B431">
         <v>68</v>
       </c>
-      <c r="C431" s="3">
-        <v>271779.78574215801</v>
+      <c r="C431" s="2">
+        <v>108475.473476311</v>
       </c>
       <c r="D431" s="1">
         <v>43959</v>
@@ -8747,8 +8749,8 @@
       <c r="B432">
         <v>69</v>
       </c>
-      <c r="C432" s="3">
-        <v>254567.41112660299</v>
+      <c r="C432" s="2">
+        <v>101488.65659368</v>
       </c>
       <c r="D432" s="1">
         <v>43960</v>
@@ -8764,8 +8766,8 @@
       <c r="B433">
         <v>70</v>
       </c>
-      <c r="C433" s="3">
-        <v>238379.59078498301</v>
+      <c r="C433" s="2">
+        <v>94934.394849829594</v>
       </c>
       <c r="D433" s="1">
         <v>43961</v>
@@ -8781,8 +8783,8 @@
       <c r="B434">
         <v>71</v>
       </c>
-      <c r="C434" s="3">
-        <v>223166.06381307999</v>
+      <c r="C434" s="2">
+        <v>88788.653688259001</v>
       </c>
       <c r="D434" s="1">
         <v>43962</v>
@@ -8798,8 +8800,8 @@
       <c r="B435">
         <v>72</v>
       </c>
-      <c r="C435" s="3">
-        <v>208877.07739103099</v>
+      <c r="C435" s="2">
+        <v>83028.2636876295</v>
       </c>
       <c r="D435" s="1">
         <v>43963</v>
@@ -8815,8 +8817,8 @@
       <c r="B436">
         <v>73</v>
       </c>
-      <c r="C436" s="3">
-        <v>195463.832172594</v>
+      <c r="C436" s="2">
+        <v>77630.983151259599</v>
       </c>
       <c r="D436" s="1">
         <v>43964</v>
@@ -8832,8 +8834,8 @@
       <c r="B437">
         <v>74</v>
       </c>
-      <c r="C437" s="3">
-        <v>182878.810935855</v>
+      <c r="C437" s="2">
+        <v>72575.535718468294</v>
       </c>
       <c r="D437" s="1">
         <v>43965</v>
@@ -8849,8 +8851,8 @@
       <c r="B438">
         <v>75</v>
       </c>
-      <c r="C438" s="3">
-        <v>171076.01697491601</v>
+      <c r="C438" s="2">
+        <v>67841.628440578294</v>
       </c>
       <c r="D438" s="1">
         <v>43966</v>
@@ -8866,8 +8868,8 @@
       <c r="B439">
         <v>76</v>
       </c>
-      <c r="C439" s="3">
-        <v>160011.13947719301</v>
+      <c r="C439" s="2">
+        <v>63409.954642759098</v>
       </c>
       <c r="D439" s="1">
         <v>43967</v>
@@ -8883,8 +8885,8 @@
       <c r="B440">
         <v>77</v>
       </c>
-      <c r="C440" s="3">
-        <v>149641.661906097</v>
+      <c r="C440" s="2">
+        <v>59262.185153847997</v>
       </c>
       <c r="D440" s="1">
         <v>43968</v>
@@ -8900,8 +8902,8 @@
       <c r="B441">
         <v>78</v>
       </c>
-      <c r="C441" s="3">
-        <v>139926.925455449</v>
+      <c r="C441" s="2">
+        <v>55380.950750800701</v>
       </c>
       <c r="D441" s="1">
         <v>43969</v>
@@ -8917,8 +8919,8 @@
       <c r="B442">
         <v>79</v>
       </c>
-      <c r="C442" s="3">
-        <v>130828.15754358799</v>
+      <c r="C442" s="2">
+        <v>51749.818022464497</v>
       </c>
       <c r="D442" s="1">
         <v>43970</v>
@@ -8934,8 +8936,8 @@
       <c r="B443">
         <v>80</v>
       </c>
-      <c r="C443" s="3">
-        <v>122308.473124863</v>
+      <c r="C443" s="2">
+        <v>48353.260401731597</v>
       </c>
       <c r="D443" s="1">
         <v>43971</v>
@@ -8951,8 +8953,8 @@
       <c r="B444">
         <v>81</v>
       </c>
-      <c r="C444" s="3">
-        <v>114332.85506520901</v>
+      <c r="C444" s="2">
+        <v>45176.625807837001</v>
       </c>
       <c r="D444" s="1">
         <v>43972</v>
@@ -8968,8 +8970,8 @@
       <c r="B445">
         <v>82</v>
       </c>
-      <c r="C445" s="3">
-        <v>106868.11859808301</v>
+      <c r="C445" s="2">
+        <v>42206.102054214702</v>
       </c>
       <c r="D445" s="1">
         <v>43973</v>
@@ -8985,8 +8987,8 @@
       <c r="B446">
         <v>83</v>
       </c>
-      <c r="C446" s="3">
-        <v>99882.863872905102</v>
+      <c r="C446" s="2">
+        <v>39428.680806265897</v>
       </c>
       <c r="D446" s="1">
         <v>43974</v>
@@ -9002,8 +9004,8 @@
       <c r="B447">
         <v>84</v>
       </c>
-      <c r="C447" s="3">
-        <v>93347.419975824901</v>
+      <c r="C447" s="2">
+        <v>36832.12097471</v>
       </c>
       <c r="D447" s="1">
         <v>43975</v>
@@ -9019,8 +9021,8 @@
       <c r="B448">
         <v>85</v>
       </c>
-      <c r="C448" s="3">
-        <v>87233.782790492201</v>
+      <c r="C448" s="2">
+        <v>34404.9118808809</v>
       </c>
       <c r="D448" s="1">
         <v>43976</v>
@@ -9036,8 +9038,8 @@
       <c r="B449">
         <v>86</v>
       </c>
-      <c r="C449" s="3">
-        <v>81515.548689883406</v>
+      <c r="C449" s="2">
+        <v>32136.236749885102</v>
       </c>
       <c r="D449" s="1">
         <v>43977</v>
@@ -9053,8 +9055,8 @@
       <c r="B450">
         <v>87</v>
       </c>
-      <c r="C450" s="3">
-        <v>76167.845911184297</v>
+      <c r="C450" s="2">
+        <v>30015.936806690101</v>
       </c>
       <c r="D450" s="1">
         <v>43978</v>
@@ -9070,8 +9072,8 @@
       <c r="B451">
         <v>88</v>
       </c>
-      <c r="C451" s="3">
-        <v>71167.264752813993</v>
+      <c r="C451" s="2">
+        <v>28034.4762393456</v>
       </c>
       <c r="D451" s="1">
         <v>43979</v>
@@ -9087,8 +9089,8 @@
       <c r="B452">
         <v>89</v>
       </c>
-      <c r="C452" s="3">
-        <v>66491.7875143774</v>
+      <c r="C452" s="2">
+        <v>26182.908216670599</v>
       </c>
       <c r="D452" s="1">
         <v>43980</v>
@@ -9104,8 +9106,8 @@
       <c r="B453">
         <v>90</v>
       </c>
-      <c r="C453" s="3">
-        <v>62120.719090181199</v>
+      <c r="C453" s="2">
+        <v>24452.842047543902</v>
       </c>
       <c r="D453" s="1">
         <v>43981</v>
@@ -9121,8 +9123,8 @@
       <c r="B454">
         <v>91</v>
       </c>
-      <c r="C454" s="3">
-        <v>58034.618797888797</v>
+      <c r="C454" s="2">
+        <v>22836.411615071302</v>
       </c>
       <c r="D454" s="1">
         <v>43982</v>
@@ -9138,8 +9140,8 @@
       <c r="B455">
         <v>92</v>
       </c>
-      <c r="C455" s="3">
-        <v>54215.233786568002</v>
+      <c r="C455" s="2">
+        <v>21326.2451478843</v>
       </c>
       <c r="D455" s="1">
         <v>43983</v>
@@ -9155,8 +9157,8 @@
       <c r="B456">
         <v>93</v>
       </c>
-      <c r="C456" s="3">
-        <v>50645.434458083299</v>
+      <c r="C456" s="2">
+        <v>19915.4363028148</v>
       </c>
       <c r="D456" s="1">
         <v>43984</v>
@@ -9172,8 +9174,8 @@
       <c r="B457">
         <v>94</v>
       </c>
-      <c r="C457" s="3">
-        <v>47309.152133990698</v>
+      <c r="C457" s="2">
+        <v>18597.5166204704</v>
       </c>
       <c r="D457" s="1">
         <v>43985</v>
@@ -9189,8 +9191,8 @@
       <c r="B458">
         <v>95</v>
       </c>
-      <c r="C458" s="3">
-        <v>44191.319095149302</v>
+      <c r="C458" s="2">
+        <v>17366.429339639501</v>
       </c>
       <c r="D458" s="1">
         <v>43986</v>
@@ -9206,8 +9208,8 @@
       <c r="B459">
         <v>96</v>
       </c>
-      <c r="C459" s="3">
-        <v>41277.810981457304</v>
+      <c r="C459" s="2">
+        <v>16216.504532687701</v>
       </c>
       <c r="D459" s="1">
         <v>43987</v>
@@ -9223,8 +9225,8 @@
       <c r="B460">
         <v>97</v>
       </c>
-      <c r="C460" s="3">
-        <v>38555.392087975903</v>
+      <c r="C460" s="2">
+        <v>15142.435519635201</v>
       </c>
       <c r="D460" s="1">
         <v>43988</v>
@@ -9240,8 +9242,8 @@
       <c r="B461">
         <v>98</v>
       </c>
-      <c r="C461" s="3">
-        <v>36011.6627897336</v>
+      <c r="C461" s="2">
+        <v>14139.256592592301</v>
       </c>
       <c r="D461" s="1">
         <v>43989</v>
@@ -9257,8 +9259,8 @@
       <c r="B462">
         <v>99</v>
       </c>
-      <c r="C462" s="3">
-        <v>33635.0098906657</v>
+      <c r="C462" s="2">
+        <v>13202.3219532804</v>
       </c>
       <c r="D462" s="1">
         <v>43990</v>
@@ -9274,8 +9276,8 @@
       <c r="B463">
         <v>100</v>
       </c>
-      <c r="C463" s="3">
-        <v>31414.5591844599</v>
+      <c r="C463" s="2">
+        <v>12327.2857966511</v>
       </c>
       <c r="D463" s="1">
         <v>43991</v>
@@ -9291,8 +9293,8 @@
       <c r="B464">
         <v>101</v>
       </c>
-      <c r="C464" s="3">
-        <v>29340.130747698498</v>
+      <c r="C464" s="2">
+        <v>11510.083582494801</v>
       </c>
       <c r="D464" s="1">
         <v>43992</v>
@@ -9308,8 +9310,8 @@
       <c r="B465">
         <v>102</v>
       </c>
-      <c r="C465" s="3">
-        <v>27402.196409201799</v>
+      <c r="C465" s="2">
+        <v>10746.914330739401</v>
       </c>
       <c r="D465" s="1">
         <v>43993</v>
@@ -9325,8 +9327,8 @@
       <c r="B466">
         <v>103</v>
       </c>
-      <c r="C466" s="3">
-        <v>25591.839700170302</v>
+      <c r="C466" s="2">
+        <v>10034.2240148851</v>
       </c>
       <c r="D466" s="1">
         <v>43994</v>
@@ -9342,8 +9344,8 @@
       <c r="B467">
         <v>104</v>
       </c>
-      <c r="C467" s="3">
-        <v>23900.717933246498</v>
+      <c r="C467" s="2">
+        <v>9368.6898811848205</v>
       </c>
       <c r="D467" s="1">
         <v>43995</v>
@@ -9359,8 +9361,8 @@
       <c r="B468">
         <v>105</v>
       </c>
-      <c r="C468" s="3">
-        <v>22321.026483026799</v>
+      <c r="C468" s="2">
+        <v>8747.2057616528691</v>
       </c>
       <c r="D468" s="1">
         <v>43996</v>
@@ -9376,8 +9378,8 @@
       <c r="B469">
         <v>106</v>
       </c>
-      <c r="C469" s="3">
-        <v>20845.465106734599</v>
+      <c r="C469" s="2">
+        <v>8166.86822636332</v>
       </c>
       <c r="D469" s="1">
         <v>43997</v>
@@ -9393,8 +9395,8 @@
       <c r="B470">
         <v>107</v>
       </c>
-      <c r="C470" s="3">
-        <v>19467.2062353002</v>
+      <c r="C470" s="2">
+        <v>7624.9636149442904</v>
       </c>
       <c r="D470" s="1">
         <v>43998</v>
@@ -9410,8 +9412,8 @@
       <c r="B471">
         <v>108</v>
       </c>
-      <c r="C471" s="3">
-        <v>18179.865124439999</v>
+      <c r="C471" s="2">
+        <v>7118.9558366348701</v>
       </c>
       <c r="D471" s="1">
         <v>43999</v>
@@ -9427,8 +9429,8 @@
       <c r="B472">
         <v>109</v>
       </c>
-      <c r="C472" s="3">
-        <v>16977.4717828145</v>
+      <c r="C472" s="2">
+        <v>6646.474951827</v>
       </c>
       <c r="D472" s="1">
         <v>44000</v>
@@ -9444,8 +9446,8 @@
       <c r="B473">
         <v>110</v>
       </c>
-      <c r="C473" s="3">
-        <v>15854.4446047772</v>
+      <c r="C473" s="2">
+        <v>6205.3064369411204</v>
       </c>
       <c r="D473" s="1">
         <v>44001</v>
@@ -9461,8 +9463,8 @@
       <c r="B474">
         <v>111</v>
       </c>
-      <c r="C474" s="3">
-        <v>14805.565583285101</v>
+      <c r="C474" s="2">
+        <v>5793.38113839367</v>
       </c>
       <c r="D474" s="1">
         <v>44002</v>
@@ -9478,8 +9480,8 @@
       <c r="B475">
         <v>112</v>
       </c>
-      <c r="C475" s="3">
-        <v>13825.957055094301</v>
+      <c r="C475" s="2">
+        <v>5408.7658460339799</v>
       </c>
       <c r="D475" s="1">
         <v>44003</v>
@@ -9495,8 +9497,8 @@
       <c r="B476">
         <v>113</v>
       </c>
-      <c r="C476" s="3">
-        <v>12911.0598422772</v>
+      <c r="C476" s="2">
+        <v>5049.6544697961299</v>
       </c>
       <c r="D476" s="1">
         <v>44004</v>
@@ -9512,8 +9514,8 @@
       <c r="B477">
         <v>114</v>
       </c>
-      <c r="C477" s="3">
-        <v>12056.612807342401</v>
+      <c r="C477" s="2">
+        <v>4714.3597682249601</v>
       </c>
       <c r="D477" s="1">
         <v>44005</v>
@@ -9529,8 +9531,8 @@
       <c r="B478">
         <v>115</v>
       </c>
-      <c r="C478" s="3">
-        <v>11258.633605777901</v>
+      <c r="C478" s="2">
+        <v>4401.30560822198</v>
       </c>
       <c r="D478" s="1">
         <v>44006</v>
@@ -9546,8 +9548,8 @@
       <c r="B479">
         <v>116</v>
       </c>
-      <c r="C479" s="3">
-        <v>10513.400712803401</v>
+      <c r="C479" s="2">
+        <v>4109.0197154248499</v>
       </c>
       <c r="D479" s="1">
         <v>44007</v>
@@ -9563,8 +9565,8 @@
       <c r="B480">
         <v>117</v>
       </c>
-      <c r="C480" s="3">
-        <v>9817.4365216190599</v>
+      <c r="C480" s="2">
+        <v>3836.1268887286101</v>
       </c>
       <c r="D480" s="1">
         <v>44008</v>
@@ -9580,8 +9582,8 @@
       <c r="B481">
         <v>118</v>
       </c>
-      <c r="C481" s="3">
-        <v>9167.4915465403101</v>
+      <c r="C481" s="2">
+        <v>3581.3426510688701</v>
       </c>
       <c r="D481" s="1">
         <v>44009</v>
@@ -9597,8 +9599,8 @@
       <c r="B482">
         <v>119</v>
       </c>
-      <c r="C482" s="3">
-        <v>8560.5296106884307</v>
+      <c r="C482" s="2">
+        <v>3343.4673086263401</v>
       </c>
       <c r="D482" s="1">
         <v>44010</v>
@@ -9614,8 +9616,8 @@
       <c r="B483">
         <v>120</v>
       </c>
-      <c r="C483" s="3">
-        <v>7993.7139655548599</v>
+      <c r="C483" s="2">
+        <v>3121.3803934552102</v>
       </c>
       <c r="D483" s="1">
         <v>44011</v>
@@ -9631,8 +9633,8 @@
       <c r="B484">
         <v>121</v>
       </c>
-      <c r="C484" s="3">
-        <v>7464.3943307274003</v>
+      <c r="C484" s="2">
+        <v>2914.0354630806</v>
       </c>
       <c r="D484" s="1">
         <v>44012</v>
@@ -9648,8 +9650,8 @@
       <c r="B485">
         <v>122</v>
       </c>
-      <c r="C485" s="3">
-        <v>6970.0947019392397</v>
+      <c r="C485" s="2">
+        <v>2720.4552417141399</v>
       </c>
       <c r="D485" s="1">
         <v>44013</v>
@@ -9665,8 +9667,8 @@
       <c r="B486">
         <v>123</v>
       </c>
-      <c r="C486" s="3">
-        <v>6508.5020217832098</v>
+      <c r="C486" s="2">
+        <v>2539.7270729782199</v>
       </c>
       <c r="D486" s="1">
         <v>44014</v>
@@ -9682,8 +9684,8 @@
       <c r="B487">
         <v>124</v>
       </c>
-      <c r="C487" s="3">
-        <v>6077.4554812339102</v>
+      <c r="C487" s="2">
+        <v>2370.9986644471801</v>
       </c>
       <c r="D487" s="1">
         <v>44015</v>
@@ -9699,8 +9701,8 @@
       <c r="B488">
         <v>125</v>
       </c>
-      <c r="C488" s="3">
-        <v>5674.9366173174403</v>
+      <c r="C488" s="2">
+        <v>2213.4741210358402</v>
       </c>
       <c r="D488" s="1">
         <v>44016</v>
@@ -9716,8 +9718,8 @@
       <c r="B489">
         <v>126</v>
       </c>
-      <c r="C489" s="3">
-        <v>5299.0599401499703</v>
+      <c r="C489" s="2">
+        <v>2066.4102237624702</v>
       </c>
       <c r="D489" s="1">
         <v>44017</v>
@@ -9733,8 +9735,8 @@
       <c r="B490">
         <v>127</v>
       </c>
-      <c r="C490" s="3">
-        <v>4948.0642712577001</v>
+      <c r="C490" s="2">
+        <v>1929.1129607001201</v>
       </c>
       <c r="D490" s="1">
         <v>44018</v>
@@ -9750,8 +9752,8 @@
       <c r="B491">
         <v>128</v>
       </c>
-      <c r="C491" s="3">
-        <v>4620.3045472613603</v>
+      <c r="C491" s="2">
+        <v>1800.93428353784</v>
       </c>
       <c r="D491" s="1">
         <v>44019</v>
@@ -9767,8 +9769,8 @@
       <c r="B492">
         <v>129</v>
       </c>
-      <c r="C492" s="3">
-        <v>4314.24423808958</v>
+      <c r="C492" s="2">
+        <v>1681.2690672313399</v>
       </c>
       <c r="D492" s="1">
         <v>44020</v>
@@ -9784,8 +9786,8 @@
       <c r="B493">
         <v>130</v>
       </c>
-      <c r="C493" s="3">
-        <v>4028.44819033879</v>
+      <c r="C493" s="2">
+        <v>1569.5522844417901</v>
       </c>
       <c r="D493" s="1">
         <v>44021</v>
@@ -9801,8 +9803,8 @@
       <c r="B494">
         <v>131</v>
       </c>
-      <c r="C494" s="3">
-        <v>3761.5759872988901</v>
+      <c r="C494" s="2">
+        <v>1465.2563517613901</v>
       </c>
       <c r="D494" s="1">
         <v>44022</v>
@@ -9818,8 +9820,8 @@
       <c r="B495">
         <v>132</v>
       </c>
-      <c r="C495" s="3">
-        <v>3512.3757077526898</v>
+      <c r="C495" s="2">
+        <v>1367.8886556188299</v>
       </c>
       <c r="D495" s="1">
         <v>44023</v>
@@ -9835,8 +9837,8 @@
       <c r="B496">
         <v>133</v>
       </c>
-      <c r="C496" s="3">
-        <v>3279.6781087593199</v>
+      <c r="C496" s="2">
+        <v>1276.98924460336</v>
       </c>
       <c r="D496" s="1">
         <v>44024</v>
@@ -9852,8 +9854,8 @@
       <c r="B497">
         <v>134</v>
       </c>
-      <c r="C497" s="3">
-        <v>3062.3911876093598</v>
+      <c r="C497" s="2">
+        <v>1192.1286629994399</v>
       </c>
       <c r="D497" s="1">
         <v>44025</v>
@@ -9869,8 +9871,8 @@
       <c r="B498">
         <v>135</v>
       </c>
-      <c r="C498" s="3">
-        <v>2859.4950850083501</v>
+      <c r="C498" s="2">
+        <v>1112.9059392556101</v>
       </c>
       <c r="D498" s="1">
         <v>44026</v>
@@ -9886,8 +9888,8 @@
       <c r="B499">
         <v>136</v>
       </c>
-      <c r="C499" s="3">
-        <v>2670.0373496143502</v>
+      <c r="C499" s="2">
+        <v>1038.9466986165901</v>
       </c>
       <c r="D499" s="1">
         <v>44027</v>
@@ -9903,8 +9905,8 @@
       <c r="B500">
         <v>137</v>
       </c>
-      <c r="C500" s="3">
-        <v>2493.1284733512598</v>
+      <c r="C500" s="2">
+        <v>969.90139997650499</v>
       </c>
       <c r="D500" s="1">
         <v>44028</v>
@@ -9920,8 +9922,8 @@
       <c r="B501">
         <v>138</v>
       </c>
-      <c r="C501" s="3">
-        <v>2327.9377674012298</v>
+      <c r="C501" s="2">
+        <v>905.44369675568703</v>
       </c>
       <c r="D501" s="1">
         <v>44029</v>
@@ -9937,8 +9939,8 @@
       <c r="B502">
         <v>139</v>
       </c>
-      <c r="C502" s="3">
-        <v>2173.6894555674298</v>
+      <c r="C502" s="2">
+        <v>845.26889550615397</v>
       </c>
       <c r="D502" s="1">
         <v>44030</v>
@@ -9954,8 +9956,8 @@
       <c r="B503">
         <v>140</v>
       </c>
-      <c r="C503" s="3">
-        <v>2029.6590784606401</v>
+      <c r="C503" s="2">
+        <v>789.09252468873694</v>
       </c>
       <c r="D503" s="1">
         <v>44031</v>
@@ -9971,8 +9973,8 @@
       <c r="B504">
         <v>141</v>
       </c>
-      <c r="C504" s="3">
-        <v>1895.1700815883</v>
+      <c r="C504" s="2">
+        <v>736.64899483295699</v>
       </c>
       <c r="D504" s="1">
         <v>44032</v>
@@ -9988,8 +9990,8 @@
       <c r="B505">
         <v>142</v>
       </c>
-      <c r="C505" s="3">
-        <v>1769.59067548385</v>
+      <c r="C505" s="2">
+        <v>687.69034341984104</v>
       </c>
       <c r="D505" s="1">
         <v>44033</v>
@@ -10005,8 +10007,8 @@
       <c r="B506">
         <v>143</v>
       </c>
-      <c r="C506" s="3">
-        <v>1652.3308606998601</v>
+      <c r="C506" s="2">
+        <v>641.98507133850296</v>
       </c>
       <c r="D506" s="1">
         <v>44034</v>
@@ -10022,8 +10024,8 @@
       <c r="B507">
         <v>144</v>
       </c>
-      <c r="C507" s="3">
-        <v>1542.839682993</v>
+      <c r="C507" s="2">
+        <v>599.31704818942603</v>
       </c>
       <c r="D507" s="1">
         <v>44035</v>
@@ -10039,8 +10041,8 @@
       <c r="B508">
         <v>145</v>
       </c>
-      <c r="C508" s="3">
-        <v>1440.60264242687</v>
+      <c r="C508" s="2">
+        <v>559.48449248469001</v>
       </c>
       <c r="D508" s="1">
         <v>44036</v>
@@ -10056,8 +10058,8 @@
       <c r="B509">
         <v>146</v>
       </c>
-      <c r="C509" s="3">
-        <v>1345.1392921331601</v>
+      <c r="C509" s="2">
+        <v>522.29902141319599</v>
       </c>
       <c r="D509" s="1">
         <v>44037</v>
@@ -10073,8 +10075,8 @@
       <c r="B510">
         <v>147</v>
       </c>
-      <c r="C510" s="3">
-        <v>1256.00098383727</v>
+      <c r="C510" s="2">
+        <v>487.58476324665901</v>
       </c>
       <c r="D510" s="1">
         <v>44038</v>
@@ -10090,8 +10092,8 @@
       <c r="B511">
         <v>148</v>
       </c>
-      <c r="C511" s="3">
-        <v>1172.76876627242</v>
+      <c r="C511" s="2">
+        <v>455.17752665608498</v>
       </c>
       <c r="D511" s="1">
         <v>44039</v>
@@ -10107,8 +10109,8 @@
       <c r="B512">
         <v>149</v>
       </c>
-      <c r="C512" s="3">
-        <v>1095.0514244942201</v>
+      <c r="C512" s="2">
+        <v>424.92402305794701</v>
       </c>
       <c r="D512" s="1">
         <v>44040</v>
@@ -10124,8 +10126,8 @@
       <c r="B513">
         <v>150</v>
       </c>
-      <c r="C513" s="3">
-        <v>1022.4836402490899</v>
+      <c r="C513" s="2">
+        <v>396.68114505268198</v>
       </c>
       <c r="D513" s="1">
         <v>44041</v>
@@ -10141,8 +10143,8 @@
       <c r="B514">
         <v>151</v>
       </c>
-      <c r="C514" s="3">
-        <v>954.72428717069602</v>
+      <c r="C514" s="2">
+        <v>370.31529132688701</v>
       </c>
       <c r="D514" s="1">
         <v>44042</v>
@@ -10158,8 +10160,8 @@
       <c r="B515">
         <v>152</v>
       </c>
-      <c r="C515" s="3">
-        <v>891.45482094441797</v>
+      <c r="C515" s="2">
+        <v>345.70173551445902</v>
       </c>
       <c r="D515" s="1">
         <v>44043</v>
@@ -10175,8 +10177,8 @@
       <c r="B516">
         <v>153</v>
       </c>
-      <c r="C516" s="3">
-        <v>832.37779609436097</v>
+      <c r="C516" s="2">
+        <v>322.72403592584402</v>
       </c>
       <c r="D516" s="1">
         <v>44044</v>
@@ -10192,8 +10194,8 @@
       <c r="B517">
         <v>154</v>
       </c>
-      <c r="C517" s="3">
-        <v>777.21545909214797</v>
+      <c r="C517" s="2">
+        <v>301.27348658408602</v>
       </c>
       <c r="D517" s="1">
         <v>44045</v>
@@ -10209,8 +10211,8 @@
       <c r="B518">
         <v>155</v>
       </c>
-      <c r="C518" s="3">
-        <v>725.70845583944401</v>
+      <c r="C518" s="2">
+        <v>281.24860310732902</v>
       </c>
       <c r="D518" s="1">
         <v>44046</v>
@@ -10226,8 +10228,8 @@
       <c r="B519">
         <v>156</v>
       </c>
-      <c r="C519" s="3">
-        <v>677.61460447208196</v>
+      <c r="C519" s="2">
+        <v>262.554643144132</v>
       </c>
       <c r="D519" s="1">
         <v>44047</v>
@@ -10243,8 +10245,8 @@
       <c r="B520">
         <v>157</v>
       </c>
-      <c r="C520" s="3">
-        <v>632.70776716304101</v>
+      <c r="C520" s="2">
+        <v>245.10315891776699</v>
       </c>
       <c r="D520" s="1">
         <v>44048</v>
@@ -10260,8 +10262,8 @@
       <c r="B521">
         <v>158</v>
       </c>
-      <c r="C521" s="3">
-        <v>590.77678127404602</v>
+      <c r="C521" s="2">
+        <v>228.81157958402201</v>
       </c>
       <c r="D521" s="1">
         <v>44049</v>
@@ -10277,8 +10279,8 @@
       <c r="B522">
         <v>159</v>
       </c>
-      <c r="C522" s="3">
-        <v>551.62447343229803</v>
+      <c r="C522" s="2">
+        <v>213.602820715837</v>
       </c>
       <c r="D522" s="1">
         <v>44050</v>
@@ -10294,8 +10296,8 @@
       <c r="B523">
         <v>160</v>
       </c>
-      <c r="C523" s="3">
-        <v>515.06672958221304</v>
+      <c r="C523" s="2">
+        <v>199.40491916283099</v>
       </c>
       <c r="D523" s="1">
         <v>44051</v>
@@ -10305,6 +10307,2726 @@
       </c>
       <c r="F523" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B524">
+        <v>1</v>
+      </c>
+      <c r="C524" s="2">
+        <v>151</v>
+      </c>
+      <c r="D524" s="1">
+        <v>43904</v>
+      </c>
+      <c r="E524" t="s">
+        <v>10</v>
+      </c>
+      <c r="F524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B525">
+        <v>2</v>
+      </c>
+      <c r="C525" s="2">
+        <v>185.27698111871001</v>
+      </c>
+      <c r="D525" s="1">
+        <v>43905</v>
+      </c>
+      <c r="E525" t="s">
+        <v>10</v>
+      </c>
+      <c r="F525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B526">
+        <v>3</v>
+      </c>
+      <c r="C526" s="2">
+        <v>227.334559537465</v>
+      </c>
+      <c r="D526" s="1">
+        <v>43906</v>
+      </c>
+      <c r="E526" t="s">
+        <v>10</v>
+      </c>
+      <c r="F526" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B527">
+        <v>4</v>
+      </c>
+      <c r="C527" s="2">
+        <v>278.938730206461</v>
+      </c>
+      <c r="D527" s="1">
+        <v>43907</v>
+      </c>
+      <c r="E527" t="s">
+        <v>10</v>
+      </c>
+      <c r="F527" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B528">
+        <v>5</v>
+      </c>
+      <c r="C528" s="2">
+        <v>342.25625419399802</v>
+      </c>
+      <c r="D528" s="1">
+        <v>43908</v>
+      </c>
+      <c r="E528" t="s">
+        <v>10</v>
+      </c>
+      <c r="F528" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B529">
+        <v>6</v>
+      </c>
+      <c r="C529" s="2">
+        <v>419.94556659621202</v>
+      </c>
+      <c r="D529" s="1">
+        <v>43909</v>
+      </c>
+      <c r="E529" t="s">
+        <v>10</v>
+      </c>
+      <c r="F529" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B530">
+        <v>7</v>
+      </c>
+      <c r="C530" s="2">
+        <v>515.26830314665801</v>
+      </c>
+      <c r="D530" s="1">
+        <v>43910</v>
+      </c>
+      <c r="E530" t="s">
+        <v>10</v>
+      </c>
+      <c r="F530" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B531">
+        <v>8</v>
+      </c>
+      <c r="C531" s="2">
+        <v>632.22607619729501</v>
+      </c>
+      <c r="D531" s="1">
+        <v>43911</v>
+      </c>
+      <c r="E531" t="s">
+        <v>10</v>
+      </c>
+      <c r="F531" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B532">
+        <v>9</v>
+      </c>
+      <c r="C532" s="2">
+        <v>775.72823978783595</v>
+      </c>
+      <c r="D532" s="1">
+        <v>43912</v>
+      </c>
+      <c r="E532" t="s">
+        <v>10</v>
+      </c>
+      <c r="F532" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B533">
+        <v>10</v>
+      </c>
+      <c r="C533" s="2">
+        <v>951.79762576343296</v>
+      </c>
+      <c r="D533" s="1">
+        <v>43913</v>
+      </c>
+      <c r="E533" t="s">
+        <v>10</v>
+      </c>
+      <c r="F533" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B534">
+        <v>11</v>
+      </c>
+      <c r="C534" s="2">
+        <v>1167.8228099984899</v>
+      </c>
+      <c r="D534" s="1">
+        <v>43914</v>
+      </c>
+      <c r="E534" t="s">
+        <v>10</v>
+      </c>
+      <c r="F534" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B535">
+        <v>12</v>
+      </c>
+      <c r="C535" s="2">
+        <v>1432.86740698482</v>
+      </c>
+      <c r="D535" s="1">
+        <v>43915</v>
+      </c>
+      <c r="E535" t="s">
+        <v>10</v>
+      </c>
+      <c r="F535" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B536">
+        <v>13</v>
+      </c>
+      <c r="C536" s="2">
+        <v>1758.0491877612401</v>
+      </c>
+      <c r="D536" s="1">
+        <v>43916</v>
+      </c>
+      <c r="E536" t="s">
+        <v>10</v>
+      </c>
+      <c r="F536" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B537">
+        <v>14</v>
+      </c>
+      <c r="C537" s="2">
+        <v>2157.0047046854202</v>
+      </c>
+      <c r="D537" s="1">
+        <v>43917</v>
+      </c>
+      <c r="E537" t="s">
+        <v>10</v>
+      </c>
+      <c r="F537" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B538">
+        <v>15</v>
+      </c>
+      <c r="C538" s="2">
+        <v>2646.4585326961601</v>
+      </c>
+      <c r="D538" s="1">
+        <v>43918</v>
+      </c>
+      <c r="E538" t="s">
+        <v>10</v>
+      </c>
+      <c r="F538" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B539">
+        <v>16</v>
+      </c>
+      <c r="C539" s="2">
+        <v>3246.9204439188502</v>
+      </c>
+      <c r="D539" s="1">
+        <v>43919</v>
+      </c>
+      <c r="E539" t="s">
+        <v>10</v>
+      </c>
+      <c r="F539" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B540">
+        <v>17</v>
+      </c>
+      <c r="C540" s="2">
+        <v>3983.5389318228299</v>
+      </c>
+      <c r="D540" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E540" t="s">
+        <v>10</v>
+      </c>
+      <c r="F540" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B541">
+        <v>18</v>
+      </c>
+      <c r="C541" s="2">
+        <v>4887.1455885720497</v>
+      </c>
+      <c r="D541" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E541" t="s">
+        <v>10</v>
+      </c>
+      <c r="F541" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B542">
+        <v>19</v>
+      </c>
+      <c r="C542" s="2">
+        <v>5995.5321883242004</v>
+      </c>
+      <c r="D542" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E542" t="s">
+        <v>10</v>
+      </c>
+      <c r="F542" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B543">
+        <v>20</v>
+      </c>
+      <c r="C543" s="2">
+        <v>7355.0111502646796</v>
+      </c>
+      <c r="D543" s="1">
+        <v>43923</v>
+      </c>
+      <c r="E543" t="s">
+        <v>10</v>
+      </c>
+      <c r="F543" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B544">
+        <v>21</v>
+      </c>
+      <c r="C544" s="2">
+        <v>9022.3203928186304</v>
+      </c>
+      <c r="D544" s="1">
+        <v>43924</v>
+      </c>
+      <c r="E544" t="s">
+        <v>10</v>
+      </c>
+      <c r="F544" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B545">
+        <v>22</v>
+      </c>
+      <c r="C545" s="2">
+        <v>11066.945787103799</v>
+      </c>
+      <c r="D545" s="1">
+        <v>43925</v>
+      </c>
+      <c r="E545" t="s">
+        <v>10</v>
+      </c>
+      <c r="F545" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B546">
+        <v>23</v>
+      </c>
+      <c r="C546" s="2">
+        <v>13573.948673737499</v>
+      </c>
+      <c r="D546" s="1">
+        <v>43926</v>
+      </c>
+      <c r="E546" t="s">
+        <v>10</v>
+      </c>
+      <c r="F546" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B547">
+        <v>24</v>
+      </c>
+      <c r="C547" s="2">
+        <v>16647.401965560999</v>
+      </c>
+      <c r="D547" s="1">
+        <v>43927</v>
+      </c>
+      <c r="E547" t="s">
+        <v>10</v>
+      </c>
+      <c r="F547" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B548">
+        <v>25</v>
+      </c>
+      <c r="C548" s="2">
+        <v>20414.5563482875</v>
+      </c>
+      <c r="D548" s="1">
+        <v>43928</v>
+      </c>
+      <c r="E548" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B549">
+        <v>26</v>
+      </c>
+      <c r="C549" s="2">
+        <v>25030.8774592837</v>
+      </c>
+      <c r="D549" s="1">
+        <v>43929</v>
+      </c>
+      <c r="E549" t="s">
+        <v>10</v>
+      </c>
+      <c r="F549" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B550">
+        <v>27</v>
+      </c>
+      <c r="C550" s="2">
+        <v>30686.115270308601</v>
+      </c>
+      <c r="D550" s="1">
+        <v>43930</v>
+      </c>
+      <c r="E550" t="s">
+        <v>10</v>
+      </c>
+      <c r="F550" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B551">
+        <v>28</v>
+      </c>
+      <c r="C551" s="2">
+        <v>37611.584023423296</v>
+      </c>
+      <c r="D551" s="1">
+        <v>43931</v>
+      </c>
+      <c r="E551" t="s">
+        <v>10</v>
+      </c>
+      <c r="F551" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B552">
+        <v>29</v>
+      </c>
+      <c r="C552" s="2">
+        <v>46088.846497881401</v>
+      </c>
+      <c r="D552" s="1">
+        <v>43932</v>
+      </c>
+      <c r="E552" t="s">
+        <v>10</v>
+      </c>
+      <c r="F552" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B553">
+        <v>30</v>
+      </c>
+      <c r="C553" s="2">
+        <v>56460.000474390799</v>
+      </c>
+      <c r="D553" s="1">
+        <v>43933</v>
+      </c>
+      <c r="E553" t="s">
+        <v>10</v>
+      </c>
+      <c r="F553" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B554">
+        <v>31</v>
+      </c>
+      <c r="C554" s="2">
+        <v>69139.752646364897</v>
+      </c>
+      <c r="D554" s="1">
+        <v>43934</v>
+      </c>
+      <c r="E554" t="s">
+        <v>10</v>
+      </c>
+      <c r="F554" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B555">
+        <v>32</v>
+      </c>
+      <c r="C555" s="2">
+        <v>84629.424979910196</v>
+      </c>
+      <c r="D555" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E555" t="s">
+        <v>10</v>
+      </c>
+      <c r="F555" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B556">
+        <v>33</v>
+      </c>
+      <c r="C556" s="2">
+        <v>103532.951586617</v>
+      </c>
+      <c r="D556" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E556" t="s">
+        <v>10</v>
+      </c>
+      <c r="F556" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B557">
+        <v>34</v>
+      </c>
+      <c r="C557" s="2">
+        <v>126574.76854458101</v>
+      </c>
+      <c r="D557" s="1">
+        <v>43937</v>
+      </c>
+      <c r="E557" t="s">
+        <v>10</v>
+      </c>
+      <c r="F557" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B558">
+        <v>35</v>
+      </c>
+      <c r="C558" s="2">
+        <v>154619.23982207201</v>
+      </c>
+      <c r="D558" s="1">
+        <v>43938</v>
+      </c>
+      <c r="E558" t="s">
+        <v>10</v>
+      </c>
+      <c r="F558" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B559">
+        <v>36</v>
+      </c>
+      <c r="C559" s="2">
+        <v>188690.857744585</v>
+      </c>
+      <c r="D559" s="1">
+        <v>43939</v>
+      </c>
+      <c r="E559" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B560">
+        <v>37</v>
+      </c>
+      <c r="C560" s="2">
+        <v>229993.846909443</v>
+      </c>
+      <c r="D560" s="1">
+        <v>43940</v>
+      </c>
+      <c r="E560" t="s">
+        <v>10</v>
+      </c>
+      <c r="F560" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B561">
+        <v>38</v>
+      </c>
+      <c r="C561" s="2">
+        <v>279928.94103428698</v>
+      </c>
+      <c r="D561" s="1">
+        <v>43941</v>
+      </c>
+      <c r="E561" t="s">
+        <v>10</v>
+      </c>
+      <c r="F561" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B562">
+        <v>39</v>
+      </c>
+      <c r="C562" s="2">
+        <v>340103.90246483398</v>
+      </c>
+      <c r="D562" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E562" t="s">
+        <v>10</v>
+      </c>
+      <c r="F562" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B563">
+        <v>40</v>
+      </c>
+      <c r="C563" s="2">
+        <v>412332.83027801302</v>
+      </c>
+      <c r="D563" s="1">
+        <v>43943</v>
+      </c>
+      <c r="E563" t="s">
+        <v>10</v>
+      </c>
+      <c r="F563" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B564">
+        <v>41</v>
+      </c>
+      <c r="C564" s="2">
+        <v>498617.44022772199</v>
+      </c>
+      <c r="D564" s="1">
+        <v>43944</v>
+      </c>
+      <c r="E564" t="s">
+        <v>10</v>
+      </c>
+      <c r="F564" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B565">
+        <v>42</v>
+      </c>
+      <c r="C565" s="2">
+        <v>601101.50636236696</v>
+      </c>
+      <c r="D565" s="1">
+        <v>43945</v>
+      </c>
+      <c r="E565" t="s">
+        <v>10</v>
+      </c>
+      <c r="F565" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B566">
+        <v>43</v>
+      </c>
+      <c r="C566" s="2">
+        <v>721987.89125123096</v>
+      </c>
+      <c r="D566" s="1">
+        <v>43946</v>
+      </c>
+      <c r="E566" t="s">
+        <v>10</v>
+      </c>
+      <c r="F566" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B567">
+        <v>44</v>
+      </c>
+      <c r="C567" s="2">
+        <v>863406.80001258105</v>
+      </c>
+      <c r="D567" s="1">
+        <v>43947</v>
+      </c>
+      <c r="E567" t="s">
+        <v>10</v>
+      </c>
+      <c r="F567" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B568">
+        <v>45</v>
+      </c>
+      <c r="C568" s="2">
+        <v>1027225.17341674</v>
+      </c>
+      <c r="D568" s="1">
+        <v>43948</v>
+      </c>
+      <c r="E568" t="s">
+        <v>10</v>
+      </c>
+      <c r="F568" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B569">
+        <v>46</v>
+      </c>
+      <c r="C569" s="2">
+        <v>1214791.98845416</v>
+      </c>
+      <c r="D569" s="1">
+        <v>43949</v>
+      </c>
+      <c r="E569" t="s">
+        <v>10</v>
+      </c>
+      <c r="F569" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B570">
+        <v>47</v>
+      </c>
+      <c r="C570" s="2">
+        <v>1426624.21156145</v>
+      </c>
+      <c r="D570" s="1">
+        <v>43950</v>
+      </c>
+      <c r="E570" t="s">
+        <v>10</v>
+      </c>
+      <c r="F570" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B571">
+        <v>48</v>
+      </c>
+      <c r="C571" s="2">
+        <v>1662054.0846541</v>
+      </c>
+      <c r="D571" s="1">
+        <v>43951</v>
+      </c>
+      <c r="E571" t="s">
+        <v>10</v>
+      </c>
+      <c r="F571" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B572">
+        <v>49</v>
+      </c>
+      <c r="C572" s="2">
+        <v>1918879.5633429301</v>
+      </c>
+      <c r="D572" s="1">
+        <v>43952</v>
+      </c>
+      <c r="E572" t="s">
+        <v>10</v>
+      </c>
+      <c r="F572" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B573">
+        <v>50</v>
+      </c>
+      <c r="C573" s="2">
+        <v>2193081.9559883098</v>
+      </c>
+      <c r="D573" s="1">
+        <v>43953</v>
+      </c>
+      <c r="E573" t="s">
+        <v>10</v>
+      </c>
+      <c r="F573" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B574">
+        <v>51</v>
+      </c>
+      <c r="C574" s="2">
+        <v>2478690.5955916001</v>
+      </c>
+      <c r="D574" s="1">
+        <v>43954</v>
+      </c>
+      <c r="E574" t="s">
+        <v>10</v>
+      </c>
+      <c r="F574" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B575">
+        <v>52</v>
+      </c>
+      <c r="C575" s="2">
+        <v>2767873.5127068702</v>
+      </c>
+      <c r="D575" s="1">
+        <v>43955</v>
+      </c>
+      <c r="E575" t="s">
+        <v>10</v>
+      </c>
+      <c r="F575" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B576">
+        <v>53</v>
+      </c>
+      <c r="C576" s="2">
+        <v>3051306.83453253</v>
+      </c>
+      <c r="D576" s="1">
+        <v>43956</v>
+      </c>
+      <c r="E576" t="s">
+        <v>10</v>
+      </c>
+      <c r="F576" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B577">
+        <v>54</v>
+      </c>
+      <c r="C577" s="2">
+        <v>3318823.02820274</v>
+      </c>
+      <c r="D577" s="1">
+        <v>43957</v>
+      </c>
+      <c r="E577" t="s">
+        <v>10</v>
+      </c>
+      <c r="F577" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B578">
+        <v>55</v>
+      </c>
+      <c r="C578" s="2">
+        <v>3560269.30084361</v>
+      </c>
+      <c r="D578" s="1">
+        <v>43958</v>
+      </c>
+      <c r="E578" t="s">
+        <v>10</v>
+      </c>
+      <c r="F578" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B579">
+        <v>56</v>
+      </c>
+      <c r="C579" s="2">
+        <v>3766445.0312000499</v>
+      </c>
+      <c r="D579" s="1">
+        <v>43959</v>
+      </c>
+      <c r="E579" t="s">
+        <v>10</v>
+      </c>
+      <c r="F579" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B580">
+        <v>57</v>
+      </c>
+      <c r="C580" s="2">
+        <v>3929955.3563509299</v>
+      </c>
+      <c r="D580" s="1">
+        <v>43960</v>
+      </c>
+      <c r="E580" t="s">
+        <v>10</v>
+      </c>
+      <c r="F580" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B581">
+        <v>58</v>
+      </c>
+      <c r="C581" s="2">
+        <v>4045831.7112644301</v>
+      </c>
+      <c r="D581" s="1">
+        <v>43961</v>
+      </c>
+      <c r="E581" t="s">
+        <v>10</v>
+      </c>
+      <c r="F581" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B582">
+        <v>59</v>
+      </c>
+      <c r="C582" s="2">
+        <v>4111826.2293100199</v>
+      </c>
+      <c r="D582" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E582" t="s">
+        <v>10</v>
+      </c>
+      <c r="F582" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B583">
+        <v>60</v>
+      </c>
+      <c r="C583" s="2">
+        <v>4128363.5673110299</v>
+      </c>
+      <c r="D583" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E583" t="s">
+        <v>10</v>
+      </c>
+      <c r="F583" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B584">
+        <v>61</v>
+      </c>
+      <c r="C584" s="2">
+        <v>4098204.8558072299</v>
+      </c>
+      <c r="D584" s="1">
+        <v>43964</v>
+      </c>
+      <c r="E584" t="s">
+        <v>10</v>
+      </c>
+      <c r="F584" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B585">
+        <v>62</v>
+      </c>
+      <c r="C585" s="2">
+        <v>4025923.04171097</v>
+      </c>
+      <c r="D585" s="1">
+        <v>43965</v>
+      </c>
+      <c r="E585" t="s">
+        <v>10</v>
+      </c>
+      <c r="F585" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B586">
+        <v>63</v>
+      </c>
+      <c r="C586" s="2">
+        <v>3917300.1878935099</v>
+      </c>
+      <c r="D586" s="1">
+        <v>43966</v>
+      </c>
+      <c r="E586" t="s">
+        <v>10</v>
+      </c>
+      <c r="F586" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B587">
+        <v>64</v>
+      </c>
+      <c r="C587" s="2">
+        <v>3778742.0453973701</v>
+      </c>
+      <c r="D587" s="1">
+        <v>43967</v>
+      </c>
+      <c r="E587" t="s">
+        <v>10</v>
+      </c>
+      <c r="F587" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B588">
+        <v>65</v>
+      </c>
+      <c r="C588" s="2">
+        <v>3616774.8753338102</v>
+      </c>
+      <c r="D588" s="1">
+        <v>43968</v>
+      </c>
+      <c r="E588" t="s">
+        <v>10</v>
+      </c>
+      <c r="F588" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B589">
+        <v>66</v>
+      </c>
+      <c r="C589" s="2">
+        <v>3437657.36006311</v>
+      </c>
+      <c r="D589" s="1">
+        <v>43969</v>
+      </c>
+      <c r="E589" t="s">
+        <v>10</v>
+      </c>
+      <c r="F589" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B590">
+        <v>67</v>
+      </c>
+      <c r="C590" s="2">
+        <v>3247113.7227053898</v>
+      </c>
+      <c r="D590" s="1">
+        <v>43970</v>
+      </c>
+      <c r="E590" t="s">
+        <v>10</v>
+      </c>
+      <c r="F590" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B591">
+        <v>68</v>
+      </c>
+      <c r="C591" s="2">
+        <v>3050176.4661069098</v>
+      </c>
+      <c r="D591" s="1">
+        <v>43971</v>
+      </c>
+      <c r="E591" t="s">
+        <v>10</v>
+      </c>
+      <c r="F591" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B592">
+        <v>69</v>
+      </c>
+      <c r="C592" s="2">
+        <v>2851118.1478367201</v>
+      </c>
+      <c r="D592" s="1">
+        <v>43972</v>
+      </c>
+      <c r="E592" t="s">
+        <v>10</v>
+      </c>
+      <c r="F592" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B593">
+        <v>70</v>
+      </c>
+      <c r="C593" s="2">
+        <v>2653449.0798637201</v>
+      </c>
+      <c r="D593" s="1">
+        <v>43973</v>
+      </c>
+      <c r="E593" t="s">
+        <v>10</v>
+      </c>
+      <c r="F593" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B594">
+        <v>71</v>
+      </c>
+      <c r="C594" s="2">
+        <v>2459959.49490747</v>
+      </c>
+      <c r="D594" s="1">
+        <v>43974</v>
+      </c>
+      <c r="E594" t="s">
+        <v>10</v>
+      </c>
+      <c r="F594" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B595">
+        <v>72</v>
+      </c>
+      <c r="C595" s="2">
+        <v>2272788.3900317801</v>
+      </c>
+      <c r="D595" s="1">
+        <v>43975</v>
+      </c>
+      <c r="E595" t="s">
+        <v>10</v>
+      </c>
+      <c r="F595" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B596">
+        <v>73</v>
+      </c>
+      <c r="C596" s="2">
+        <v>2093505.4485051299</v>
+      </c>
+      <c r="D596" s="1">
+        <v>43976</v>
+      </c>
+      <c r="E596" t="s">
+        <v>10</v>
+      </c>
+      <c r="F596" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B597">
+        <v>74</v>
+      </c>
+      <c r="C597" s="2">
+        <v>1923196.45057365</v>
+      </c>
+      <c r="D597" s="1">
+        <v>43977</v>
+      </c>
+      <c r="E597" t="s">
+        <v>10</v>
+      </c>
+      <c r="F597" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B598">
+        <v>75</v>
+      </c>
+      <c r="C598" s="2">
+        <v>1762545.8251336201</v>
+      </c>
+      <c r="D598" s="1">
+        <v>43978</v>
+      </c>
+      <c r="E598" t="s">
+        <v>10</v>
+      </c>
+      <c r="F598" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B599">
+        <v>76</v>
+      </c>
+      <c r="C599" s="2">
+        <v>1611912.61756264</v>
+      </c>
+      <c r="D599" s="1">
+        <v>43979</v>
+      </c>
+      <c r="E599" t="s">
+        <v>10</v>
+      </c>
+      <c r="F599" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B600">
+        <v>77</v>
+      </c>
+      <c r="C600" s="2">
+        <v>1471397.9415778201</v>
+      </c>
+      <c r="D600" s="1">
+        <v>43980</v>
+      </c>
+      <c r="E600" t="s">
+        <v>10</v>
+      </c>
+      <c r="F600" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="601" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B601">
+        <v>78</v>
+      </c>
+      <c r="C601" s="2">
+        <v>1340903.2625935101</v>
+      </c>
+      <c r="D601" s="1">
+        <v>43981</v>
+      </c>
+      <c r="E601" t="s">
+        <v>10</v>
+      </c>
+      <c r="F601" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B602">
+        <v>79</v>
+      </c>
+      <c r="C602" s="2">
+        <v>1220179.6607991999</v>
+      </c>
+      <c r="D602" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E602" t="s">
+        <v>10</v>
+      </c>
+      <c r="F602" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B603">
+        <v>80</v>
+      </c>
+      <c r="C603" s="2">
+        <v>1108868.69378666</v>
+      </c>
+      <c r="D603" s="1">
+        <v>43983</v>
+      </c>
+      <c r="E603" t="s">
+        <v>10</v>
+      </c>
+      <c r="F603" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B604">
+        <v>81</v>
+      </c>
+      <c r="C604" s="2">
+        <v>1006535.7304101801</v>
+      </c>
+      <c r="D604" s="1">
+        <v>43984</v>
+      </c>
+      <c r="E604" t="s">
+        <v>10</v>
+      </c>
+      <c r="F604" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B605">
+        <v>82</v>
+      </c>
+      <c r="C605" s="2">
+        <v>912696.71440667205</v>
+      </c>
+      <c r="D605" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E605" t="s">
+        <v>10</v>
+      </c>
+      <c r="F605" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B606">
+        <v>83</v>
+      </c>
+      <c r="C606" s="2">
+        <v>826839.31724505895</v>
+      </c>
+      <c r="D606" s="1">
+        <v>43986</v>
+      </c>
+      <c r="E606" t="s">
+        <v>10</v>
+      </c>
+      <c r="F606" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B607">
+        <v>84</v>
+      </c>
+      <c r="C607" s="2">
+        <v>748439.37852099701</v>
+      </c>
+      <c r="D607" s="1">
+        <v>43987</v>
+      </c>
+      <c r="E607" t="s">
+        <v>10</v>
+      </c>
+      <c r="F607" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B608">
+        <v>85</v>
+      </c>
+      <c r="C608" s="2">
+        <v>676973.45293936203</v>
+      </c>
+      <c r="D608" s="1">
+        <v>43988</v>
+      </c>
+      <c r="E608" t="s">
+        <v>10</v>
+      </c>
+      <c r="F608" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B609">
+        <v>86</v>
+      </c>
+      <c r="C609" s="2">
+        <v>611928.16208273696</v>
+      </c>
+      <c r="D609" s="1">
+        <v>43989</v>
+      </c>
+      <c r="E609" t="s">
+        <v>10</v>
+      </c>
+      <c r="F609" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B610">
+        <v>87</v>
+      </c>
+      <c r="C610" s="2">
+        <v>552806.97719938098</v>
+      </c>
+      <c r="D610" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E610" t="s">
+        <v>10</v>
+      </c>
+      <c r="F610" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B611">
+        <v>88</v>
+      </c>
+      <c r="C611" s="2">
+        <v>499134.94517009601</v>
+      </c>
+      <c r="D611" s="1">
+        <v>43991</v>
+      </c>
+      <c r="E611" t="s">
+        <v>10</v>
+      </c>
+      <c r="F611" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B612">
+        <v>89</v>
+      </c>
+      <c r="C612" s="2">
+        <v>450461.79335961799</v>
+      </c>
+      <c r="D612" s="1">
+        <v>43992</v>
+      </c>
+      <c r="E612" t="s">
+        <v>10</v>
+      </c>
+      <c r="F612" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B613">
+        <v>90</v>
+      </c>
+      <c r="C613" s="2">
+        <v>406363.76791240601</v>
+      </c>
+      <c r="D613" s="1">
+        <v>43993</v>
+      </c>
+      <c r="E613" t="s">
+        <v>10</v>
+      </c>
+      <c r="F613" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B614">
+        <v>91</v>
+      </c>
+      <c r="C614" s="2">
+        <v>366444.49851973099</v>
+      </c>
+      <c r="D614" s="1">
+        <v>43994</v>
+      </c>
+      <c r="E614" t="s">
+        <v>10</v>
+      </c>
+      <c r="F614" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B615">
+        <v>92</v>
+      </c>
+      <c r="C615" s="2">
+        <v>330335.12597238802</v>
+      </c>
+      <c r="D615" s="1">
+        <v>43995</v>
+      </c>
+      <c r="E615" t="s">
+        <v>10</v>
+      </c>
+      <c r="F615" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B616">
+        <v>93</v>
+      </c>
+      <c r="C616" s="2">
+        <v>297693.88207842701</v>
+      </c>
+      <c r="D616" s="1">
+        <v>43996</v>
+      </c>
+      <c r="E616" t="s">
+        <v>10</v>
+      </c>
+      <c r="F616" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B617">
+        <v>94</v>
+      </c>
+      <c r="C617" s="2">
+        <v>268205.27479966299</v>
+      </c>
+      <c r="D617" s="1">
+        <v>43997</v>
+      </c>
+      <c r="E617" t="s">
+        <v>10</v>
+      </c>
+      <c r="F617" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B618">
+        <v>95</v>
+      </c>
+      <c r="C618" s="2">
+        <v>241578.99738247399</v>
+      </c>
+      <c r="D618" s="1">
+        <v>43998</v>
+      </c>
+      <c r="E618" t="s">
+        <v>10</v>
+      </c>
+      <c r="F618" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B619">
+        <v>96</v>
+      </c>
+      <c r="C619" s="2">
+        <v>217548.65429014899</v>
+      </c>
+      <c r="D619" s="1">
+        <v>43999</v>
+      </c>
+      <c r="E619" t="s">
+        <v>10</v>
+      </c>
+      <c r="F619" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B620">
+        <v>97</v>
+      </c>
+      <c r="C620" s="2">
+        <v>195870.37705058901</v>
+      </c>
+      <c r="D620" s="1">
+        <v>44000</v>
+      </c>
+      <c r="E620" t="s">
+        <v>10</v>
+      </c>
+      <c r="F620" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="621" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B621">
+        <v>98</v>
+      </c>
+      <c r="C621" s="2">
+        <v>176321.38542408499</v>
+      </c>
+      <c r="D621" s="1">
+        <v>44001</v>
+      </c>
+      <c r="E621" t="s">
+        <v>10</v>
+      </c>
+      <c r="F621" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B622">
+        <v>99</v>
+      </c>
+      <c r="C622" s="2">
+        <v>158698.53549237299</v>
+      </c>
+      <c r="D622" s="1">
+        <v>44002</v>
+      </c>
+      <c r="E622" t="s">
+        <v>10</v>
+      </c>
+      <c r="F622" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B623">
+        <v>100</v>
+      </c>
+      <c r="C623" s="2">
+        <v>142816.88575634701</v>
+      </c>
+      <c r="D623" s="1">
+        <v>44003</v>
+      </c>
+      <c r="E623" t="s">
+        <v>10</v>
+      </c>
+      <c r="F623" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B624">
+        <v>101</v>
+      </c>
+      <c r="C624" s="2">
+        <v>128508.303826538</v>
+      </c>
+      <c r="D624" s="1">
+        <v>44004</v>
+      </c>
+      <c r="E624" t="s">
+        <v>10</v>
+      </c>
+      <c r="F624" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B625">
+        <v>102</v>
+      </c>
+      <c r="C625" s="2">
+        <v>115620.12878721301</v>
+      </c>
+      <c r="D625" s="1">
+        <v>44005</v>
+      </c>
+      <c r="E625" t="s">
+        <v>10</v>
+      </c>
+      <c r="F625" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B626">
+        <v>103</v>
+      </c>
+      <c r="C626" s="2">
+        <v>104013.89990782501</v>
+      </c>
+      <c r="D626" s="1">
+        <v>44006</v>
+      </c>
+      <c r="E626" t="s">
+        <v>10</v>
+      </c>
+      <c r="F626" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B627">
+        <v>104</v>
+      </c>
+      <c r="C627" s="2">
+        <v>93564.158028767197</v>
+      </c>
+      <c r="D627" s="1">
+        <v>44007</v>
+      </c>
+      <c r="E627" t="s">
+        <v>10</v>
+      </c>
+      <c r="F627" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B628">
+        <v>105</v>
+      </c>
+      <c r="C628" s="2">
+        <v>84157.322846648705</v>
+      </c>
+      <c r="D628" s="1">
+        <v>44008</v>
+      </c>
+      <c r="E628" t="s">
+        <v>10</v>
+      </c>
+      <c r="F628" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B629">
+        <v>106</v>
+      </c>
+      <c r="C629" s="2">
+        <v>75690.646992823196</v>
+      </c>
+      <c r="D629" s="1">
+        <v>44009</v>
+      </c>
+      <c r="E629" t="s">
+        <v>10</v>
+      </c>
+      <c r="F629" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B630">
+        <v>107</v>
+      </c>
+      <c r="C630" s="2">
+        <v>68071.246122534998</v>
+      </c>
+      <c r="D630" s="1">
+        <v>44010</v>
+      </c>
+      <c r="E630" t="s">
+        <v>10</v>
+      </c>
+      <c r="F630" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B631">
+        <v>108</v>
+      </c>
+      <c r="C631" s="2">
+        <v>61215.2027320216</v>
+      </c>
+      <c r="D631" s="1">
+        <v>44011</v>
+      </c>
+      <c r="E631" t="s">
+        <v>10</v>
+      </c>
+      <c r="F631" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B632">
+        <v>109</v>
+      </c>
+      <c r="C632" s="2">
+        <v>55046.744242179397</v>
+      </c>
+      <c r="D632" s="1">
+        <v>44012</v>
+      </c>
+      <c r="E632" t="s">
+        <v>10</v>
+      </c>
+      <c r="F632" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B633">
+        <v>110</v>
+      </c>
+      <c r="C633" s="2">
+        <v>49497.480612762498</v>
+      </c>
+      <c r="D633" s="1">
+        <v>44013</v>
+      </c>
+      <c r="E633" t="s">
+        <v>10</v>
+      </c>
+      <c r="F633" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B634">
+        <v>111</v>
+      </c>
+      <c r="C634" s="2">
+        <v>44505.714987582702</v>
+      </c>
+      <c r="D634" s="1">
+        <v>44014</v>
+      </c>
+      <c r="E634" t="s">
+        <v>10</v>
+      </c>
+      <c r="F634" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B635">
+        <v>112</v>
+      </c>
+      <c r="C635" s="2">
+        <v>40015.810204608599</v>
+      </c>
+      <c r="D635" s="1">
+        <v>44015</v>
+      </c>
+      <c r="E635" t="s">
+        <v>10</v>
+      </c>
+      <c r="F635" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B636">
+        <v>113</v>
+      </c>
+      <c r="C636" s="2">
+        <v>35977.6093473703</v>
+      </c>
+      <c r="D636" s="1">
+        <v>44016</v>
+      </c>
+      <c r="E636" t="s">
+        <v>10</v>
+      </c>
+      <c r="F636" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B637">
+        <v>114</v>
+      </c>
+      <c r="C637" s="2">
+        <v>32345.910509608901</v>
+      </c>
+      <c r="D637" s="1">
+        <v>44017</v>
+      </c>
+      <c r="E637" t="s">
+        <v>10</v>
+      </c>
+      <c r="F637" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B638">
+        <v>115</v>
+      </c>
+      <c r="C638" s="2">
+        <v>29079.988563277398</v>
+      </c>
+      <c r="D638" s="1">
+        <v>44018</v>
+      </c>
+      <c r="E638" t="s">
+        <v>10</v>
+      </c>
+      <c r="F638" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B639">
+        <v>116</v>
+      </c>
+      <c r="C639" s="2">
+        <v>26143.160894869201</v>
+      </c>
+      <c r="D639" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E639" t="s">
+        <v>10</v>
+      </c>
+      <c r="F639" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B640">
+        <v>117</v>
+      </c>
+      <c r="C640" s="2">
+        <v>23502.393292325101</v>
+      </c>
+      <c r="D640" s="1">
+        <v>44020</v>
+      </c>
+      <c r="E640" t="s">
+        <v>10</v>
+      </c>
+      <c r="F640" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="641" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B641">
+        <v>118</v>
+      </c>
+      <c r="C641" s="2">
+        <v>21127.9429037767</v>
+      </c>
+      <c r="D641" s="1">
+        <v>44021</v>
+      </c>
+      <c r="E641" t="s">
+        <v>10</v>
+      </c>
+      <c r="F641" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="642" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B642">
+        <v>119</v>
+      </c>
+      <c r="C642" s="2">
+        <v>18993.035068041499</v>
+      </c>
+      <c r="D642" s="1">
+        <v>44022</v>
+      </c>
+      <c r="E642" t="s">
+        <v>10</v>
+      </c>
+      <c r="F642" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="643" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B643">
+        <v>120</v>
+      </c>
+      <c r="C643" s="2">
+        <v>17073.5707830143</v>
+      </c>
+      <c r="D643" s="1">
+        <v>44023</v>
+      </c>
+      <c r="E643" t="s">
+        <v>10</v>
+      </c>
+      <c r="F643" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="644" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B644">
+        <v>121</v>
+      </c>
+      <c r="C644" s="2">
+        <v>15347.8629834393</v>
+      </c>
+      <c r="D644" s="1">
+        <v>44024</v>
+      </c>
+      <c r="E644" t="s">
+        <v>10</v>
+      </c>
+      <c r="F644" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="645" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B645">
+        <v>122</v>
+      </c>
+      <c r="C645" s="2">
+        <v>13796.3969663316</v>
+      </c>
+      <c r="D645" s="1">
+        <v>44025</v>
+      </c>
+      <c r="E645" t="s">
+        <v>10</v>
+      </c>
+      <c r="F645" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="646" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B646">
+        <v>123</v>
+      </c>
+      <c r="C646" s="2">
+        <v>12401.615188578</v>
+      </c>
+      <c r="D646" s="1">
+        <v>44026</v>
+      </c>
+      <c r="E646" t="s">
+        <v>10</v>
+      </c>
+      <c r="F646" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="647" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B647">
+        <v>124</v>
+      </c>
+      <c r="C647" s="2">
+        <v>11147.7224991643</v>
+      </c>
+      <c r="D647" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E647" t="s">
+        <v>10</v>
+      </c>
+      <c r="F647" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="648" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B648">
+        <v>125</v>
+      </c>
+      <c r="C648" s="2">
+        <v>10020.5105176051</v>
+      </c>
+      <c r="D648" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E648" t="s">
+        <v>10</v>
+      </c>
+      <c r="F648" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="649" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B649">
+        <v>126</v>
+      </c>
+      <c r="C649" s="2">
+        <v>9007.1993299130609</v>
+      </c>
+      <c r="D649" s="1">
+        <v>44029</v>
+      </c>
+      <c r="E649" t="s">
+        <v>10</v>
+      </c>
+      <c r="F649" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="650" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B650">
+        <v>127</v>
+      </c>
+      <c r="C650" s="2">
+        <v>8096.2947059047901</v>
+      </c>
+      <c r="D650" s="1">
+        <v>44030</v>
+      </c>
+      <c r="E650" t="s">
+        <v>10</v>
+      </c>
+      <c r="F650" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="651" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B651">
+        <v>128</v>
+      </c>
+      <c r="C651" s="2">
+        <v>7277.4594557016799</v>
+      </c>
+      <c r="D651" s="1">
+        <v>44031</v>
+      </c>
+      <c r="E651" t="s">
+        <v>10</v>
+      </c>
+      <c r="F651" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B652">
+        <v>129</v>
+      </c>
+      <c r="C652" s="2">
+        <v>6541.3975184471201</v>
+      </c>
+      <c r="D652" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E652" t="s">
+        <v>10</v>
+      </c>
+      <c r="F652" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="653" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B653">
+        <v>130</v>
+      </c>
+      <c r="C653" s="2">
+        <v>5879.7495548110501</v>
+      </c>
+      <c r="D653" s="1">
+        <v>44033</v>
+      </c>
+      <c r="E653" t="s">
+        <v>10</v>
+      </c>
+      <c r="F653" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="654" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B654">
+        <v>131</v>
+      </c>
+      <c r="C654" s="2">
+        <v>5284.99895434673</v>
+      </c>
+      <c r="D654" s="1">
+        <v>44034</v>
+      </c>
+      <c r="E654" t="s">
+        <v>10</v>
+      </c>
+      <c r="F654" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="655" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B655">
+        <v>132</v>
+      </c>
+      <c r="C655" s="2">
+        <v>4750.3870219810497</v>
+      </c>
+      <c r="D655" s="1">
+        <v>44035</v>
+      </c>
+      <c r="E655" t="s">
+        <v>10</v>
+      </c>
+      <c r="F655" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="656" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B656">
+        <v>133</v>
+      </c>
+      <c r="C656" s="2">
+        <v>4269.8369641258296</v>
+      </c>
+      <c r="D656" s="1">
+        <v>44036</v>
+      </c>
+      <c r="E656" t="s">
+        <v>10</v>
+      </c>
+      <c r="F656" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="657" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B657">
+        <v>134</v>
+      </c>
+      <c r="C657" s="2">
+        <v>3837.88524489253</v>
+      </c>
+      <c r="D657" s="1">
+        <v>44037</v>
+      </c>
+      <c r="E657" t="s">
+        <v>10</v>
+      </c>
+      <c r="F657" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="658" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B658">
+        <v>135</v>
+      </c>
+      <c r="C658" s="2">
+        <v>3449.6198120405802</v>
+      </c>
+      <c r="D658" s="1">
+        <v>44038</v>
+      </c>
+      <c r="E658" t="s">
+        <v>10</v>
+      </c>
+      <c r="F658" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="659" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B659">
+        <v>136</v>
+      </c>
+      <c r="C659" s="2">
+        <v>3100.62457030412</v>
+      </c>
+      <c r="D659" s="1">
+        <v>44039</v>
+      </c>
+      <c r="E659" t="s">
+        <v>10</v>
+      </c>
+      <c r="F659" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="660" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B660">
+        <v>137</v>
+      </c>
+      <c r="C660" s="2">
+        <v>2786.9294132554101</v>
+      </c>
+      <c r="D660" s="1">
+        <v>44040</v>
+      </c>
+      <c r="E660" t="s">
+        <v>10</v>
+      </c>
+      <c r="F660" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="661" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B661">
+        <v>138</v>
+      </c>
+      <c r="C661" s="2">
+        <v>2504.9652507016099</v>
+      </c>
+      <c r="D661" s="1">
+        <v>44041</v>
+      </c>
+      <c r="E661" t="s">
+        <v>10</v>
+      </c>
+      <c r="F661" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="662" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B662">
+        <v>139</v>
+      </c>
+      <c r="C662" s="2">
+        <v>2251.5235831642399</v>
+      </c>
+      <c r="D662" s="1">
+        <v>44042</v>
+      </c>
+      <c r="E662" t="s">
+        <v>10</v>
+      </c>
+      <c r="F662" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="663" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B663">
+        <v>140</v>
+      </c>
+      <c r="C663" s="2">
+        <v>2023.72011519332</v>
+      </c>
+      <c r="D663" s="1">
+        <v>44043</v>
+      </c>
+      <c r="E663" t="s">
+        <v>10</v>
+      </c>
+      <c r="F663" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="664" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B664">
+        <v>141</v>
+      </c>
+      <c r="C664" s="2">
+        <v>1818.9620387034699</v>
+      </c>
+      <c r="D664" s="1">
+        <v>44044</v>
+      </c>
+      <c r="E664" t="s">
+        <v>10</v>
+      </c>
+      <c r="F664" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="665" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B665">
+        <v>142</v>
+      </c>
+      <c r="C665" s="2">
+        <v>1634.91861398895</v>
+      </c>
+      <c r="D665" s="1">
+        <v>44045</v>
+      </c>
+      <c r="E665" t="s">
+        <v>10</v>
+      </c>
+      <c r="F665" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="666" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B666">
+        <v>143</v>
+      </c>
+      <c r="C666" s="2">
+        <v>1469.49470795773</v>
+      </c>
+      <c r="D666" s="1">
+        <v>44046</v>
+      </c>
+      <c r="E666" t="s">
+        <v>10</v>
+      </c>
+      <c r="F666" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="667" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B667">
+        <v>144</v>
+      </c>
+      <c r="C667" s="2">
+        <v>1320.8070003058999</v>
+      </c>
+      <c r="D667" s="1">
+        <v>44047</v>
+      </c>
+      <c r="E667" t="s">
+        <v>10</v>
+      </c>
+      <c r="F667" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="668" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B668">
+        <v>145</v>
+      </c>
+      <c r="C668" s="2">
+        <v>1187.16258588242</v>
+      </c>
+      <c r="D668" s="1">
+        <v>44048</v>
+      </c>
+      <c r="E668" t="s">
+        <v>10</v>
+      </c>
+      <c r="F668" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="669" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B669">
+        <v>146</v>
+      </c>
+      <c r="C669" s="2">
+        <v>1067.03973816131</v>
+      </c>
+      <c r="D669" s="1">
+        <v>44049</v>
+      </c>
+      <c r="E669" t="s">
+        <v>10</v>
+      </c>
+      <c r="F669" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B670">
+        <v>147</v>
+      </c>
+      <c r="C670" s="2">
+        <v>959.07061468254699</v>
+      </c>
+      <c r="D670" s="1">
+        <v>44050</v>
+      </c>
+      <c r="E670" t="s">
+        <v>10</v>
+      </c>
+      <c r="F670" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="671" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B671">
+        <v>148</v>
+      </c>
+      <c r="C671" s="2">
+        <v>862.02570321273799</v>
+      </c>
+      <c r="D671" s="1">
+        <v>44051</v>
+      </c>
+      <c r="E671" t="s">
+        <v>10</v>
+      </c>
+      <c r="F671" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="672" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B672">
+        <v>149</v>
+      </c>
+      <c r="C672" s="2">
+        <v>774.79983980315603</v>
+      </c>
+      <c r="D672" s="1">
+        <v>44052</v>
+      </c>
+      <c r="E672" t="s">
+        <v>10</v>
+      </c>
+      <c r="F672" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="673" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B673">
+        <v>150</v>
+      </c>
+      <c r="C673" s="2">
+        <v>696.399639005381</v>
+      </c>
+      <c r="D673" s="1">
+        <v>44053</v>
+      </c>
+      <c r="E673" t="s">
+        <v>10</v>
+      </c>
+      <c r="F673" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="674" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B674">
+        <v>151</v>
+      </c>
+      <c r="C674" s="2">
+        <v>625.93219568716597</v>
+      </c>
+      <c r="D674" s="1">
+        <v>44054</v>
+      </c>
+      <c r="E674" t="s">
+        <v>10</v>
+      </c>
+      <c r="F674" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B675">
+        <v>152</v>
+      </c>
+      <c r="C675" s="2">
+        <v>562.59492335252401</v>
+      </c>
+      <c r="D675" s="1">
+        <v>44055</v>
+      </c>
+      <c r="E675" t="s">
+        <v>10</v>
+      </c>
+      <c r="F675" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="676" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B676">
+        <v>153</v>
+      </c>
+      <c r="C676" s="2">
+        <v>505.66642163155802</v>
+      </c>
+      <c r="D676" s="1">
+        <v>44056</v>
+      </c>
+      <c r="E676" t="s">
+        <v>10</v>
+      </c>
+      <c r="F676" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="677" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B677">
+        <v>154</v>
+      </c>
+      <c r="C677" s="2">
+        <v>454.498267272058</v>
+      </c>
+      <c r="D677" s="1">
+        <v>44057</v>
+      </c>
+      <c r="E677" t="s">
+        <v>10</v>
+      </c>
+      <c r="F677" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="678" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B678">
+        <v>155</v>
+      </c>
+      <c r="C678" s="2">
+        <v>408.507634542716</v>
+      </c>
+      <c r="D678" s="1">
+        <v>44058</v>
+      </c>
+      <c r="E678" t="s">
+        <v>10</v>
+      </c>
+      <c r="F678" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B679">
+        <v>156</v>
+      </c>
+      <c r="C679" s="2">
+        <v>367.17065958370898</v>
+      </c>
+      <c r="D679" s="1">
+        <v>44059</v>
+      </c>
+      <c r="E679" t="s">
+        <v>10</v>
+      </c>
+      <c r="F679" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="680" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B680">
+        <v>157</v>
+      </c>
+      <c r="C680" s="2">
+        <v>330.01647684771598</v>
+      </c>
+      <c r="D680" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E680" t="s">
+        <v>10</v>
+      </c>
+      <c r="F680" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="681" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B681">
+        <v>158</v>
+      </c>
+      <c r="C681" s="2">
+        <v>296.62185959790702</v>
+      </c>
+      <c r="D681" s="1">
+        <v>44061</v>
+      </c>
+      <c r="E681" t="s">
+        <v>10</v>
+      </c>
+      <c r="F681" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="682" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B682">
+        <v>159</v>
+      </c>
+      <c r="C682" s="2">
+        <v>266.60640065329198</v>
+      </c>
+      <c r="D682" s="1">
+        <v>44062</v>
+      </c>
+      <c r="E682" t="s">
+        <v>10</v>
+      </c>
+      <c r="F682" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="683" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B683">
+        <v>160</v>
+      </c>
+      <c r="C683" s="2">
+        <v>239.62818046731999</v>
+      </c>
+      <c r="D683" s="1">
+        <v>44063</v>
+      </c>
+      <c r="E683" t="s">
+        <v>10</v>
+      </c>
+      <c r="F683" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10322,7 +13044,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10330,7 +13052,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
@@ -10344,7 +13066,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
       <c r="C2" s="1">
@@ -10358,7 +13080,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>131.66589789295699</v>
       </c>
       <c r="C3" s="1">
@@ -10372,7 +13094,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>173.357676850952</v>
       </c>
       <c r="C4" s="1">
@@ -10386,7 +13108,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>228.24864287494901</v>
       </c>
       <c r="C5" s="1">
@@ -10400,7 +13122,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>300.51572807142702</v>
       </c>
       <c r="C6" s="1">
@@ -10414,7 +13136,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>395.65636025747</v>
       </c>
       <c r="C7" s="1">
@@ -10428,7 +13150,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>520.90495340617804</v>
       </c>
       <c r="C8" s="1">
@@ -10442,7 +13164,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>685.78006666612396</v>
       </c>
       <c r="C9" s="1">
@@ -10456,7 +13178,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>902.80268723285599</v>
       </c>
       <c r="C10" s="1">
@@ -10470,7 +13192,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1188.43827102705</v>
       </c>
       <c r="C11" s="1">
@@ -10484,7 +13206,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1564.3306857642599</v>
       </c>
       <c r="C12" s="1">
@@ -10498,7 +13220,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>2058.91580223755</v>
       </c>
       <c r="C13" s="1">
@@ -10512,7 +13234,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>2709.52687379396</v>
       </c>
       <c r="C14" s="1">
@@ -10526,7 +13248,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3565.1335072028201</v>
       </c>
       <c r="C15" s="1">
@@ -10540,7 +13262,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>4689.8908879597702</v>
       </c>
       <c r="C16" s="1">
@@ -10554,7 +13276,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>6167.7148437141204</v>
       </c>
       <c r="C17" s="1">
@@ -10568,7 +13290,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>8108.1372768958299</v>
       </c>
       <c r="C18" s="1">
@@ -10582,7 +13304,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>10653.728172667301</v>
       </c>
       <c r="C19" s="1">
@@ -10596,7 +13318,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>13989.378671030399</v>
       </c>
       <c r="C20" s="1">
@@ -10610,7 +13332,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>18353.696603135901</v>
       </c>
       <c r="C21" s="1">
@@ -10624,7 +13346,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>24052.624040846698</v>
       </c>
       <c r="C22" s="1">
@@ -10638,7 +13360,7 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>31475.067398371699</v>
       </c>
       <c r="C23" s="1">
@@ -10652,7 +13374,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>41109.718713196999</v>
       </c>
       <c r="C24" s="1">
@@ -10666,7 +13388,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>53561.182374098302</v>
       </c>
       <c r="C25" s="1">
@@ -10680,7 +13402,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>69561.813968355898</v>
       </c>
       <c r="C26" s="1">
@@ -10694,7 +13416,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>89973.186984394502</v>
       </c>
       <c r="C27" s="1">
@@ -10708,7 +13430,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>115767.884317053</v>
       </c>
       <c r="C28" s="1">
@@ -10722,7 +13444,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>147978.95954305501</v>
       </c>
       <c r="C29" s="1">
@@ -10736,7 +13458,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>187602.52416683899</v>
       </c>
       <c r="C30" s="1">
@@ -10750,7 +13472,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>235441.51699959999</v>
       </c>
       <c r="C31" s="1">
@@ -10764,7 +13486,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>291890.00456721301</v>
       </c>
       <c r="C32" s="1">
@@ -10778,7 +13500,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>356680.70221531502</v>
       </c>
       <c r="C33" s="1">
@@ -10792,7 +13514,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>428651.74802383297</v>
       </c>
       <c r="C34" s="1">
@@ -10806,7 +13528,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>505619.26129502303</v>
       </c>
       <c r="C35" s="1">
@@ -10820,7 +13542,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>584446.13689163805</v>
       </c>
       <c r="C36" s="1">
@@ -10834,7 +13556,7 @@
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>661353.23260630004</v>
       </c>
       <c r="C37" s="1">
@@ -10848,7 +13570,7 @@
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>732430.54157428897</v>
       </c>
       <c r="C38" s="1">
@@ -10862,7 +13584,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>794214.766400981</v>
       </c>
       <c r="C39" s="1">
@@ -10876,7 +13598,7 @@
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>844163.38099652401</v>
       </c>
       <c r="C40" s="1">
@@ -10890,7 +13612,7 @@
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>880900.020627002</v>
       </c>
       <c r="C41" s="1">
@@ -10904,7 +13626,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>904202.67519283504</v>
       </c>
       <c r="C42" s="1">
@@ -10918,7 +13640,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>914795.86810640502</v>
       </c>
       <c r="C43" s="1">
@@ -10932,7 +13654,7 @@
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>914048.92083681503</v>
       </c>
       <c r="C44" s="1">
@@ -10946,7 +13668,7 @@
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>903673.32372550305</v>
       </c>
       <c r="C45" s="1">
@@ -10960,7 +13682,7 @@
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>885476.10848576296</v>
       </c>
       <c r="C46" s="1">
@@ -10974,7 +13696,7 @@
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>861189.32609871798</v>
       </c>
       <c r="C47" s="1">
@@ -10988,7 +13710,7 @@
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>832370.72203539405</v>
       </c>
       <c r="C48" s="1">
@@ -11002,7 +13724,7 @@
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>800359.32466578798</v>
       </c>
       <c r="C49" s="1">
@@ -11016,7 +13738,7 @@
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>766267.79883691203</v>
       </c>
       <c r="C50" s="1">
@@ -11030,7 +13752,7 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>730996.34708274598</v>
       </c>
       <c r="C51" s="1">
@@ -11044,7 +13766,7 @@
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>695257.15446201002</v>
       </c>
       <c r="C52" s="1">
@@ -11058,7 +13780,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>659602.35730052798</v>
       </c>
       <c r="C53" s="1">
@@ -11072,7 +13794,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>624451.47681948799</v>
       </c>
       <c r="C54" s="1">
@@ -11086,7 +13808,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>590116.26520116802</v>
       </c>
       <c r="C55" s="1">
@@ -11100,7 +13822,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>556822.17156559101</v>
       </c>
       <c r="C56" s="1">
@@ -11114,7 +13836,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>524726.32486643002</v>
       </c>
       <c r="C57" s="1">
@@ -11128,7 +13850,7 @@
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>493932.28958990303</v>
       </c>
       <c r="C58" s="1">
@@ -11142,7 +13864,7 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>464502.00555339397</v>
       </c>
       <c r="C59" s="1">
@@ -11156,7 +13878,7 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>436465.34962022101</v>
       </c>
       <c r="C60" s="1">
@@ -11170,7 +13892,7 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>409827.73746239702</v>
       </c>
       <c r="C61" s="1">
@@ -11184,7 +13906,7 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>384576.137055228</v>
       </c>
       <c r="C62" s="1">
@@ -11198,7 +13920,7 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>360683.803533989</v>
       </c>
       <c r="C63" s="1">
@@ -11212,7 +13934,7 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>338113.99741739198</v>
       </c>
       <c r="C64" s="1">
@@ -11226,7 +13948,7 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>316822.88894456503</v>
       </c>
       <c r="C65" s="1">
@@ -11240,7 +13962,7 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>296761.82609821501</v>
       </c>
       <c r="C66" s="1">
@@ -11254,7 +13976,7 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>277879.095244358</v>
       </c>
       <c r="C67" s="1">
@@ -11268,7 +13990,7 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>260121.281497805</v>
       </c>
       <c r="C68" s="1">
@@ -11282,7 +14004,7 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>243434.314339565</v>
       </c>
       <c r="C69" s="1">
@@ -11296,7 +14018,7 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>227764.26376074599</v>
       </c>
       <c r="C70" s="1">
@@ -11310,7 +14032,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>213057.94143463401</v>
       </c>
       <c r="C71" s="1">
@@ -11324,7 +14046,7 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>199263.34718214901</v>
       </c>
       <c r="C72" s="1">
@@ -11338,7 +14060,7 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>186329.99405774899</v>
       </c>
       <c r="C73" s="1">
@@ -11352,7 +14074,7 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>174209.13789680399</v>
       </c>
       <c r="C74" s="1">
@@ -11366,7 +14088,7 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>162853.93217925599</v>
       </c>
       <c r="C75" s="1">
@@ -11380,7 +14102,7 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>152219.524499508</v>
       </c>
       <c r="C76" s="1">
@@ -11394,7 +14116,7 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>142263.10753176</v>
       </c>
       <c r="C77" s="1">
@@ -11408,7 +14130,7 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>132943.93466215901</v>
       </c>
       <c r="C78" s="1">
@@ -11422,7 +14144,7 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>124223.308916471</v>
       </c>
       <c r="C79" s="1">
@@ -11436,7 +14158,7 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>116064.551151003</v>
       </c>
       <c r="C80" s="1">
@@ -11450,7 +14172,7 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>108432.952956155</v>
       </c>
       <c r="C81" s="1">
@@ -11464,7 +14186,7 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>101295.718420768</v>
       </c>
       <c r="C82" s="1">
@@ -11478,7 +14200,7 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>94621.897814116601</v>
       </c>
       <c r="C83" s="1">
@@ -11492,7 +14214,7 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>88382.315891947394</v>
       </c>
       <c r="C84" s="1">
@@ -11506,7 +14228,7 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>82549.496831901706</v>
       </c>
       <c r="C85" s="1">
@@ -11520,7 +14242,7 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>77097.587401710698</v>
       </c>
       <c r="C86" s="1">
@@ -11534,7 +14256,7 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>72002.279560117604</v>
       </c>
       <c r="C87" s="1">
@@ -11548,7 +14270,7 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>67240.733486683705</v>
       </c>
       <c r="C88" s="1">
@@ -11562,7 +14284,7 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>62791.5018100085</v>
       </c>
       <c r="C89" s="1">
@@ -11576,7 +14298,7 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>58634.455419365702</v>
       </c>
       <c r="C90" s="1">
@@ -11590,7 +14312,7 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>54750.711656795604</v>
       </c>
       <c r="C91" s="1">
@@ -11604,7 +14326,7 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>51122.564688055703</v>
       </c>
       <c r="C92" s="1">
@@ -11618,7 +14340,7 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>47733.418717131099</v>
       </c>
       <c r="C93" s="1">
@@ -11632,7 +14354,7 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>44567.723769288401</v>
       </c>
       <c r="C94" s="1">
@@ -11646,7 +14368,7 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>41610.914492242802</v>
       </c>
       <c r="C95" s="1">
@@ -11660,7 +14382,7 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>38849.351723545202</v>
       </c>
       <c r="C96" s="1">
@@ -11674,7 +14396,7 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>36270.266932983403</v>
       </c>
       <c r="C97" s="1">
@@ -11688,7 +14410,7 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>33861.709524118298</v>
       </c>
       <c r="C98" s="1">
@@ -11702,7 +14424,7 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>31612.4968380828</v>
       </c>
       <c r="C99" s="1">
@@ -11716,7 +14438,7 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>29512.166914596</v>
       </c>
       <c r="C100" s="1">
@@ -11730,7 +14452,7 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>27550.933803807999</v>
       </c>
       <c r="C101" s="1">
@@ -11744,7 +14466,7 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>25719.645401568701</v>
       </c>
       <c r="C102" s="1">
@@ -11758,7 +14480,7 @@
       <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>24009.7437113366</v>
       </c>
       <c r="C103" s="1">
@@ -11772,7 +14494,7 @@
       <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>22413.227388565501</v>
       </c>
       <c r="C104" s="1">
@@ -11786,7 +14508,7 @@
       <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>20922.616490511002</v>
       </c>
       <c r="C105" s="1">
@@ -11800,7 +14522,7 @@
       <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>19530.919303263701</v>
       </c>
       <c r="C106" s="1">
@@ -11814,7 +14536,7 @@
       <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>18231.601243643599</v>
       </c>
       <c r="C107" s="1">
@@ -11828,7 +14550,7 @@
       <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>17018.555516029501</v>
       </c>
       <c r="C108" s="1">
@@ -11842,7 +14564,7 @@
       <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>15886.0756857625</v>
       </c>
       <c r="C109" s="1">
@@ -11856,7 +14578,7 @@
       <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>14828.8298407527</v>
       </c>
       <c r="C110" s="1">
@@ -11870,7 +14592,7 @@
       <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>13841.8364394543</v>
       </c>
       <c r="C111" s="1">
@@ -11884,7 +14606,7 @@
       <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>12920.4415987251</v>
       </c>
       <c r="C112" s="1">
@@ -11898,7 +14620,7 @@
       <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>12060.2978510953</v>
       </c>
       <c r="C113" s="1">
@@ -11912,7 +14634,7 @@
       <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>11257.344214897301</v>
       </c>
       <c r="C114" s="1">
@@ -11926,7 +14648,7 @@
       <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>10507.7875357475</v>
       </c>
       <c r="C115" s="1">
@@ -11940,7 +14662,7 @@
       <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>9808.0850086661794</v>
       </c>
       <c r="C116" s="1">
@@ -11954,7 +14676,7 @@
       <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>9154.9278210354296</v>
       </c>
       <c r="C117" s="1">
@@ -11968,7 +14690,7 @@
       <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>8545.2258417987305</v>
       </c>
       <c r="C118" s="1">
@@ -11982,7 +14704,7 @@
       <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>7976.0932878619597</v>
       </c>
       <c r="C119" s="1">
@@ -11996,7 +14718,7 @@
       <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>7444.83531694664</v>
       </c>
       <c r="C120" s="1">
@@ -12010,7 +14732,7 @@
       <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>6948.9354868699902</v>
       </c>
       <c r="C121" s="1">
@@ -12024,7 +14746,7 @@
       <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>6486.0440246278904</v>
       </c>
       <c r="C122" s="1">
@@ -12038,7 +14760,7 @@
       <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>6053.9668579097397</v>
       </c>
       <c r="C123" s="1">
@@ -12052,7 +14774,7 @@
       <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>5650.65535608756</v>
       </c>
       <c r="C124" s="1">
@@ -12066,7 +14788,7 @@
       <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>5274.1967443967496</v>
       </c>
       <c r="C125" s="1">
@@ -12080,7 +14802,7 @@
       <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>4922.8051356917204</v>
       </c>
       <c r="C126" s="1">
@@ -12094,7 +14816,7 @@
       <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>4594.8131559405701</v>
       </c>
       <c r="C127" s="1">
@@ -12108,7 +14830,7 @@
       <c r="A128">
         <v>126</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>4288.6641111328499</v>
       </c>
       <c r="C128" s="1">
@@ -12122,7 +14844,7 @@
       <c r="A129">
         <v>127</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>4002.9046731173098</v>
       </c>
       <c r="C129" s="1">
@@ -12136,7 +14858,7 @@
       <c r="A130">
         <v>128</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>3736.1780380663599</v>
       </c>
       <c r="C130" s="1">
@@ -12150,7 +14872,7 @@
       <c r="A131">
         <v>129</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>3487.2175410545801</v>
       </c>
       <c r="C131" s="1">
@@ -12164,7 +14886,7 @@
       <c r="A132">
         <v>130</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>3254.84068500492</v>
       </c>
       <c r="C132" s="1">
@@ -12178,7 +14900,7 @@
       <c r="A133">
         <v>131</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>3037.9435666463</v>
       </c>
       <c r="C133" s="1">
@@ -12192,7 +14914,7 @@
       <c r="A134">
         <v>132</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>2835.4956659480399</v>
       </c>
       <c r="C134" s="1">
@@ -12206,7 +14928,7 @@
       <c r="A135">
         <v>133</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>2646.5349818770901</v>
       </c>
       <c r="C135" s="1">
@@ -12220,7 +14942,7 @@
       <c r="A136">
         <v>134</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>2470.1634869340901</v>
       </c>
       <c r="C136" s="1">
@@ -12234,7 +14956,7 @@
       <c r="A137">
         <v>135</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>2305.5428826613302</v>
       </c>
       <c r="C137" s="1">
@@ -12248,7 +14970,7 @@
       <c r="A138">
         <v>136</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>2151.89063567833</v>
       </c>
       <c r="C138" s="1">
@@ -12262,7 +14984,7 @@
       <c r="A139">
         <v>137</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>2008.47627501947</v>
       </c>
       <c r="C139" s="1">
@@ -12276,7 +14998,7 @@
       <c r="A140">
         <v>138</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>1874.61793546893</v>
       </c>
       <c r="C140" s="1">
@@ -12290,7 +15012,7 @@
       <c r="A141">
         <v>139</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>1749.67912760064</v>
       </c>
       <c r="C141" s="1">
@@ -12304,7 +15026,7 @@
       <c r="A142">
         <v>140</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>1633.0657244184099</v>
       </c>
       <c r="C142" s="1">
@@ -12318,7 +15040,7 @@
       <c r="A143">
         <v>141</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>1524.2231445802699</v>
       </c>
       <c r="C143" s="1">
@@ -12332,7 +15054,7 @@
       <c r="A144">
         <v>142</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>1422.63372590416</v>
       </c>
       <c r="C144" s="1">
@@ -12346,7 +15068,7 @@
       <c r="A145">
         <v>143</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>1327.8142680799599</v>
       </c>
       <c r="C145" s="1">
@@ -12360,7 +15082,7 @@
       <c r="A146">
         <v>144</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>1239.3137438248</v>
       </c>
       <c r="C146" s="1">
@@ -12374,7 +15096,7 @@
       <c r="A147">
         <v>145</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>1156.7111569889</v>
       </c>
       <c r="C147" s="1">
@@ -12388,7 +15110,7 @@
       <c r="A148">
         <v>146</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>1079.61354687736</v>
       </c>
       <c r="C148" s="1">
@@ -12402,7 +15124,7 @@
       <c r="A149">
         <v>147</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>1007.65412160848</v>
       </c>
       <c r="C149" s="1">
@@ -12416,7 +15138,7 @@
       <c r="A150">
         <v>148</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>940.49051804575595</v>
       </c>
       <c r="C150" s="1">
@@ -12430,7 +15152,7 @@
       <c r="A151">
         <v>149</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>877.80317563871699</v>
       </c>
       <c r="C151" s="1">
@@ -12444,7 +15166,7 @@
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>819.29381898568795</v>
       </c>
       <c r="C152" s="1">
@@ -12458,7 +15180,7 @@
       <c r="A153">
         <v>151</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>764.68404141057499</v>
       </c>
       <c r="C153" s="1">
@@ -12472,7 +15194,7 @@
       <c r="A154">
         <v>152</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>713.71398183081897</v>
       </c>
       <c r="C154" s="1">
@@ -12486,7 +15208,7 @@
       <c r="A155">
         <v>153</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>666.14109103176702</v>
       </c>
       <c r="C155" s="1">
@@ -12500,7 +15222,7 @@
       <c r="A156">
         <v>154</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>621.73897787352701</v>
       </c>
       <c r="C156" s="1">
@@ -12514,7 +15236,7 @@
       <c r="A157">
         <v>155</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>580.29633471375598</v>
       </c>
       <c r="C157" s="1">
@@ -12528,7 +15250,7 @@
       <c r="A158">
         <v>156</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>541.615931845212</v>
       </c>
       <c r="C158" s="1">
@@ -12542,7 +15264,7 @@
       <c r="A159">
         <v>157</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>505.51368108898498</v>
       </c>
       <c r="C159" s="1">
@@ -12556,7 +15278,7 @@
       <c r="A160">
         <v>158</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>471.81775962990201</v>
       </c>
       <c r="C160" s="1">
@@ -12570,7 +15292,7 @@
       <c r="A161">
         <v>159</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>440.36779389342502</v>
       </c>
       <c r="C161" s="1">

--- a/dataset/corona_pred.xlsx
+++ b/dataset/corona_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9FCE69-D96E-434A-896F-1B619F9D4325}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B0645-02B1-4B4D-BFA6-3BCD4F59659A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F683"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="H515" sqref="H515"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="D530" sqref="D530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7611,7 +7611,7 @@
         <v>2</v>
       </c>
       <c r="C365" s="2">
-        <v>130.891158645171</v>
+        <v>127.703717865836</v>
       </c>
       <c r="D365" s="1">
         <v>43893</v>
@@ -7628,7 +7628,7 @@
         <v>3</v>
       </c>
       <c r="C366" s="2">
-        <v>171.32227823583401</v>
+        <v>163.08111351049399</v>
       </c>
       <c r="D366" s="1">
         <v>43894</v>
@@ -7645,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="C367" s="2">
-        <v>224.237629687457</v>
+        <v>208.25691786820499</v>
       </c>
       <c r="D367" s="1">
         <v>43895</v>
@@ -7662,7 +7662,7 @@
         <v>5</v>
       </c>
       <c r="C368" s="2">
-        <v>293.48879692121102</v>
+        <v>265.94365912440401</v>
       </c>
       <c r="D368" s="1">
         <v>43896</v>
@@ -7679,7 +7679,7 @@
         <v>6</v>
       </c>
       <c r="C369" s="2">
-        <v>384.11331128872803</v>
+        <v>339.60395071170302</v>
       </c>
       <c r="D369" s="1">
         <v>43897</v>
@@ -7696,7 +7696,7 @@
         <v>7</v>
       </c>
       <c r="C370" s="2">
-        <v>502.69815432984097</v>
+        <v>433.65739122188899</v>
       </c>
       <c r="D370" s="1">
         <v>43898</v>
@@ -7713,7 +7713,7 @@
         <v>8</v>
       </c>
       <c r="C371" s="2">
-        <v>657.85349907612499</v>
+        <v>553.74419120106904</v>
       </c>
       <c r="D371" s="1">
         <v>43899</v>
@@ -7730,7 +7730,7 @@
         <v>9</v>
       </c>
       <c r="C372" s="2">
-        <v>860.82926593161994</v>
+        <v>707.06089579158197</v>
       </c>
       <c r="D372" s="1">
         <v>43900</v>
@@ -7747,7 +7747,7 @@
         <v>10</v>
       </c>
       <c r="C373" s="2">
-        <v>1126.31610948399</v>
+        <v>902.787557421109</v>
       </c>
       <c r="D373" s="1">
         <v>43901</v>
@@ -7764,7 +7764,7 @@
         <v>11</v>
       </c>
       <c r="C374" s="2">
-        <v>1473.48352261525</v>
+        <v>1152.63073210325</v>
       </c>
       <c r="D374" s="1">
         <v>43902</v>
@@ -7781,7 +7781,7 @@
         <v>12</v>
       </c>
       <c r="C375" s="2">
-        <v>1927.32101702402</v>
+        <v>1471.5127923371799</v>
       </c>
       <c r="D375" s="1">
         <v>43903</v>
@@ -7798,7 +7798,7 @@
         <v>13</v>
       </c>
       <c r="C376" s="2">
-        <v>2520.3636272469498</v>
+        <v>1878.4455035058299</v>
       </c>
       <c r="D376" s="1">
         <v>43904</v>
@@ -7815,7 +7815,7 @@
         <v>14</v>
       </c>
       <c r="C377" s="2">
-        <v>3294.89948813208</v>
+        <v>2397.63472973635</v>
       </c>
       <c r="D377" s="1">
         <v>43905</v>
@@ -7832,7 +7832,7 @@
         <v>15</v>
       </c>
       <c r="C378" s="2">
-        <v>4305.7730161818499</v>
+        <v>3059.8735111800202</v>
       </c>
       <c r="D378" s="1">
         <v>43906</v>
@@ -7849,7 +7849,7 @@
         <v>16</v>
       </c>
       <c r="C379" s="2">
-        <v>5623.9083016158602</v>
+        <v>3904.29240535093</v>
       </c>
       <c r="D379" s="1">
         <v>43907</v>
@@ -7866,7 +7866,7 @@
         <v>17</v>
       </c>
       <c r="C380" s="2">
-        <v>7340.67622149422</v>
+        <v>4980.5483516270397</v>
       </c>
       <c r="D380" s="1">
         <v>43908</v>
@@ -7883,7 +7883,7 @@
         <v>18</v>
       </c>
       <c r="C381" s="2">
-        <v>9573.2019894416408</v>
+        <v>6351.5451435353198</v>
       </c>
       <c r="D381" s="1">
         <v>43909</v>
@@ -7900,7 +7900,7 @@
         <v>19</v>
       </c>
       <c r="C382" s="2">
-        <v>12470.6365721609</v>
+        <v>8096.7869580468796</v>
       </c>
       <c r="D382" s="1">
         <v>43910</v>
@@ -7917,7 +7917,7 @@
         <v>20</v>
       </c>
       <c r="C383" s="2">
-        <v>16221.2591263133</v>
+        <v>10316.4678256976</v>
       </c>
       <c r="D383" s="1">
         <v>43911</v>
@@ -7934,7 +7934,7 @@
         <v>21</v>
       </c>
       <c r="C384" s="2">
-        <v>21059.990613199101</v>
+        <v>13136.3858186217</v>
       </c>
       <c r="D384" s="1">
         <v>43912</v>
@@ -7951,7 +7951,7 @@
         <v>22</v>
       </c>
       <c r="C385" s="2">
-        <v>27275.409085869502</v>
+        <v>16713.7299769122</v>
       </c>
       <c r="D385" s="1">
         <v>43913</v>
@@ -7968,7 +7968,7 @@
         <v>23</v>
       </c>
       <c r="C386" s="2">
-        <v>35214.597577555702</v>
+        <v>21243.7018063904</v>
       </c>
       <c r="D386" s="1">
         <v>43914</v>
@@ -7985,7 +7985,7 @@
         <v>24</v>
       </c>
       <c r="C387" s="2">
-        <v>45283.060710891899</v>
+        <v>26966.775272691499</v>
       </c>
       <c r="D387" s="1">
         <v>43915</v>
@@ -8002,7 +8002,7 @@
         <v>25</v>
       </c>
       <c r="C388" s="2">
-        <v>57935.575566821099</v>
+        <v>34176.131664971101</v>
       </c>
       <c r="D388" s="1">
         <v>43916</v>
@@ -8019,7 +8019,7 @@
         <v>26</v>
       </c>
       <c r="C389" s="2">
-        <v>73652.453123827596</v>
+        <v>43224.383927240902</v>
       </c>
       <c r="D389" s="1">
         <v>43917</v>
@@ -8036,7 +8036,7 @@
         <v>27</v>
       </c>
       <c r="C390" s="2">
-        <v>92894.973580017802</v>
+        <v>54528.084890901802</v>
       </c>
       <c r="D390" s="1">
         <v>43918</v>
@@ -8053,7 +8053,7 @@
         <v>28</v>
       </c>
       <c r="C391" s="2">
-        <v>116034.982003357</v>
+        <v>68567.659869627096</v>
       </c>
       <c r="D391" s="1">
         <v>43919</v>
@@ -8070,7 +8070,7 @@
         <v>29</v>
       </c>
       <c r="C392" s="2">
-        <v>143258.496559519</v>
+        <v>85879.361213741402</v>
       </c>
       <c r="D392" s="1">
         <v>43920</v>
@@ -8087,7 +8087,7 @@
         <v>30</v>
       </c>
       <c r="C393" s="2">
-        <v>174453.03044325701</v>
+        <v>107034.76950104799</v>
       </c>
       <c r="D393" s="1">
         <v>43921</v>
@@ -8104,7 +8104,7 @@
         <v>31</v>
       </c>
       <c r="C394" s="2">
-        <v>209102.330593477</v>
+        <v>132602.666350716</v>
       </c>
       <c r="D394" s="1">
         <v>43922</v>
@@ -8121,7 +8121,7 @@
         <v>32</v>
       </c>
       <c r="C395" s="2">
-        <v>246225.294208915</v>
+        <v>163088.51132850599</v>
       </c>
       <c r="D395" s="1">
         <v>43923</v>
@@ -8138,7 +8138,7 @@
         <v>33</v>
       </c>
       <c r="C396" s="2">
-        <v>284398.40677136899</v>
+        <v>198849.30293122301</v>
       </c>
       <c r="D396" s="1">
         <v>43924</v>
@@ -8155,7 +8155,7 @@
         <v>34</v>
       </c>
       <c r="C397" s="2">
-        <v>321884.05872358999</v>
+        <v>239987.3713193</v>
       </c>
       <c r="D397" s="1">
         <v>43925</v>
@@ -8172,7 +8172,7 @@
         <v>35</v>
       </c>
       <c r="C398" s="2">
-        <v>356850.99253052601</v>
+        <v>286235.93759553297</v>
       </c>
       <c r="D398" s="1">
         <v>43926</v>
@@ -8189,7 +8189,7 @@
         <v>36</v>
       </c>
       <c r="C399" s="2">
-        <v>387633.44258937001</v>
+        <v>336860.51297114399</v>
       </c>
       <c r="D399" s="1">
         <v>43927</v>
@@ -8206,7 +8206,7 @@
         <v>37</v>
       </c>
       <c r="C400" s="2">
-        <v>412955.92708311102</v>
+        <v>390608.92600451497</v>
       </c>
       <c r="D400" s="1">
         <v>43928</v>
@@ -8223,7 +8223,7 @@
         <v>38</v>
       </c>
       <c r="C401" s="2">
-        <v>432064.42914640199</v>
+        <v>445742.35935473599</v>
       </c>
       <c r="D401" s="1">
         <v>43929</v>
@@ -8240,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="C402" s="2">
-        <v>444743.46689891297</v>
+        <v>500164.81610445498</v>
       </c>
       <c r="D402" s="1">
         <v>43930</v>
@@ -8257,7 +8257,7 @@
         <v>40</v>
       </c>
       <c r="C403" s="2">
-        <v>451238.84622453398</v>
+        <v>551640.11967555899</v>
       </c>
       <c r="D403" s="1">
         <v>43931</v>
@@ -8274,7 +8274,7 @@
         <v>41</v>
       </c>
       <c r="C404" s="2">
-        <v>452128.27481471997</v>
+        <v>598054.07021622499</v>
       </c>
       <c r="D404" s="1">
         <v>43932</v>
@@ -8291,7 +8291,7 @@
         <v>42</v>
       </c>
       <c r="C405" s="2">
-        <v>448182.38023919502</v>
+        <v>637660.540848959</v>
       </c>
       <c r="D405" s="1">
         <v>43933</v>
@@ -8308,7 +8308,7 @@
         <v>43</v>
       </c>
       <c r="C406" s="2">
-        <v>440245.21104626602</v>
+        <v>669254.73102837603</v>
       </c>
       <c r="D406" s="1">
         <v>43934</v>
@@ -8325,7 +8325,7 @@
         <v>44</v>
       </c>
       <c r="C407" s="2">
-        <v>429147.03143600503</v>
+        <v>692242.57720967405</v>
       </c>
       <c r="D407" s="1">
         <v>43935</v>
@@ -8342,7 +8342,7 @@
         <v>45</v>
       </c>
       <c r="C408" s="2">
-        <v>415649.91836311499</v>
+        <v>706608.79963506805</v>
       </c>
       <c r="D408" s="1">
         <v>43936</v>
@@ -8359,7 +8359,7 @@
         <v>46</v>
       </c>
       <c r="C409" s="2">
-        <v>400420.19109570701</v>
+        <v>712811.81928272895</v>
       </c>
       <c r="D409" s="1">
         <v>43937</v>
@@ -8376,7 +8376,7 @@
         <v>47</v>
       </c>
       <c r="C410" s="2">
-        <v>384019.80850438302</v>
+        <v>711643.80545210803</v>
       </c>
       <c r="D410" s="1">
         <v>43938</v>
@@ -8393,7 +8393,7 @@
         <v>48</v>
       </c>
       <c r="C411" s="2">
-        <v>366909.57446907402</v>
+        <v>704089.73194959399</v>
       </c>
       <c r="D411" s="1">
         <v>43939</v>
@@ -8410,7 +8410,7 @@
         <v>49</v>
       </c>
       <c r="C412" s="2">
-        <v>349458.69724652998</v>
+        <v>691207.56340512296</v>
       </c>
       <c r="D412" s="1">
         <v>43940</v>
@@ -8427,7 +8427,7 @@
         <v>50</v>
       </c>
       <c r="C413" s="2">
-        <v>331957.01540490199</v>
+        <v>674039.11916297302</v>
       </c>
       <c r="D413" s="1">
         <v>43941</v>
@@ -8444,7 +8444,7 @@
         <v>51</v>
       </c>
       <c r="C414" s="2">
-        <v>314627.63974253798</v>
+        <v>653551.87959306303</v>
       </c>
       <c r="D414" s="1">
         <v>43942</v>
@@ -8461,7 +8461,7 @@
         <v>52</v>
       </c>
       <c r="C415" s="2">
-        <v>297638.78557533497</v>
+        <v>630606.85280442901</v>
       </c>
       <c r="D415" s="1">
         <v>43943</v>
@@ -8478,7 +8478,7 @@
         <v>53</v>
       </c>
       <c r="C416" s="2">
-        <v>281114.23073364299</v>
+        <v>605945.79497146804</v>
       </c>
       <c r="D416" s="1">
         <v>43944</v>
@@ -8495,7 +8495,7 @@
         <v>54</v>
       </c>
       <c r="C417" s="2">
-        <v>265142.230162844</v>
+        <v>580191.38587553997</v>
       </c>
       <c r="D417" s="1">
         <v>43945</v>
@@ -8512,7 +8512,7 @@
         <v>55</v>
       </c>
       <c r="C418" s="2">
-        <v>249782.93334376</v>
+        <v>553855.14390657202</v>
       </c>
       <c r="D418" s="1">
         <v>43946</v>
@@ -8529,7 +8529,7 @@
         <v>56</v>
       </c>
       <c r="C419" s="2">
-        <v>235074.45418639801</v>
+        <v>527349.28898208495</v>
       </c>
       <c r="D419" s="1">
         <v>43947</v>
@@ -8546,7 +8546,7 @@
         <v>57</v>
       </c>
       <c r="C420" s="2">
-        <v>221037.77932598899</v>
+        <v>501000.04136167001</v>
       </c>
       <c r="D420" s="1">
         <v>43948</v>
@@ -8563,7 +8563,7 @@
         <v>58</v>
       </c>
       <c r="C421" s="2">
-        <v>207680.70445811399</v>
+        <v>475060.76893780899</v>
       </c>
       <c r="D421" s="1">
         <v>43949</v>
@@ -8580,7 +8580,7 @@
         <v>59</v>
       </c>
       <c r="C422" s="2">
-        <v>195000.971009509</v>
+        <v>449724.202997758</v>
       </c>
       <c r="D422" s="1">
         <v>43950</v>
@@ -8597,7 +8597,7 @@
         <v>60</v>
       </c>
       <c r="C423" s="2">
-        <v>182988.753846846</v>
+        <v>425133.23957436002</v>
       </c>
       <c r="D423" s="1">
         <v>43951</v>
@@ -8614,7 +8614,7 @@
         <v>61</v>
       </c>
       <c r="C424" s="2">
-        <v>171628.62654999999</v>
+        <v>401390.29006819101</v>
       </c>
       <c r="D424" s="1">
         <v>43952</v>
@@ -8631,7 +8631,7 @@
         <v>62</v>
       </c>
       <c r="C425" s="2">
-        <v>160901.108817136</v>
+        <v>378565.17123871302</v>
       </c>
       <c r="D425" s="1">
         <v>43953</v>
@@ -8648,7 +8648,7 @@
         <v>63</v>
       </c>
       <c r="C426" s="2">
-        <v>150783.88012838599</v>
+        <v>356701.693156839</v>
       </c>
       <c r="D426" s="1">
         <v>43954</v>
@@ -8665,7 +8665,7 @@
         <v>64</v>
       </c>
       <c r="C427" s="2">
-        <v>141252.729262926</v>
+        <v>335823.09045023599</v>
       </c>
       <c r="D427" s="1">
         <v>43955</v>
@@ -8682,7 +8682,7 @@
         <v>65</v>
       </c>
       <c r="C428" s="2">
-        <v>132282.292924863</v>
+        <v>315936.47022107599</v>
       </c>
       <c r="D428" s="1">
         <v>43956</v>
@@ -8699,7 +8699,7 @@
         <v>66</v>
       </c>
       <c r="C429" s="2">
-        <v>123846.627755939</v>
+        <v>297036.42904948501</v>
       </c>
       <c r="D429" s="1">
         <v>43957</v>
@@ -8716,7 +8716,7 @@
         <v>67</v>
       </c>
       <c r="C430" s="2">
-        <v>115919.650533472</v>
+        <v>279107.98062784801</v>
       </c>
       <c r="D430" s="1">
         <v>43958</v>
@@ -8733,7 +8733,7 @@
         <v>68</v>
       </c>
       <c r="C431" s="2">
-        <v>108475.473476311</v>
+        <v>262128.916294989</v>
       </c>
       <c r="D431" s="1">
         <v>43959</v>
@@ -8750,7 +8750,7 @@
         <v>69</v>
       </c>
       <c r="C432" s="2">
-        <v>101488.65659368</v>
+        <v>246071.69949172699</v>
       </c>
       <c r="D432" s="1">
         <v>43960</v>
@@ -8767,7 +8767,7 @@
         <v>70</v>
       </c>
       <c r="C433" s="2">
-        <v>94934.394849829594</v>
+        <v>230904.98162228399</v>
       </c>
       <c r="D433" s="1">
         <v>43961</v>
@@ -8784,7 +8784,7 @@
         <v>71</v>
       </c>
       <c r="C434" s="2">
-        <v>88788.653688259001</v>
+        <v>216594.809489048</v>
       </c>
       <c r="D434" s="1">
         <v>43962</v>
@@ -8801,7 +8801,7 @@
         <v>72</v>
       </c>
       <c r="C435" s="2">
-        <v>83028.2636876295</v>
+        <v>203105.583048773</v>
       </c>
       <c r="D435" s="1">
         <v>43963</v>
@@ -8818,7 +8818,7 @@
         <v>73</v>
       </c>
       <c r="C436" s="2">
-        <v>77630.983151259599</v>
+        <v>190400.81104543101</v>
       </c>
       <c r="D436" s="1">
         <v>43964</v>
@@ -8835,7 +8835,7 @@
         <v>74</v>
       </c>
       <c r="C437" s="2">
-        <v>72575.535718468294</v>
+        <v>178443.70318326799</v>
       </c>
       <c r="D437" s="1">
         <v>43965</v>
@@ -8852,7 +8852,7 @@
         <v>75</v>
       </c>
       <c r="C438" s="2">
-        <v>67841.628440578294</v>
+        <v>167197.63034311301</v>
       </c>
       <c r="D438" s="1">
         <v>43966</v>
@@ -8869,7 +8869,7 @@
         <v>76</v>
       </c>
       <c r="C439" s="2">
-        <v>63409.954642759098</v>
+        <v>156626.47923589</v>
       </c>
       <c r="D439" s="1">
         <v>43967</v>
@@ -8886,7 +8886,7 @@
         <v>77</v>
       </c>
       <c r="C440" s="2">
-        <v>59262.185153847997</v>
+        <v>146694.92062327301</v>
       </c>
       <c r="D440" s="1">
         <v>43968</v>
@@ -8903,7 +8903,7 @@
         <v>78</v>
       </c>
       <c r="C441" s="2">
-        <v>55380.950750800701</v>
+        <v>137368.60911170099</v>
       </c>
       <c r="D441" s="1">
         <v>43969</v>
@@ -8920,7 +8920,7 @@
         <v>79</v>
       </c>
       <c r="C442" s="2">
-        <v>51749.818022464497</v>
+        <v>128614.328033092</v>
       </c>
       <c r="D442" s="1">
         <v>43970</v>
@@ -8937,7 +8937,7 @@
         <v>80</v>
       </c>
       <c r="C443" s="2">
-        <v>48353.260401731597</v>
+        <v>120400.089746688</v>
       </c>
       <c r="D443" s="1">
         <v>43971</v>
@@ -8954,7 +8954,7 @@
         <v>81</v>
       </c>
       <c r="C444" s="2">
-        <v>45176.625807837001</v>
+        <v>112695.201091326</v>
       </c>
       <c r="D444" s="1">
         <v>43972</v>
@@ -8971,7 +8971,7 @@
         <v>82</v>
       </c>
       <c r="C445" s="2">
-        <v>42206.102054214702</v>
+        <v>105470.30086702399</v>
       </c>
       <c r="D445" s="1">
         <v>43973</v>
@@ -8988,7 +8988,7 @@
         <v>83</v>
       </c>
       <c r="C446" s="2">
-        <v>39428.680806265897</v>
+        <v>98697.375190765801</v>
       </c>
       <c r="D446" s="1">
         <v>43974</v>
@@ -9005,7 +9005,7 @@
         <v>84</v>
       </c>
       <c r="C447" s="2">
-        <v>36832.12097471</v>
+        <v>92349.755470613294</v>
       </c>
       <c r="D447" s="1">
         <v>43975</v>
@@ -9022,7 +9022,7 @@
         <v>85</v>
       </c>
       <c r="C448" s="2">
-        <v>34404.9118808809</v>
+        <v>86402.103080440895</v>
       </c>
       <c r="D448" s="1">
         <v>43976</v>
@@ -9039,7 +9039,7 @@
         <v>86</v>
       </c>
       <c r="C449" s="2">
-        <v>32136.236749885102</v>
+        <v>80830.3836592484</v>
       </c>
       <c r="D449" s="1">
         <v>43977</v>
@@ -9056,7 +9056,7 @@
         <v>87</v>
       </c>
       <c r="C450" s="2">
-        <v>30015.936806690101</v>
+        <v>75611.833593830903</v>
       </c>
       <c r="D450" s="1">
         <v>43978</v>
@@ -9073,7 +9073,7 @@
         <v>88</v>
       </c>
       <c r="C451" s="2">
-        <v>28034.4762393456</v>
+        <v>70724.920868232002</v>
       </c>
       <c r="D451" s="1">
         <v>43979</v>
@@ -9090,7 +9090,7 @@
         <v>89</v>
       </c>
       <c r="C452" s="2">
-        <v>26182.908216670599</v>
+        <v>66149.301713890905</v>
       </c>
       <c r="D452" s="1">
         <v>43980</v>
@@ -9107,7 +9107,7 @@
         <v>90</v>
       </c>
       <c r="C453" s="2">
-        <v>24452.842047543902</v>
+        <v>61865.774560828497</v>
       </c>
       <c r="D453" s="1">
         <v>43981</v>
@@ -9124,7 +9124,7 @@
         <v>91</v>
       </c>
       <c r="C454" s="2">
-        <v>22836.411615071302</v>
+        <v>57856.232202367697</v>
       </c>
       <c r="D454" s="1">
         <v>43982</v>
@@ -9141,7 +9141,7 @@
         <v>92</v>
       </c>
       <c r="C455" s="2">
-        <v>21326.2451478843</v>
+        <v>54103.613264839099</v>
       </c>
       <c r="D455" s="1">
         <v>43983</v>
@@ -9158,7 +9158,7 @@
         <v>93</v>
       </c>
       <c r="C456" s="2">
-        <v>19915.4363028148</v>
+        <v>50591.853275299698</v>
       </c>
       <c r="D456" s="1">
         <v>43984</v>
@@ -9175,7 +9175,7 @@
         <v>94</v>
       </c>
       <c r="C457" s="2">
-        <v>18597.5166204704</v>
+        <v>47305.836297135997</v>
       </c>
       <c r="D457" s="1">
         <v>43985</v>
@@ -9192,7 +9192,7 @@
         <v>95</v>
       </c>
       <c r="C458" s="2">
-        <v>17366.429339639501</v>
+        <v>44231.347111323797</v>
       </c>
       <c r="D458" s="1">
         <v>43986</v>
@@ -9209,7 +9209,7 @@
         <v>96</v>
       </c>
       <c r="C459" s="2">
-        <v>16216.504532687701</v>
+        <v>41355.024609282998</v>
       </c>
       <c r="D459" s="1">
         <v>43987</v>
@@ -9226,7 +9226,7 @@
         <v>97</v>
       </c>
       <c r="C460" s="2">
-        <v>15142.435519635201</v>
+        <v>38664.316426781399</v>
       </c>
       <c r="D460" s="1">
         <v>43988</v>
@@ -9243,7 +9243,7 @@
         <v>98</v>
       </c>
       <c r="C461" s="2">
-        <v>14139.256592592301</v>
+        <v>36147.435039443801</v>
       </c>
       <c r="D461" s="1">
         <v>43989</v>
@@ -9260,7 +9260,7 @@
         <v>99</v>
       </c>
       <c r="C462" s="2">
-        <v>13202.3219532804</v>
+        <v>33793.315498908101</v>
       </c>
       <c r="D462" s="1">
         <v>43990</v>
@@ -9277,7 +9277,7 @@
         <v>100</v>
       </c>
       <c r="C463" s="2">
-        <v>12327.2857966511</v>
+        <v>31591.574808300498</v>
       </c>
       <c r="D463" s="1">
         <v>43991</v>
@@ -9294,7 +9294,7 @@
         <v>101</v>
       </c>
       <c r="C464" s="2">
-        <v>11510.083582494801</v>
+        <v>29532.473062288002</v>
       </c>
       <c r="D464" s="1">
         <v>43992</v>
@@ -9311,7 +9311,7 @@
         <v>102</v>
       </c>
       <c r="C465" s="2">
-        <v>10746.914330739401</v>
+        <v>27606.876294236099</v>
       </c>
       <c r="D465" s="1">
         <v>43993</v>
@@ -9328,7 +9328,7 @@
         <v>103</v>
       </c>
       <c r="C466" s="2">
-        <v>10034.2240148851</v>
+        <v>25806.221100288501</v>
       </c>
       <c r="D466" s="1">
         <v>43994</v>
@@ -9345,7 +9345,7 @@
         <v>104</v>
       </c>
       <c r="C467" s="2">
-        <v>9368.6898811848205</v>
+        <v>24122.4809743449</v>
       </c>
       <c r="D467" s="1">
         <v>43995</v>
@@ -9362,7 +9362,7 @@
         <v>105</v>
       </c>
       <c r="C468" s="2">
-        <v>8747.2057616528691</v>
+        <v>22548.134343827998</v>
       </c>
       <c r="D468" s="1">
         <v>43996</v>
@@ -9379,7 +9379,7 @@
         <v>106</v>
       </c>
       <c r="C469" s="2">
-        <v>8166.86822636332</v>
+        <v>21076.134299178801</v>
       </c>
       <c r="D469" s="1">
         <v>43997</v>
@@ -9396,7 +9396,7 @@
         <v>107</v>
       </c>
       <c r="C470" s="2">
-        <v>7624.9636149442904</v>
+        <v>19699.879846594202</v>
       </c>
       <c r="D470" s="1">
         <v>43998</v>
@@ -9413,7 +9413,7 @@
         <v>108</v>
       </c>
       <c r="C471" s="2">
-        <v>7118.9558366348701</v>
+        <v>18413.1888319545</v>
       </c>
       <c r="D471" s="1">
         <v>43999</v>
@@ -9430,7 +9430,7 @@
         <v>109</v>
       </c>
       <c r="C472" s="2">
-        <v>6646.474951827</v>
+        <v>17210.272246593198</v>
       </c>
       <c r="D472" s="1">
         <v>44000</v>
@@ -9447,7 +9447,7 @@
         <v>110</v>
       </c>
       <c r="C473" s="2">
-        <v>6205.3064369411204</v>
+        <v>16085.710075957501</v>
       </c>
       <c r="D473" s="1">
         <v>44001</v>
@@ -9464,7 +9464,7 @@
         <v>111</v>
       </c>
       <c r="C474" s="2">
-        <v>5793.38113839367</v>
+        <v>15034.4284481085</v>
       </c>
       <c r="D474" s="1">
         <v>44002</v>
@@ -9481,7 +9481,7 @@
         <v>112</v>
       </c>
       <c r="C475" s="2">
-        <v>5408.7658460339799</v>
+        <v>14051.678138056101</v>
       </c>
       <c r="D475" s="1">
         <v>44003</v>
@@ -9498,7 +9498,7 @@
         <v>113</v>
       </c>
       <c r="C476" s="2">
-        <v>5049.6544697961299</v>
+        <v>13133.0143234365</v>
       </c>
       <c r="D476" s="1">
         <v>44004</v>
@@ -9515,7 +9515,7 @@
         <v>114</v>
       </c>
       <c r="C477" s="2">
-        <v>4714.3597682249601</v>
+        <v>12274.277511129199</v>
       </c>
       <c r="D477" s="1">
         <v>44005</v>
@@ -9532,7 +9532,7 @@
         <v>115</v>
       </c>
       <c r="C478" s="2">
-        <v>4401.30560822198</v>
+        <v>11471.575624110101</v>
       </c>
       <c r="D478" s="1">
         <v>44006</v>
@@ -9549,7 +9549,7 @@
         <v>116</v>
       </c>
       <c r="C479" s="2">
-        <v>4109.0197154248499</v>
+        <v>10721.267135935301</v>
       </c>
       <c r="D479" s="1">
         <v>44007</v>
@@ -9566,7 +9566,7 @@
         <v>117</v>
       </c>
       <c r="C480" s="2">
-        <v>3836.1268887286101</v>
+        <v>10019.9452411292</v>
       </c>
       <c r="D480" s="1">
         <v>44008</v>
@@ -9583,7 +9583,7 @@
         <v>118</v>
       </c>
       <c r="C481" s="2">
-        <v>3581.3426510688701</v>
+        <v>9364.4229734365908</v>
       </c>
       <c r="D481" s="1">
         <v>44009</v>
@@ -9600,7 +9600,7 @@
         <v>119</v>
       </c>
       <c r="C482" s="2">
-        <v>3343.4673086263401</v>
+        <v>8751.7192449512404</v>
       </c>
       <c r="D482" s="1">
         <v>44010</v>
@@ -9617,7 +9617,7 @@
         <v>120</v>
       </c>
       <c r="C483" s="2">
-        <v>3121.3803934552102</v>
+        <v>8179.0457341033598</v>
       </c>
       <c r="D483" s="1">
         <v>44011</v>
@@ -9634,7 +9634,7 @@
         <v>121</v>
       </c>
       <c r="C484" s="2">
-        <v>2914.0354630806</v>
+        <v>7643.7945882649401</v>
       </c>
       <c r="D484" s="1">
         <v>44012</v>
@@ -9651,7 +9651,7 @@
         <v>122</v>
       </c>
       <c r="C485" s="2">
-        <v>2720.4552417141399</v>
+        <v>7143.5268856102002</v>
       </c>
       <c r="D485" s="1">
         <v>44013</v>
@@ -9668,7 +9668,7 @@
         <v>123</v>
       </c>
       <c r="C486" s="2">
-        <v>2539.7270729782199</v>
+        <v>6675.9618196633301</v>
       </c>
       <c r="D486" s="1">
         <v>44014</v>
@@ -9685,7 +9685,7 @@
         <v>124</v>
       </c>
       <c r="C487" s="2">
-        <v>2370.9986644471801</v>
+        <v>6238.9665528324203</v>
       </c>
       <c r="D487" s="1">
         <v>44015</v>
@@ -9702,7 +9702,7 @@
         <v>125</v>
       </c>
       <c r="C488" s="2">
-        <v>2213.4741210358402</v>
+        <v>5830.5467168819796</v>
       </c>
       <c r="D488" s="1">
         <v>44016</v>
@@ -9719,7 +9719,7 @@
         <v>126</v>
       </c>
       <c r="C489" s="2">
-        <v>2066.4102237624702</v>
+        <v>5448.8375019408604</v>
       </c>
       <c r="D489" s="1">
         <v>44017</v>
@@ -9736,7 +9736,7 @@
         <v>127</v>
       </c>
       <c r="C490" s="2">
-        <v>1929.1129607001201</v>
+        <v>5092.0953114078702</v>
       </c>
       <c r="D490" s="1">
         <v>44018</v>
@@ -9753,7 +9753,7 @@
         <v>128</v>
       </c>
       <c r="C491" s="2">
-        <v>1800.93428353784</v>
+        <v>4758.6899512957898</v>
       </c>
       <c r="D491" s="1">
         <v>44019</v>
@@ -9770,7 +9770,7 @@
         <v>129</v>
       </c>
       <c r="C492" s="2">
-        <v>1681.2690672313399</v>
+        <v>4447.0972890235198</v>
       </c>
       <c r="D492" s="1">
         <v>44020</v>
@@ -9787,7 +9787,7 @@
         <v>130</v>
       </c>
       <c r="C493" s="2">
-        <v>1569.5522844417901</v>
+        <v>4155.8924353103603</v>
       </c>
       <c r="D493" s="1">
         <v>44021</v>
@@ -9804,7 +9804,7 @@
         <v>131</v>
       </c>
       <c r="C494" s="2">
-        <v>1465.2563517613901</v>
+        <v>3883.7432807657901</v>
       </c>
       <c r="D494" s="1">
         <v>44022</v>
@@ -9821,7 +9821,7 @@
         <v>132</v>
       </c>
       <c r="C495" s="2">
-        <v>1367.8886556188299</v>
+        <v>3629.4045292636702</v>
       </c>
       <c r="D495" s="1">
         <v>44023</v>
@@ -9838,7 +9838,7 @@
         <v>133</v>
       </c>
       <c r="C496" s="2">
-        <v>1276.98924460336</v>
+        <v>3391.7120446505901</v>
       </c>
       <c r="D496" s="1">
         <v>44024</v>
@@ -9855,7 +9855,7 @@
         <v>134</v>
       </c>
       <c r="C497" s="2">
-        <v>1192.1286629994399</v>
+        <v>3169.5775985425098</v>
       </c>
       <c r="D497" s="1">
         <v>44025</v>
@@ -9872,7 +9872,7 @@
         <v>135</v>
       </c>
       <c r="C498" s="2">
-        <v>1112.9059392556101</v>
+        <v>2961.9839509183698</v>
       </c>
       <c r="D498" s="1">
         <v>44026</v>
@@ -9889,7 +9889,7 @@
         <v>136</v>
       </c>
       <c r="C499" s="2">
-        <v>1038.9466986165901</v>
+        <v>2767.9802175712398</v>
       </c>
       <c r="D499" s="1">
         <v>44027</v>
@@ -9906,7 +9906,7 @@
         <v>137</v>
       </c>
       <c r="C500" s="2">
-        <v>969.90139997650499</v>
+        <v>2586.6775939767899</v>
       </c>
       <c r="D500" s="1">
         <v>44028</v>
@@ -9923,7 +9923,7 @@
         <v>138</v>
       </c>
       <c r="C501" s="2">
-        <v>905.44369675568703</v>
+        <v>2417.2452789669801</v>
       </c>
       <c r="D501" s="1">
         <v>44029</v>
@@ -9940,7 +9940,7 @@
         <v>139</v>
       </c>
       <c r="C502" s="2">
-        <v>845.26889550615397</v>
+        <v>2258.9067394406902</v>
       </c>
       <c r="D502" s="1">
         <v>44030</v>
@@ -9957,7 +9957,7 @@
         <v>140</v>
       </c>
       <c r="C503" s="2">
-        <v>789.09252468873694</v>
+        <v>2110.9361480555199</v>
       </c>
       <c r="D503" s="1">
         <v>44031</v>
@@ -9974,7 +9974,7 @@
         <v>141</v>
       </c>
       <c r="C504" s="2">
-        <v>736.64899483295699</v>
+        <v>1972.6551021006601</v>
       </c>
       <c r="D504" s="1">
         <v>44032</v>
@@ -9991,7 +9991,7 @@
         <v>142</v>
       </c>
       <c r="C505" s="2">
-        <v>687.69034341984104</v>
+        <v>1843.42952576691</v>
       </c>
       <c r="D505" s="1">
         <v>44033</v>
@@ -10008,7 +10008,7 @@
         <v>143</v>
       </c>
       <c r="C506" s="2">
-        <v>641.98507133850296</v>
+        <v>1722.6667781938099</v>
       </c>
       <c r="D506" s="1">
         <v>44034</v>
@@ -10025,7 +10025,7 @@
         <v>144</v>
       </c>
       <c r="C507" s="2">
-        <v>599.31704818942603</v>
+        <v>1609.8129665219401</v>
       </c>
       <c r="D507" s="1">
         <v>44035</v>
@@ -10042,7 +10042,7 @@
         <v>145</v>
       </c>
       <c r="C508" s="2">
-        <v>559.48449248469001</v>
+        <v>1504.35039738924</v>
       </c>
       <c r="D508" s="1">
         <v>44036</v>
@@ -10059,7 +10059,7 @@
         <v>146</v>
       </c>
       <c r="C509" s="2">
-        <v>522.29902141319599</v>
+        <v>1405.7952406888501</v>
       </c>
       <c r="D509" s="1">
         <v>44037</v>
@@ -10076,7 +10076,7 @@
         <v>147</v>
       </c>
       <c r="C510" s="2">
-        <v>487.58476324665901</v>
+        <v>1313.6952955013001</v>
       </c>
       <c r="D510" s="1">
         <v>44038</v>
@@ -10093,7 +10093,7 @@
         <v>148</v>
       </c>
       <c r="C511" s="2">
-        <v>455.17752665608498</v>
+        <v>1227.6279457247299</v>
       </c>
       <c r="D511" s="1">
         <v>44039</v>
@@ -10110,7 +10110,7 @@
         <v>149</v>
       </c>
       <c r="C512" s="2">
-        <v>424.92402305794701</v>
+        <v>1147.1982149734299</v>
       </c>
       <c r="D512" s="1">
         <v>44040</v>
@@ -10127,7 +10127,7 @@
         <v>150</v>
       </c>
       <c r="C513" s="2">
-        <v>396.68114505268198</v>
+        <v>1072.0369677727599</v>
       </c>
       <c r="D513" s="1">
         <v>44041</v>
@@ -10144,7 +10144,7 @@
         <v>151</v>
       </c>
       <c r="C514" s="2">
-        <v>370.31529132688701</v>
+        <v>1001.79922284632</v>
       </c>
       <c r="D514" s="1">
         <v>44042</v>
@@ -10161,7 +10161,7 @@
         <v>152</v>
       </c>
       <c r="C515" s="2">
-        <v>345.70173551445902</v>
+        <v>936.16256718450995</v>
       </c>
       <c r="D515" s="1">
         <v>44043</v>
@@ -10178,7 +10178,7 @@
         <v>153</v>
       </c>
       <c r="C516" s="2">
-        <v>322.72403592584402</v>
+        <v>874.82569432138996</v>
       </c>
       <c r="D516" s="1">
         <v>44044</v>
@@ -10195,7 +10195,7 @@
         <v>154</v>
       </c>
       <c r="C517" s="2">
-        <v>301.27348658408602</v>
+        <v>817.50700940509398</v>
       </c>
       <c r="D517" s="1">
         <v>44045</v>
@@ -10212,7 +10212,7 @@
         <v>155</v>
       </c>
       <c r="C518" s="2">
-        <v>281.24860310732902</v>
+        <v>763.94335570547003</v>
       </c>
       <c r="D518" s="1">
         <v>44046</v>
@@ -10229,7 +10229,7 @@
         <v>156</v>
       </c>
       <c r="C519" s="2">
-        <v>262.554643144132</v>
+        <v>713.888796611977</v>
       </c>
       <c r="D519" s="1">
         <v>44047</v>
@@ -10246,7 +10246,7 @@
         <v>157</v>
       </c>
       <c r="C520" s="2">
-        <v>245.10315891776699</v>
+        <v>667.11349829981896</v>
       </c>
       <c r="D520" s="1">
         <v>44048</v>
@@ -10263,7 +10263,7 @@
         <v>158</v>
       </c>
       <c r="C521" s="2">
-        <v>228.81157958402201</v>
+        <v>623.40267235010299</v>
       </c>
       <c r="D521" s="1">
         <v>44049</v>
@@ -10280,7 +10280,7 @@
         <v>159</v>
       </c>
       <c r="C522" s="2">
-        <v>213.602820715837</v>
+        <v>582.55559147700399</v>
       </c>
       <c r="D522" s="1">
         <v>44050</v>
@@ -10297,7 +10297,7 @@
         <v>160</v>
       </c>
       <c r="C523" s="2">
-        <v>199.40491916283099</v>
+        <v>544.38467394037798</v>
       </c>
       <c r="D523" s="1">
         <v>44051</v>

--- a/dataset/corona_pred.xlsx
+++ b/dataset/corona_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57B0645-02B1-4B4D-BFA6-3BCD4F59659A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B85C9-6DB6-40D7-AA2F-8BA0B9D86841}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="12">
   <si>
     <t>tempo</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Infectados 04/04/2020</t>
+  </si>
+  <si>
+    <t>Infectados 20/04/2020</t>
   </si>
 </sst>
 </file>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F683"/>
+  <dimension ref="A1:F843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="D530" sqref="D530"/>
+    <sheetView tabSelected="1" topLeftCell="B830" workbookViewId="0">
+      <selection activeCell="E684" sqref="E684:F843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13026,6 +13029,2726 @@
         <v>10</v>
       </c>
       <c r="F683" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="684" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B684">
+        <v>1</v>
+      </c>
+      <c r="C684" s="2">
+        <v>151</v>
+      </c>
+      <c r="D684" s="1">
+        <v>43904</v>
+      </c>
+      <c r="E684" t="s">
+        <v>11</v>
+      </c>
+      <c r="F684" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="685" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B685">
+        <v>2</v>
+      </c>
+      <c r="C685" s="2">
+        <v>177.12862153473</v>
+      </c>
+      <c r="D685" s="1">
+        <v>43905</v>
+      </c>
+      <c r="E685" t="s">
+        <v>11</v>
+      </c>
+      <c r="F685" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="686" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B686">
+        <v>3</v>
+      </c>
+      <c r="C686" s="2">
+        <v>207.77482081197999</v>
+      </c>
+      <c r="D686" s="1">
+        <v>43906</v>
+      </c>
+      <c r="E686" t="s">
+        <v>11</v>
+      </c>
+      <c r="F686" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="687" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B687">
+        <v>4</v>
+      </c>
+      <c r="C687" s="2">
+        <v>243.71830574427199</v>
+      </c>
+      <c r="D687" s="1">
+        <v>43907</v>
+      </c>
+      <c r="E687" t="s">
+        <v>11</v>
+      </c>
+      <c r="F687" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="688" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B688">
+        <v>5</v>
+      </c>
+      <c r="C688" s="2">
+        <v>285.87284171879497</v>
+      </c>
+      <c r="D688" s="1">
+        <v>43908</v>
+      </c>
+      <c r="E688" t="s">
+        <v>11</v>
+      </c>
+      <c r="F688" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="689" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B689">
+        <v>6</v>
+      </c>
+      <c r="C689" s="2">
+        <v>335.30910801050499</v>
+      </c>
+      <c r="D689" s="1">
+        <v>43909</v>
+      </c>
+      <c r="E689" t="s">
+        <v>11</v>
+      </c>
+      <c r="F689" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="690" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B690">
+        <v>7</v>
+      </c>
+      <c r="C690" s="2">
+        <v>393.28137226823702</v>
+      </c>
+      <c r="D690" s="1">
+        <v>43910</v>
+      </c>
+      <c r="E690" t="s">
+        <v>11</v>
+      </c>
+      <c r="F690" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="691" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B691">
+        <v>8</v>
+      </c>
+      <c r="C691" s="2">
+        <v>461.25861164118697</v>
+      </c>
+      <c r="D691" s="1">
+        <v>43911</v>
+      </c>
+      <c r="E691" t="s">
+        <v>11</v>
+      </c>
+      <c r="F691" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="692" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B692">
+        <v>9</v>
+      </c>
+      <c r="C692" s="2">
+        <v>540.96075910419995</v>
+      </c>
+      <c r="D692" s="1">
+        <v>43912</v>
+      </c>
+      <c r="E692" t="s">
+        <v>11</v>
+      </c>
+      <c r="F692" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B693">
+        <v>10</v>
+      </c>
+      <c r="C693" s="2">
+        <v>634.40088204862604</v>
+      </c>
+      <c r="D693" s="1">
+        <v>43913</v>
+      </c>
+      <c r="E693" t="s">
+        <v>11</v>
+      </c>
+      <c r="F693" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="694" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B694">
+        <v>11</v>
+      </c>
+      <c r="C694" s="2">
+        <v>743.93419369082199</v>
+      </c>
+      <c r="D694" s="1">
+        <v>43914</v>
+      </c>
+      <c r="E694" t="s">
+        <v>11</v>
+      </c>
+      <c r="F694" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="695" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B695">
+        <v>12</v>
+      </c>
+      <c r="C695" s="2">
+        <v>872.31489684864698</v>
+      </c>
+      <c r="D695" s="1">
+        <v>43915</v>
+      </c>
+      <c r="E695" t="s">
+        <v>11</v>
+      </c>
+      <c r="F695" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="696" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B696">
+        <v>13</v>
+      </c>
+      <c r="C696" s="2">
+        <v>1022.7619802443199</v>
+      </c>
+      <c r="D696" s="1">
+        <v>43916</v>
+      </c>
+      <c r="E696" t="s">
+        <v>11</v>
+      </c>
+      <c r="F696" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="697" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B697">
+        <v>14</v>
+      </c>
+      <c r="C697" s="2">
+        <v>1199.0351855823201</v>
+      </c>
+      <c r="D697" s="1">
+        <v>43917</v>
+      </c>
+      <c r="E697" t="s">
+        <v>11</v>
+      </c>
+      <c r="F697" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="698" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B698">
+        <v>15</v>
+      </c>
+      <c r="C698" s="2">
+        <v>1405.52246759682</v>
+      </c>
+      <c r="D698" s="1">
+        <v>43918</v>
+      </c>
+      <c r="E698" t="s">
+        <v>11</v>
+      </c>
+      <c r="F698" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="699" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B699">
+        <v>16</v>
+      </c>
+      <c r="C699" s="2">
+        <v>1647.34031822939</v>
+      </c>
+      <c r="D699" s="1">
+        <v>43919</v>
+      </c>
+      <c r="E699" t="s">
+        <v>11</v>
+      </c>
+      <c r="F699" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="700" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B700">
+        <v>17</v>
+      </c>
+      <c r="C700" s="2">
+        <v>1930.4483619929699</v>
+      </c>
+      <c r="D700" s="1">
+        <v>43920</v>
+      </c>
+      <c r="E700" t="s">
+        <v>11</v>
+      </c>
+      <c r="F700" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="701" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B701">
+        <v>18</v>
+      </c>
+      <c r="C701" s="2">
+        <v>2261.7795735600198</v>
+      </c>
+      <c r="D701" s="1">
+        <v>43921</v>
+      </c>
+      <c r="E701" t="s">
+        <v>11</v>
+      </c>
+      <c r="F701" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="702" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B702">
+        <v>19</v>
+      </c>
+      <c r="C702" s="2">
+        <v>2649.3873089496501</v>
+      </c>
+      <c r="D702" s="1">
+        <v>43922</v>
+      </c>
+      <c r="E702" t="s">
+        <v>11</v>
+      </c>
+      <c r="F702" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="703" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B703">
+        <v>20</v>
+      </c>
+      <c r="C703" s="2">
+        <v>3102.6100262073201</v>
+      </c>
+      <c r="D703" s="1">
+        <v>43923</v>
+      </c>
+      <c r="E703" t="s">
+        <v>11</v>
+      </c>
+      <c r="F703" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="704" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B704">
+        <v>21</v>
+      </c>
+      <c r="C704" s="2">
+        <v>3632.2540266399601</v>
+      </c>
+      <c r="D704" s="1">
+        <v>43924</v>
+      </c>
+      <c r="E704" t="s">
+        <v>11</v>
+      </c>
+      <c r="F704" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B705">
+        <v>22</v>
+      </c>
+      <c r="C705" s="2">
+        <v>4250.7937244182904</v>
+      </c>
+      <c r="D705" s="1">
+        <v>43925</v>
+      </c>
+      <c r="E705" t="s">
+        <v>11</v>
+      </c>
+      <c r="F705" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B706">
+        <v>23</v>
+      </c>
+      <c r="C706" s="2">
+        <v>4972.5875729401696</v>
+      </c>
+      <c r="D706" s="1">
+        <v>43926</v>
+      </c>
+      <c r="E706" t="s">
+        <v>11</v>
+      </c>
+      <c r="F706" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="707" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B707">
+        <v>24</v>
+      </c>
+      <c r="C707" s="2">
+        <v>5814.1060859856098</v>
+      </c>
+      <c r="D707" s="1">
+        <v>43927</v>
+      </c>
+      <c r="E707" t="s">
+        <v>11</v>
+      </c>
+      <c r="F707" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B708">
+        <v>25</v>
+      </c>
+      <c r="C708" s="2">
+        <v>6794.1656734650596</v>
+      </c>
+      <c r="D708" s="1">
+        <v>43928</v>
+      </c>
+      <c r="E708" t="s">
+        <v>11</v>
+      </c>
+      <c r="F708" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B709">
+        <v>26</v>
+      </c>
+      <c r="C709" s="2">
+        <v>7934.15852351374</v>
+      </c>
+      <c r="D709" s="1">
+        <v>43929</v>
+      </c>
+      <c r="E709" t="s">
+        <v>11</v>
+      </c>
+      <c r="F709" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B710">
+        <v>27</v>
+      </c>
+      <c r="C710" s="2">
+        <v>9258.2642746371694</v>
+      </c>
+      <c r="D710" s="1">
+        <v>43930</v>
+      </c>
+      <c r="E710" t="s">
+        <v>11</v>
+      </c>
+      <c r="F710" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="711" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B711">
+        <v>28</v>
+      </c>
+      <c r="C711" s="2">
+        <v>10793.622324067001</v>
+      </c>
+      <c r="D711" s="1">
+        <v>43931</v>
+      </c>
+      <c r="E711" t="s">
+        <v>11</v>
+      </c>
+      <c r="F711" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="712" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B712">
+        <v>29</v>
+      </c>
+      <c r="C712" s="2">
+        <v>12570.438197875899</v>
+      </c>
+      <c r="D712" s="1">
+        <v>43932</v>
+      </c>
+      <c r="E712" t="s">
+        <v>11</v>
+      </c>
+      <c r="F712" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="713" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B713">
+        <v>30</v>
+      </c>
+      <c r="C713" s="2">
+        <v>14621.9848997113</v>
+      </c>
+      <c r="D713" s="1">
+        <v>43933</v>
+      </c>
+      <c r="E713" t="s">
+        <v>11</v>
+      </c>
+      <c r="F713" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="714" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B714">
+        <v>31</v>
+      </c>
+      <c r="C714" s="2">
+        <v>16984.452799087401</v>
+      </c>
+      <c r="D714" s="1">
+        <v>43934</v>
+      </c>
+      <c r="E714" t="s">
+        <v>11</v>
+      </c>
+      <c r="F714" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B715">
+        <v>32</v>
+      </c>
+      <c r="C715" s="2">
+        <v>19696.588101254601</v>
+      </c>
+      <c r="D715" s="1">
+        <v>43935</v>
+      </c>
+      <c r="E715" t="s">
+        <v>11</v>
+      </c>
+      <c r="F715" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="716" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B716">
+        <v>33</v>
+      </c>
+      <c r="C716" s="2">
+        <v>22799.049059653698</v>
+      </c>
+      <c r="D716" s="1">
+        <v>43936</v>
+      </c>
+      <c r="E716" t="s">
+        <v>11</v>
+      </c>
+      <c r="F716" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="717" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B717">
+        <v>34</v>
+      </c>
+      <c r="C717" s="2">
+        <v>26333.400206426901</v>
+      </c>
+      <c r="D717" s="1">
+        <v>43937</v>
+      </c>
+      <c r="E717" t="s">
+        <v>11</v>
+      </c>
+      <c r="F717" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B718">
+        <v>35</v>
+      </c>
+      <c r="C718" s="2">
+        <v>30340.659895128501</v>
+      </c>
+      <c r="D718" s="1">
+        <v>43938</v>
+      </c>
+      <c r="E718" t="s">
+        <v>11</v>
+      </c>
+      <c r="F718" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="719" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B719">
+        <v>36</v>
+      </c>
+      <c r="C719" s="2">
+        <v>34859.321691672398</v>
+      </c>
+      <c r="D719" s="1">
+        <v>43939</v>
+      </c>
+      <c r="E719" t="s">
+        <v>11</v>
+      </c>
+      <c r="F719" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="720" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B720">
+        <v>37</v>
+      </c>
+      <c r="C720" s="2">
+        <v>39922.7890403602</v>
+      </c>
+      <c r="D720" s="1">
+        <v>43940</v>
+      </c>
+      <c r="E720" t="s">
+        <v>11</v>
+      </c>
+      <c r="F720" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="721" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B721">
+        <v>38</v>
+      </c>
+      <c r="C721" s="2">
+        <v>45556.202032442299</v>
+      </c>
+      <c r="D721" s="1">
+        <v>43941</v>
+      </c>
+      <c r="E721" t="s">
+        <v>11</v>
+      </c>
+      <c r="F721" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B722">
+        <v>39</v>
+      </c>
+      <c r="C722" s="2">
+        <v>51772.700120873102</v>
+      </c>
+      <c r="D722" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E722" t="s">
+        <v>11</v>
+      </c>
+      <c r="F722" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="723" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B723">
+        <v>40</v>
+      </c>
+      <c r="C723" s="2">
+        <v>58569.258268646401</v>
+      </c>
+      <c r="D723" s="1">
+        <v>43943</v>
+      </c>
+      <c r="E723" t="s">
+        <v>11</v>
+      </c>
+      <c r="F723" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="724" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B724">
+        <v>41</v>
+      </c>
+      <c r="C724" s="2">
+        <v>65922.353948381395</v>
+      </c>
+      <c r="D724" s="1">
+        <v>43944</v>
+      </c>
+      <c r="E724" t="s">
+        <v>11</v>
+      </c>
+      <c r="F724" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B725">
+        <v>42</v>
+      </c>
+      <c r="C725" s="2">
+        <v>73783.857863771496</v>
+      </c>
+      <c r="D725" s="1">
+        <v>43945</v>
+      </c>
+      <c r="E725" t="s">
+        <v>11</v>
+      </c>
+      <c r="F725" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B726">
+        <v>43</v>
+      </c>
+      <c r="C726" s="2">
+        <v>82077.671572067702</v>
+      </c>
+      <c r="D726" s="1">
+        <v>43946</v>
+      </c>
+      <c r="E726" t="s">
+        <v>11</v>
+      </c>
+      <c r="F726" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="727" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B727">
+        <v>44</v>
+      </c>
+      <c r="C727" s="2">
+        <v>90697.726008925296</v>
+      </c>
+      <c r="D727" s="1">
+        <v>43947</v>
+      </c>
+      <c r="E727" t="s">
+        <v>11</v>
+      </c>
+      <c r="F727" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="728" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B728">
+        <v>45</v>
+      </c>
+      <c r="C728" s="2">
+        <v>99507.968471847693</v>
+      </c>
+      <c r="D728" s="1">
+        <v>43948</v>
+      </c>
+      <c r="E728" t="s">
+        <v>11</v>
+      </c>
+      <c r="F728" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="729" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B729">
+        <v>46</v>
+      </c>
+      <c r="C729" s="2">
+        <v>108344.864317175</v>
+      </c>
+      <c r="D729" s="1">
+        <v>43949</v>
+      </c>
+      <c r="E729" t="s">
+        <v>11</v>
+      </c>
+      <c r="F729" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B730">
+        <v>47</v>
+      </c>
+      <c r="C730" s="2">
+        <v>117022.706228126</v>
+      </c>
+      <c r="D730" s="1">
+        <v>43950</v>
+      </c>
+      <c r="E730" t="s">
+        <v>11</v>
+      </c>
+      <c r="F730" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="731" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B731">
+        <v>48</v>
+      </c>
+      <c r="C731" s="2">
+        <v>125341.651318298</v>
+      </c>
+      <c r="D731" s="1">
+        <v>43951</v>
+      </c>
+      <c r="E731" t="s">
+        <v>11</v>
+      </c>
+      <c r="F731" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B732">
+        <v>49</v>
+      </c>
+      <c r="C732" s="2">
+        <v>133098.01435527799</v>
+      </c>
+      <c r="D732" s="1">
+        <v>43952</v>
+      </c>
+      <c r="E732" t="s">
+        <v>11</v>
+      </c>
+      <c r="F732" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="733" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B733">
+        <v>50</v>
+      </c>
+      <c r="C733" s="2">
+        <v>140095.875110903</v>
+      </c>
+      <c r="D733" s="1">
+        <v>43953</v>
+      </c>
+      <c r="E733" t="s">
+        <v>11</v>
+      </c>
+      <c r="F733" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="734" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B734">
+        <v>51</v>
+      </c>
+      <c r="C734" s="2">
+        <v>146158.81271648101</v>
+      </c>
+      <c r="D734" s="1">
+        <v>43954</v>
+      </c>
+      <c r="E734" t="s">
+        <v>11</v>
+      </c>
+      <c r="F734" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="735" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B735">
+        <v>52</v>
+      </c>
+      <c r="C735" s="2">
+        <v>151140.444037982</v>
+      </c>
+      <c r="D735" s="1">
+        <v>43955</v>
+      </c>
+      <c r="E735" t="s">
+        <v>11</v>
+      </c>
+      <c r="F735" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="736" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B736">
+        <v>53</v>
+      </c>
+      <c r="C736" s="2">
+        <v>154932.59879359501</v>
+      </c>
+      <c r="D736" s="1">
+        <v>43956</v>
+      </c>
+      <c r="E736" t="s">
+        <v>11</v>
+      </c>
+      <c r="F736" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="737" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B737">
+        <v>54</v>
+      </c>
+      <c r="C737" s="2">
+        <v>157470.305436294</v>
+      </c>
+      <c r="D737" s="1">
+        <v>43957</v>
+      </c>
+      <c r="E737" t="s">
+        <v>11</v>
+      </c>
+      <c r="F737" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="738" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B738">
+        <v>55</v>
+      </c>
+      <c r="C738" s="2">
+        <v>158733.23980326499</v>
+      </c>
+      <c r="D738" s="1">
+        <v>43958</v>
+      </c>
+      <c r="E738" t="s">
+        <v>11</v>
+      </c>
+      <c r="F738" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="739" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B739">
+        <v>56</v>
+      </c>
+      <c r="C739" s="2">
+        <v>158743.78211146701</v>
+      </c>
+      <c r="D739" s="1">
+        <v>43959</v>
+      </c>
+      <c r="E739" t="s">
+        <v>11</v>
+      </c>
+      <c r="F739" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="740" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B740">
+        <v>57</v>
+      </c>
+      <c r="C740" s="2">
+        <v>157562.254657857</v>
+      </c>
+      <c r="D740" s="1">
+        <v>43960</v>
+      </c>
+      <c r="E740" t="s">
+        <v>11</v>
+      </c>
+      <c r="F740" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="741" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B741">
+        <v>58</v>
+      </c>
+      <c r="C741" s="2">
+        <v>155280.155894822</v>
+      </c>
+      <c r="D741" s="1">
+        <v>43961</v>
+      </c>
+      <c r="E741" t="s">
+        <v>11</v>
+      </c>
+      <c r="F741" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="742" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B742">
+        <v>59</v>
+      </c>
+      <c r="C742" s="2">
+        <v>152012.31421760999</v>
+      </c>
+      <c r="D742" s="1">
+        <v>43962</v>
+      </c>
+      <c r="E742" t="s">
+        <v>11</v>
+      </c>
+      <c r="F742" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="743" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B743">
+        <v>60</v>
+      </c>
+      <c r="C743" s="2">
+        <v>147888.82323404201</v>
+      </c>
+      <c r="D743" s="1">
+        <v>43963</v>
+      </c>
+      <c r="E743" t="s">
+        <v>11</v>
+      </c>
+      <c r="F743" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="744" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B744">
+        <v>61</v>
+      </c>
+      <c r="C744" s="2">
+        <v>143047.45705738501</v>
+      </c>
+      <c r="D744" s="1">
+        <v>43964</v>
+      </c>
+      <c r="E744" t="s">
+        <v>11</v>
+      </c>
+      <c r="F744" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="745" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B745">
+        <v>62</v>
+      </c>
+      <c r="C745" s="2">
+        <v>137627.046916703</v>
+      </c>
+      <c r="D745" s="1">
+        <v>43965</v>
+      </c>
+      <c r="E745" t="s">
+        <v>11</v>
+      </c>
+      <c r="F745" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="746" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B746">
+        <v>63</v>
+      </c>
+      <c r="C746" s="2">
+        <v>131762.094353833</v>
+      </c>
+      <c r="D746" s="1">
+        <v>43966</v>
+      </c>
+      <c r="E746" t="s">
+        <v>11</v>
+      </c>
+      <c r="F746" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="747" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B747">
+        <v>64</v>
+      </c>
+      <c r="C747" s="2">
+        <v>125578.705487082</v>
+      </c>
+      <c r="D747" s="1">
+        <v>43967</v>
+      </c>
+      <c r="E747" t="s">
+        <v>11</v>
+      </c>
+      <c r="F747" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="748" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B748">
+        <v>65</v>
+      </c>
+      <c r="C748" s="2">
+        <v>119191.796200741</v>
+      </c>
+      <c r="D748" s="1">
+        <v>43968</v>
+      </c>
+      <c r="E748" t="s">
+        <v>11</v>
+      </c>
+      <c r="F748" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="749" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B749">
+        <v>66</v>
+      </c>
+      <c r="C749" s="2">
+        <v>112703.423701583</v>
+      </c>
+      <c r="D749" s="1">
+        <v>43969</v>
+      </c>
+      <c r="E749" t="s">
+        <v>11</v>
+      </c>
+      <c r="F749" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="750" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B750">
+        <v>67</v>
+      </c>
+      <c r="C750" s="2">
+        <v>106202.05577049</v>
+      </c>
+      <c r="D750" s="1">
+        <v>43970</v>
+      </c>
+      <c r="E750" t="s">
+        <v>11</v>
+      </c>
+      <c r="F750" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="751" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B751">
+        <v>68</v>
+      </c>
+      <c r="C751" s="2">
+        <v>99762.573322752607</v>
+      </c>
+      <c r="D751" s="1">
+        <v>43971</v>
+      </c>
+      <c r="E751" t="s">
+        <v>11</v>
+      </c>
+      <c r="F751" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="752" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B752">
+        <v>69</v>
+      </c>
+      <c r="C752" s="2">
+        <v>93446.812219625106</v>
+      </c>
+      <c r="D752" s="1">
+        <v>43972</v>
+      </c>
+      <c r="E752" t="s">
+        <v>11</v>
+      </c>
+      <c r="F752" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="753" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B753">
+        <v>70</v>
+      </c>
+      <c r="C753" s="2">
+        <v>87304.472168831402</v>
+      </c>
+      <c r="D753" s="1">
+        <v>43973</v>
+      </c>
+      <c r="E753" t="s">
+        <v>11</v>
+      </c>
+      <c r="F753" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="754" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B754">
+        <v>71</v>
+      </c>
+      <c r="C754" s="2">
+        <v>81374.249914204804</v>
+      </c>
+      <c r="D754" s="1">
+        <v>43974</v>
+      </c>
+      <c r="E754" t="s">
+        <v>11</v>
+      </c>
+      <c r="F754" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="755" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B755">
+        <v>72</v>
+      </c>
+      <c r="C755" s="2">
+        <v>75685.083747484998</v>
+      </c>
+      <c r="D755" s="1">
+        <v>43975</v>
+      </c>
+      <c r="E755" t="s">
+        <v>11</v>
+      </c>
+      <c r="F755" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="756" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B756">
+        <v>73</v>
+      </c>
+      <c r="C756" s="2">
+        <v>70257.424668778505</v>
+      </c>
+      <c r="D756" s="1">
+        <v>43976</v>
+      </c>
+      <c r="E756" t="s">
+        <v>11</v>
+      </c>
+      <c r="F756" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="757" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B757">
+        <v>74</v>
+      </c>
+      <c r="C757" s="2">
+        <v>65104.473742284703</v>
+      </c>
+      <c r="D757" s="1">
+        <v>43977</v>
+      </c>
+      <c r="E757" t="s">
+        <v>11</v>
+      </c>
+      <c r="F757" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="758" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B758">
+        <v>75</v>
+      </c>
+      <c r="C758" s="2">
+        <v>60233.345476982802</v>
+      </c>
+      <c r="D758" s="1">
+        <v>43978</v>
+      </c>
+      <c r="E758" t="s">
+        <v>11</v>
+      </c>
+      <c r="F758" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="759" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B759">
+        <v>76</v>
+      </c>
+      <c r="C759" s="2">
+        <v>55646.132822122898</v>
+      </c>
+      <c r="D759" s="1">
+        <v>43979</v>
+      </c>
+      <c r="E759" t="s">
+        <v>11</v>
+      </c>
+      <c r="F759" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="760" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B760">
+        <v>77</v>
+      </c>
+      <c r="C760" s="2">
+        <v>51340.861361327603</v>
+      </c>
+      <c r="D760" s="1">
+        <v>43980</v>
+      </c>
+      <c r="E760" t="s">
+        <v>11</v>
+      </c>
+      <c r="F760" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="761" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B761">
+        <v>78</v>
+      </c>
+      <c r="C761" s="2">
+        <v>47312.328974578202</v>
+      </c>
+      <c r="D761" s="1">
+        <v>43981</v>
+      </c>
+      <c r="E761" t="s">
+        <v>11</v>
+      </c>
+      <c r="F761" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="762" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B762">
+        <v>79</v>
+      </c>
+      <c r="C762" s="2">
+        <v>43552.833257191</v>
+      </c>
+      <c r="D762" s="1">
+        <v>43982</v>
+      </c>
+      <c r="E762" t="s">
+        <v>11</v>
+      </c>
+      <c r="F762" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="763" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B763">
+        <v>80</v>
+      </c>
+      <c r="C763" s="2">
+        <v>40052.792902123998</v>
+      </c>
+      <c r="D763" s="1">
+        <v>43983</v>
+      </c>
+      <c r="E763" t="s">
+        <v>11</v>
+      </c>
+      <c r="F763" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="764" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B764">
+        <v>81</v>
+      </c>
+      <c r="C764" s="2">
+        <v>36801.271585878698</v>
+      </c>
+      <c r="D764" s="1">
+        <v>43984</v>
+      </c>
+      <c r="E764" t="s">
+        <v>11</v>
+      </c>
+      <c r="F764" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="765" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B765">
+        <v>82</v>
+      </c>
+      <c r="C765" s="2">
+        <v>33786.414099578098</v>
+      </c>
+      <c r="D765" s="1">
+        <v>43985</v>
+      </c>
+      <c r="E765" t="s">
+        <v>11</v>
+      </c>
+      <c r="F765" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="766" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B766">
+        <v>83</v>
+      </c>
+      <c r="C766" s="2">
+        <v>30995.804998426102</v>
+      </c>
+      <c r="D766" s="1">
+        <v>43986</v>
+      </c>
+      <c r="E766" t="s">
+        <v>11</v>
+      </c>
+      <c r="F766" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="767" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B767">
+        <v>84</v>
+      </c>
+      <c r="C767" s="2">
+        <v>28416.759105728801</v>
+      </c>
+      <c r="D767" s="1">
+        <v>43987</v>
+      </c>
+      <c r="E767" t="s">
+        <v>11</v>
+      </c>
+      <c r="F767" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="768" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B768">
+        <v>85</v>
+      </c>
+      <c r="C768" s="2">
+        <v>26036.554082431699</v>
+      </c>
+      <c r="D768" s="1">
+        <v>43988</v>
+      </c>
+      <c r="E768" t="s">
+        <v>11</v>
+      </c>
+      <c r="F768" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="769" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B769">
+        <v>86</v>
+      </c>
+      <c r="C769" s="2">
+        <v>23842.613062878401</v>
+      </c>
+      <c r="D769" s="1">
+        <v>43989</v>
+      </c>
+      <c r="E769" t="s">
+        <v>11</v>
+      </c>
+      <c r="F769" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="770" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B770">
+        <v>87</v>
+      </c>
+      <c r="C770" s="2">
+        <v>21822.645391228602</v>
+      </c>
+      <c r="D770" s="1">
+        <v>43990</v>
+      </c>
+      <c r="E770" t="s">
+        <v>11</v>
+      </c>
+      <c r="F770" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="771" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B771">
+        <v>88</v>
+      </c>
+      <c r="C771" s="2">
+        <v>19964.752314376099</v>
+      </c>
+      <c r="D771" s="1">
+        <v>43991</v>
+      </c>
+      <c r="E771" t="s">
+        <v>11</v>
+      </c>
+      <c r="F771" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="772" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B772">
+        <v>89</v>
+      </c>
+      <c r="C772" s="2">
+        <v>18257.5036921955</v>
+      </c>
+      <c r="D772" s="1">
+        <v>43992</v>
+      </c>
+      <c r="E772" t="s">
+        <v>11</v>
+      </c>
+      <c r="F772" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="773" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B773">
+        <v>90</v>
+      </c>
+      <c r="C773" s="2">
+        <v>16689.990904447099</v>
+      </c>
+      <c r="D773" s="1">
+        <v>43993</v>
+      </c>
+      <c r="E773" t="s">
+        <v>11</v>
+      </c>
+      <c r="F773" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="774" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B774">
+        <v>91</v>
+      </c>
+      <c r="C774" s="2">
+        <v>15251.860523387901</v>
+      </c>
+      <c r="D774" s="1">
+        <v>43994</v>
+      </c>
+      <c r="E774" t="s">
+        <v>11</v>
+      </c>
+      <c r="F774" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="775" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B775">
+        <v>92</v>
+      </c>
+      <c r="C775" s="2">
+        <v>13933.332483296001</v>
+      </c>
+      <c r="D775" s="1">
+        <v>43995</v>
+      </c>
+      <c r="E775" t="s">
+        <v>11</v>
+      </c>
+      <c r="F775" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="776" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B776">
+        <v>93</v>
+      </c>
+      <c r="C776" s="2">
+        <v>12725.205985655701</v>
+      </c>
+      <c r="D776" s="1">
+        <v>43996</v>
+      </c>
+      <c r="E776" t="s">
+        <v>11</v>
+      </c>
+      <c r="F776" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="777" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B777">
+        <v>94</v>
+      </c>
+      <c r="C777" s="2">
+        <v>11618.855831987999</v>
+      </c>
+      <c r="D777" s="1">
+        <v>43997</v>
+      </c>
+      <c r="E777" t="s">
+        <v>11</v>
+      </c>
+      <c r="F777" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="778" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B778">
+        <v>95</v>
+      </c>
+      <c r="C778" s="2">
+        <v>10606.2214149459</v>
+      </c>
+      <c r="D778" s="1">
+        <v>43998</v>
+      </c>
+      <c r="E778" t="s">
+        <v>11</v>
+      </c>
+      <c r="F778" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="779" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B779">
+        <v>96</v>
+      </c>
+      <c r="C779" s="2">
+        <v>9679.7901769357104</v>
+      </c>
+      <c r="D779" s="1">
+        <v>43999</v>
+      </c>
+      <c r="E779" t="s">
+        <v>11</v>
+      </c>
+      <c r="F779" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="780" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B780">
+        <v>97</v>
+      </c>
+      <c r="C780" s="2">
+        <v>8832.5770697877106</v>
+      </c>
+      <c r="D780" s="1">
+        <v>44000</v>
+      </c>
+      <c r="E780" t="s">
+        <v>11</v>
+      </c>
+      <c r="F780" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="781" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B781">
+        <v>98</v>
+      </c>
+      <c r="C781" s="2">
+        <v>8058.1012304032602</v>
+      </c>
+      <c r="D781" s="1">
+        <v>44001</v>
+      </c>
+      <c r="E781" t="s">
+        <v>11</v>
+      </c>
+      <c r="F781" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="782" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B782">
+        <v>99</v>
+      </c>
+      <c r="C782" s="2">
+        <v>7350.3608460969199</v>
+      </c>
+      <c r="D782" s="1">
+        <v>44002</v>
+      </c>
+      <c r="E782" t="s">
+        <v>11</v>
+      </c>
+      <c r="F782" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="783" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B783">
+        <v>100</v>
+      </c>
+      <c r="C783" s="2">
+        <v>6703.80699874928</v>
+      </c>
+      <c r="D783" s="1">
+        <v>44003</v>
+      </c>
+      <c r="E783" t="s">
+        <v>11</v>
+      </c>
+      <c r="F783" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="784" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B784">
+        <v>101</v>
+      </c>
+      <c r="C784" s="2">
+        <v>6113.3171024141102</v>
+      </c>
+      <c r="D784" s="1">
+        <v>44004</v>
+      </c>
+      <c r="E784" t="s">
+        <v>11</v>
+      </c>
+      <c r="F784" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="785" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B785">
+        <v>102</v>
+      </c>
+      <c r="C785" s="2">
+        <v>5574.1684185855902</v>
+      </c>
+      <c r="D785" s="1">
+        <v>44005</v>
+      </c>
+      <c r="E785" t="s">
+        <v>11</v>
+      </c>
+      <c r="F785" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="786" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B786">
+        <v>103</v>
+      </c>
+      <c r="C786" s="2">
+        <v>5082.0120123942197</v>
+      </c>
+      <c r="D786" s="1">
+        <v>44006</v>
+      </c>
+      <c r="E786" t="s">
+        <v>11</v>
+      </c>
+      <c r="F786" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="787" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B787">
+        <v>104</v>
+      </c>
+      <c r="C787" s="2">
+        <v>4632.8474316297998</v>
+      </c>
+      <c r="D787" s="1">
+        <v>44007</v>
+      </c>
+      <c r="E787" t="s">
+        <v>11</v>
+      </c>
+      <c r="F787" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="788" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B788">
+        <v>105</v>
+      </c>
+      <c r="C788" s="2">
+        <v>4222.9982984220896</v>
+      </c>
+      <c r="D788" s="1">
+        <v>44008</v>
+      </c>
+      <c r="E788" t="s">
+        <v>11</v>
+      </c>
+      <c r="F788" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="789" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B789">
+        <v>106</v>
+      </c>
+      <c r="C789" s="2">
+        <v>3849.0889382739701</v>
+      </c>
+      <c r="D789" s="1">
+        <v>44009</v>
+      </c>
+      <c r="E789" t="s">
+        <v>11</v>
+      </c>
+      <c r="F789" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B790">
+        <v>107</v>
+      </c>
+      <c r="C790" s="2">
+        <v>3508.02221818619</v>
+      </c>
+      <c r="D790" s="1">
+        <v>44010</v>
+      </c>
+      <c r="E790" t="s">
+        <v>11</v>
+      </c>
+      <c r="F790" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="791" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B791">
+        <v>108</v>
+      </c>
+      <c r="C791" s="2">
+        <v>3196.9585231329202</v>
+      </c>
+      <c r="D791" s="1">
+        <v>44011</v>
+      </c>
+      <c r="E791" t="s">
+        <v>11</v>
+      </c>
+      <c r="F791" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="792" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B792">
+        <v>109</v>
+      </c>
+      <c r="C792" s="2">
+        <v>2913.2959766700101</v>
+      </c>
+      <c r="D792" s="1">
+        <v>44012</v>
+      </c>
+      <c r="E792" t="s">
+        <v>11</v>
+      </c>
+      <c r="F792" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="793" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B793">
+        <v>110</v>
+      </c>
+      <c r="C793" s="2">
+        <v>2654.6519083708799</v>
+      </c>
+      <c r="D793" s="1">
+        <v>44013</v>
+      </c>
+      <c r="E793" t="s">
+        <v>11</v>
+      </c>
+      <c r="F793" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="794" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B794">
+        <v>111</v>
+      </c>
+      <c r="C794" s="2">
+        <v>2418.8454904752398</v>
+      </c>
+      <c r="D794" s="1">
+        <v>44014</v>
+      </c>
+      <c r="E794" t="s">
+        <v>11</v>
+      </c>
+      <c r="F794" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="795" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B795">
+        <v>112</v>
+      </c>
+      <c r="C795" s="2">
+        <v>2203.8815741024</v>
+      </c>
+      <c r="D795" s="1">
+        <v>44015</v>
+      </c>
+      <c r="E795" t="s">
+        <v>11</v>
+      </c>
+      <c r="F795" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="796" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B796">
+        <v>113</v>
+      </c>
+      <c r="C796" s="2">
+        <v>2007.9356458638099</v>
+      </c>
+      <c r="D796" s="1">
+        <v>44016</v>
+      </c>
+      <c r="E796" t="s">
+        <v>11</v>
+      </c>
+      <c r="F796" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B797">
+        <v>114</v>
+      </c>
+      <c r="C797" s="2">
+        <v>1829.3398627777599</v>
+      </c>
+      <c r="D797" s="1">
+        <v>44017</v>
+      </c>
+      <c r="E797" t="s">
+        <v>11</v>
+      </c>
+      <c r="F797" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="798" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B798">
+        <v>115</v>
+      </c>
+      <c r="C798" s="2">
+        <v>1666.57013376702</v>
+      </c>
+      <c r="D798" s="1">
+        <v>44018</v>
+      </c>
+      <c r="E798" t="s">
+        <v>11</v>
+      </c>
+      <c r="F798" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="799" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B799">
+        <v>116</v>
+      </c>
+      <c r="C799" s="2">
+        <v>1518.23415915283</v>
+      </c>
+      <c r="D799" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E799" t="s">
+        <v>11</v>
+      </c>
+      <c r="F799" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="800" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B800">
+        <v>117</v>
+      </c>
+      <c r="C800" s="2">
+        <v>1383.0603935045001</v>
+      </c>
+      <c r="D800" s="1">
+        <v>44020</v>
+      </c>
+      <c r="E800" t="s">
+        <v>11</v>
+      </c>
+      <c r="F800" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="801" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B801">
+        <v>118</v>
+      </c>
+      <c r="C801" s="2">
+        <v>1259.88787500631</v>
+      </c>
+      <c r="D801" s="1">
+        <v>44021</v>
+      </c>
+      <c r="E801" t="s">
+        <v>11</v>
+      </c>
+      <c r="F801" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="802" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B802">
+        <v>119</v>
+      </c>
+      <c r="C802" s="2">
+        <v>1147.65685389089</v>
+      </c>
+      <c r="D802" s="1">
+        <v>44022</v>
+      </c>
+      <c r="E802" t="s">
+        <v>11</v>
+      </c>
+      <c r="F802" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="803" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B803">
+        <v>120</v>
+      </c>
+      <c r="C803" s="2">
+        <v>1045.4001692311599</v>
+      </c>
+      <c r="D803" s="1">
+        <v>44023</v>
+      </c>
+      <c r="E803" t="s">
+        <v>11</v>
+      </c>
+      <c r="F803" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="804" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B804">
+        <v>121</v>
+      </c>
+      <c r="C804" s="2">
+        <v>952.23533743793098</v>
+      </c>
+      <c r="D804" s="1">
+        <v>44024</v>
+      </c>
+      <c r="E804" t="s">
+        <v>11</v>
+      </c>
+      <c r="F804" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="805" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B805">
+        <v>122</v>
+      </c>
+      <c r="C805" s="2">
+        <v>867.357268997966</v>
+      </c>
+      <c r="D805" s="1">
+        <v>44025</v>
+      </c>
+      <c r="E805" t="s">
+        <v>11</v>
+      </c>
+      <c r="F805" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="806" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B806">
+        <v>123</v>
+      </c>
+      <c r="C806" s="2">
+        <v>790.03160951158202</v>
+      </c>
+      <c r="D806" s="1">
+        <v>44026</v>
+      </c>
+      <c r="E806" t="s">
+        <v>11</v>
+      </c>
+      <c r="F806" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="807" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B807">
+        <v>124</v>
+      </c>
+      <c r="C807" s="2">
+        <v>719.58860934970699</v>
+      </c>
+      <c r="D807" s="1">
+        <v>44027</v>
+      </c>
+      <c r="E807" t="s">
+        <v>11</v>
+      </c>
+      <c r="F807" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="808" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B808">
+        <v>125</v>
+      </c>
+      <c r="C808" s="2">
+        <v>655.41753002312601</v>
+      </c>
+      <c r="D808" s="1">
+        <v>44028</v>
+      </c>
+      <c r="E808" t="s">
+        <v>11</v>
+      </c>
+      <c r="F808" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="809" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B809">
+        <v>126</v>
+      </c>
+      <c r="C809" s="2">
+        <v>596.96150395917698</v>
+      </c>
+      <c r="D809" s="1">
+        <v>44029</v>
+      </c>
+      <c r="E809" t="s">
+        <v>11</v>
+      </c>
+      <c r="F809" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="810" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B810">
+        <v>127</v>
+      </c>
+      <c r="C810" s="2">
+        <v>543.71284116044399</v>
+      </c>
+      <c r="D810" s="1">
+        <v>44030</v>
+      </c>
+      <c r="E810" t="s">
+        <v>11</v>
+      </c>
+      <c r="F810" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="811" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B811">
+        <v>128</v>
+      </c>
+      <c r="C811" s="2">
+        <v>495.20873221233899</v>
+      </c>
+      <c r="D811" s="1">
+        <v>44031</v>
+      </c>
+      <c r="E811" t="s">
+        <v>11</v>
+      </c>
+      <c r="F811" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="812" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B812">
+        <v>129</v>
+      </c>
+      <c r="C812" s="2">
+        <v>451.02731473136402</v>
+      </c>
+      <c r="D812" s="1">
+        <v>44032</v>
+      </c>
+      <c r="E812" t="s">
+        <v>11</v>
+      </c>
+      <c r="F812" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="813" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B813">
+        <v>130</v>
+      </c>
+      <c r="C813" s="2">
+        <v>410.78408835383698</v>
+      </c>
+      <c r="D813" s="1">
+        <v>44033</v>
+      </c>
+      <c r="E813" t="s">
+        <v>11</v>
+      </c>
+      <c r="F813" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="814" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B814">
+        <v>131</v>
+      </c>
+      <c r="C814" s="2">
+        <v>374.12862365728802</v>
+      </c>
+      <c r="D814" s="1">
+        <v>44034</v>
+      </c>
+      <c r="E814" t="s">
+        <v>11</v>
+      </c>
+      <c r="F814" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="815" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B815">
+        <v>132</v>
+      </c>
+      <c r="C815" s="2">
+        <v>340.74157316805201</v>
+      </c>
+      <c r="D815" s="1">
+        <v>44035</v>
+      </c>
+      <c r="E815" t="s">
+        <v>11</v>
+      </c>
+      <c r="F815" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="816" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B816">
+        <v>133</v>
+      </c>
+      <c r="C816" s="2">
+        <v>310.331924775343</v>
+      </c>
+      <c r="D816" s="1">
+        <v>44036</v>
+      </c>
+      <c r="E816" t="s">
+        <v>11</v>
+      </c>
+      <c r="F816" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="817" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B817">
+        <v>134</v>
+      </c>
+      <c r="C817" s="2">
+        <v>282.63450771740099</v>
+      </c>
+      <c r="D817" s="1">
+        <v>44037</v>
+      </c>
+      <c r="E817" t="s">
+        <v>11</v>
+      </c>
+      <c r="F817" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="818" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B818">
+        <v>135</v>
+      </c>
+      <c r="C818" s="2">
+        <v>257.407707479321</v>
+      </c>
+      <c r="D818" s="1">
+        <v>44038</v>
+      </c>
+      <c r="E818" t="s">
+        <v>11</v>
+      </c>
+      <c r="F818" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="819" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B819">
+        <v>136</v>
+      </c>
+      <c r="C819" s="2">
+        <v>234.43138341377301</v>
+      </c>
+      <c r="D819" s="1">
+        <v>44039</v>
+      </c>
+      <c r="E819" t="s">
+        <v>11</v>
+      </c>
+      <c r="F819" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="820" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B820">
+        <v>137</v>
+      </c>
+      <c r="C820" s="2">
+        <v>213.504970908708</v>
+      </c>
+      <c r="D820" s="1">
+        <v>44040</v>
+      </c>
+      <c r="E820" t="s">
+        <v>11</v>
+      </c>
+      <c r="F820" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="821" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B821">
+        <v>138</v>
+      </c>
+      <c r="C821" s="2">
+        <v>194.44574359112499</v>
+      </c>
+      <c r="D821" s="1">
+        <v>44041</v>
+      </c>
+      <c r="E821" t="s">
+        <v>11</v>
+      </c>
+      <c r="F821" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="822" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B822">
+        <v>139</v>
+      </c>
+      <c r="C822" s="2">
+        <v>177.08723757957901</v>
+      </c>
+      <c r="D822" s="1">
+        <v>44042</v>
+      </c>
+      <c r="E822" t="s">
+        <v>11</v>
+      </c>
+      <c r="F822" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="823" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B823">
+        <v>140</v>
+      </c>
+      <c r="C823" s="2">
+        <v>161.27780375810801</v>
+      </c>
+      <c r="D823" s="1">
+        <v>44043</v>
+      </c>
+      <c r="E823" t="s">
+        <v>11</v>
+      </c>
+      <c r="F823" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="824" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B824">
+        <v>141</v>
+      </c>
+      <c r="C824" s="2">
+        <v>146.87929789679799</v>
+      </c>
+      <c r="D824" s="1">
+        <v>44044</v>
+      </c>
+      <c r="E824" t="s">
+        <v>11</v>
+      </c>
+      <c r="F824" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="825" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B825">
+        <v>142</v>
+      </c>
+      <c r="C825" s="2">
+        <v>133.76587796357899</v>
+      </c>
+      <c r="D825" s="1">
+        <v>44045</v>
+      </c>
+      <c r="E825" t="s">
+        <v>11</v>
+      </c>
+      <c r="F825" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="826" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B826">
+        <v>143</v>
+      </c>
+      <c r="C826" s="2">
+        <v>121.822912999734</v>
+      </c>
+      <c r="D826" s="1">
+        <v>44046</v>
+      </c>
+      <c r="E826" t="s">
+        <v>11</v>
+      </c>
+      <c r="F826" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="827" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B827">
+        <v>144</v>
+      </c>
+      <c r="C827" s="2">
+        <v>110.945986511558</v>
+      </c>
+      <c r="D827" s="1">
+        <v>44047</v>
+      </c>
+      <c r="E827" t="s">
+        <v>11</v>
+      </c>
+      <c r="F827" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="828" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B828">
+        <v>145</v>
+      </c>
+      <c r="C828" s="2">
+        <v>101.03998699709</v>
+      </c>
+      <c r="D828" s="1">
+        <v>44048</v>
+      </c>
+      <c r="E828" t="s">
+        <v>11</v>
+      </c>
+      <c r="F828" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="829" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B829">
+        <v>146</v>
+      </c>
+      <c r="C829" s="2">
+        <v>92.018282402953204</v>
+      </c>
+      <c r="D829" s="1">
+        <v>44049</v>
+      </c>
+      <c r="E829" t="s">
+        <v>11</v>
+      </c>
+      <c r="F829" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B830">
+        <v>147</v>
+      </c>
+      <c r="C830" s="2">
+        <v>83.801962828104294</v>
+      </c>
+      <c r="D830" s="1">
+        <v>44050</v>
+      </c>
+      <c r="E830" t="s">
+        <v>11</v>
+      </c>
+      <c r="F830" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="831" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B831">
+        <v>148</v>
+      </c>
+      <c r="C831" s="2">
+        <v>76.3191559900703</v>
+      </c>
+      <c r="D831" s="1">
+        <v>44051</v>
+      </c>
+      <c r="E831" t="s">
+        <v>11</v>
+      </c>
+      <c r="F831" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="832" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B832">
+        <v>149</v>
+      </c>
+      <c r="C832" s="2">
+        <v>69.504398088780704</v>
+      </c>
+      <c r="D832" s="1">
+        <v>44052</v>
+      </c>
+      <c r="E832" t="s">
+        <v>11</v>
+      </c>
+      <c r="F832" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="833" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B833">
+        <v>150</v>
+      </c>
+      <c r="C833" s="2">
+        <v>63.298064822758903</v>
+      </c>
+      <c r="D833" s="1">
+        <v>44053</v>
+      </c>
+      <c r="E833" t="s">
+        <v>11</v>
+      </c>
+      <c r="F833" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="834" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B834">
+        <v>151</v>
+      </c>
+      <c r="C834" s="2">
+        <v>57.645850235815402</v>
+      </c>
+      <c r="D834" s="1">
+        <v>44054</v>
+      </c>
+      <c r="E834" t="s">
+        <v>11</v>
+      </c>
+      <c r="F834" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="835" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B835">
+        <v>152</v>
+      </c>
+      <c r="C835" s="2">
+        <v>52.498292922304401</v>
+      </c>
+      <c r="D835" s="1">
+        <v>44055</v>
+      </c>
+      <c r="E835" t="s">
+        <v>11</v>
+      </c>
+      <c r="F835" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="836" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B836">
+        <v>153</v>
+      </c>
+      <c r="C836" s="2">
+        <v>47.810344850605901</v>
+      </c>
+      <c r="D836" s="1">
+        <v>44056</v>
+      </c>
+      <c r="E836" t="s">
+        <v>11</v>
+      </c>
+      <c r="F836" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="837" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B837">
+        <v>154</v>
+      </c>
+      <c r="C837" s="2">
+        <v>43.540976871483103</v>
+      </c>
+      <c r="D837" s="1">
+        <v>44057</v>
+      </c>
+      <c r="E837" t="s">
+        <v>11</v>
+      </c>
+      <c r="F837" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="838" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B838">
+        <v>155</v>
+      </c>
+      <c r="C838" s="2">
+        <v>39.652821773339298</v>
+      </c>
+      <c r="D838" s="1">
+        <v>44058</v>
+      </c>
+      <c r="E838" t="s">
+        <v>11</v>
+      </c>
+      <c r="F838" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="839" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B839">
+        <v>156</v>
+      </c>
+      <c r="C839" s="2">
+        <v>36.111846340933397</v>
+      </c>
+      <c r="D839" s="1">
+        <v>44059</v>
+      </c>
+      <c r="E839" t="s">
+        <v>11</v>
+      </c>
+      <c r="F839" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="840" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B840">
+        <v>157</v>
+      </c>
+      <c r="C840" s="2">
+        <v>32.887055273245998</v>
+      </c>
+      <c r="D840" s="1">
+        <v>44060</v>
+      </c>
+      <c r="E840" t="s">
+        <v>11</v>
+      </c>
+      <c r="F840" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="841" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B841">
+        <v>158</v>
+      </c>
+      <c r="C841" s="2">
+        <v>29.950219317155302</v>
+      </c>
+      <c r="D841" s="1">
+        <v>44061</v>
+      </c>
+      <c r="E841" t="s">
+        <v>11</v>
+      </c>
+      <c r="F841" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B842">
+        <v>159</v>
+      </c>
+      <c r="C842" s="2">
+        <v>27.2756289998173</v>
+      </c>
+      <c r="D842" s="1">
+        <v>44062</v>
+      </c>
+      <c r="E842" t="s">
+        <v>11</v>
+      </c>
+      <c r="F842" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="843" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B843">
+        <v>160</v>
+      </c>
+      <c r="C843" s="2">
+        <v>24.839869781168598</v>
+      </c>
+      <c r="D843" s="1">
+        <v>44063</v>
+      </c>
+      <c r="E843" t="s">
+        <v>11</v>
+      </c>
+      <c r="F843" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dataset/corona_pred.xlsx
+++ b/dataset/corona_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\braeued1\Documents\Octavio\projetos\Covid19_data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E06BD6-F55F-4698-9F22-125B0AAB58A6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D10D86-607B-43C6-9CC9-37C22918B73D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B841" workbookViewId="0">
-      <selection activeCell="C844" sqref="C844:C1003"/>
+    <sheetView tabSelected="1" topLeftCell="B997" workbookViewId="0">
+      <selection activeCell="C1005" sqref="C1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18500,7 +18500,7 @@
         <v>2</v>
       </c>
       <c r="C1005" s="2">
-        <v>172.426719948308</v>
+        <v>167.415794160986</v>
       </c>
       <c r="D1005" s="1">
         <v>43905</v>
@@ -18517,7 +18517,7 @@
         <v>3</v>
       </c>
       <c r="C1006" s="2">
-        <v>196.89358490099201</v>
+        <v>185.615814721448</v>
       </c>
       <c r="D1006" s="1">
         <v>43906</v>
@@ -18534,7 +18534,7 @@
         <v>4</v>
       </c>
       <c r="C1007" s="2">
-        <v>224.831862364485</v>
+        <v>205.79389703368301</v>
       </c>
       <c r="D1007" s="1">
         <v>43907</v>
@@ -18551,7 +18551,7 @@
         <v>5</v>
       </c>
       <c r="C1008" s="2">
-        <v>256.73397281253398</v>
+        <v>228.164913928419</v>
       </c>
       <c r="D1008" s="1">
         <v>43908</v>
@@ -18568,7 +18568,7 @@
         <v>6</v>
       </c>
       <c r="C1009" s="2">
-        <v>293.162152502087</v>
+        <v>252.96705345845001</v>
       </c>
       <c r="D1009" s="1">
         <v>43909</v>
@@ -18585,7 +18585,7 @@
         <v>7</v>
       </c>
       <c r="C1010" s="2">
-        <v>334.758343027828</v>
+        <v>280.4643431531</v>
       </c>
       <c r="D1010" s="1">
         <v>43910</v>
@@ -18602,7 +18602,7 @@
         <v>8</v>
       </c>
       <c r="C1011" s="2">
-        <v>382.25547289727302</v>
+        <v>310.94944619060402</v>
       </c>
       <c r="D1011" s="1">
         <v>43911</v>
@@ -18619,7 +18619,7 @@
         <v>9</v>
       </c>
       <c r="C1012" s="2">
-        <v>436.49034340314302</v>
+        <v>344.74675766030202</v>
       </c>
       <c r="D1012" s="1">
         <v>43912</v>
@@ -18636,7 +18636,7 @@
         <v>10</v>
       </c>
       <c r="C1013" s="2">
-        <v>498.41832316602699</v>
+        <v>382.215833031991</v>
       </c>
       <c r="D1013" s="1">
         <v>43913</v>
@@ -18653,7 +18653,7 @@
         <v>11</v>
       </c>
       <c r="C1014" s="2">
-        <v>569.13011638560295</v>
+        <v>423.755189140678</v>
       </c>
       <c r="D1014" s="1">
         <v>43914</v>
@@ -18670,7 +18670,7 @@
         <v>12</v>
       </c>
       <c r="C1015" s="2">
-        <v>649.87089840048804</v>
+        <v>469.80650762344902</v>
       </c>
       <c r="D1015" s="1">
         <v>43915</v>
@@ -18687,7 +18687,7 @@
         <v>13</v>
       </c>
       <c r="C1016" s="2">
-        <v>742.062141195447</v>
+        <v>520.85928792525601</v>
       </c>
       <c r="D1016" s="1">
         <v>43916</v>
@@ -18704,7 +18704,7 @@
         <v>14</v>
       </c>
       <c r="C1017" s="2">
-        <v>847.32650851539995</v>
+        <v>577.45600163926997</v>
       </c>
       <c r="D1017" s="1">
         <v>43917</v>
@@ -18721,7 +18721,7 @@
         <v>15</v>
       </c>
       <c r="C1018" s="2">
-        <v>967.51624677491895</v>
+        <v>640.197793689577</v>
       </c>
       <c r="D1018" s="1">
         <v>43918</v>
@@ -18738,7 +18738,7 @@
         <v>16</v>
       </c>
       <c r="C1019" s="2">
-        <v>1104.7455521291399</v>
+        <v>709.75079051110697</v>
       </c>
       <c r="D1019" s="1">
         <v>43919</v>
@@ -18755,7 +18755,7 @@
         <v>17</v>
       </c>
       <c r="C1020" s="2">
-        <v>1261.4274744844299</v>
+        <v>786.85307784534302</v>
       </c>
       <c r="D1020" s="1">
         <v>43920</v>
@@ -18772,7 +18772,7 @@
         <v>18</v>
       </c>
       <c r="C1021" s="2">
-        <v>1440.3159696569101</v>
+        <v>872.32241814107499</v>
       </c>
       <c r="D1021" s="1">
         <v>43921</v>
@@ -18789,7 +18789,7 @@
         <v>19</v>
       </c>
       <c r="C1022" s="2">
-        <v>1644.5538138050499</v>
+        <v>967.064780117076</v>
       </c>
       <c r="D1022" s="1">
         <v>43922</v>
@@ -18806,7 +18806,7 @@
         <v>20</v>
       </c>
       <c r="C1023" s="2">
-        <v>1877.7271763235301</v>
+        <v>1072.08376764219</v>
       </c>
       <c r="D1023" s="1">
         <v>43923</v>
@@ -18823,7 +18823,7 @@
         <v>21</v>
       </c>
       <c r="C1024" s="2">
-        <v>2143.9277531828302</v>
+        <v>1188.49103490992</v>
       </c>
       <c r="D1024" s="1">
         <v>43924</v>
@@ -18840,7 +18840,7 @@
         <v>22</v>
       </c>
       <c r="C1025" s="2">
-        <v>2447.8234794303398</v>
+        <v>1317.51779342083</v>
       </c>
       <c r="D1025" s="1">
         <v>43925</v>
@@ -18857,7 +18857,7 @@
         <v>23</v>
       </c>
       <c r="C1026" s="2">
-        <v>2794.73896598395</v>
+        <v>1460.5275064108901</v>
       </c>
       <c r="D1026" s="1">
         <v>43926</v>
@@ -18874,7 +18874,7 @@
         <v>24</v>
       </c>
       <c r="C1027" s="2">
-        <v>3190.74694654116</v>
+        <v>1619.0298980214</v>
       </c>
       <c r="D1027" s="1">
         <v>43927</v>
@@ -18891,7 +18891,7 @@
         <v>25</v>
       </c>
       <c r="C1028" s="2">
-        <v>3642.77217453102</v>
+        <v>1794.6964078891201</v>
       </c>
       <c r="D1028" s="1">
         <v>43928</v>
@@ -18908,7 +18908,7 @@
         <v>26</v>
       </c>
       <c r="C1029" s="2">
-        <v>4158.7093824866197</v>
+        <v>1989.3772118643799</v>
       </c>
       <c r="D1029" s="1">
         <v>43929</v>
@@ -18925,7 +18925,7 @@
         <v>27</v>
       </c>
       <c r="C1030" s="2">
-        <v>4747.55708690755</v>
+        <v>2205.1199717948998</v>
       </c>
       <c r="D1030" s="1">
         <v>43930</v>
@@ -18942,7 +18942,7 @@
         <v>28</v>
       </c>
       <c r="C1031" s="2">
-        <v>5419.5692224643799</v>
+        <v>2444.1904745890301</v>
       </c>
       <c r="D1031" s="1">
         <v>43931</v>
@@ -18959,7 +18959,7 @@
         <v>29</v>
       </c>
       <c r="C1032" s="2">
-        <v>6186.42677839711</v>
+        <v>2709.0953131477299</v>
       </c>
       <c r="D1032" s="1">
         <v>43932</v>
@@ -18976,7 +18976,7 @@
         <v>30</v>
       </c>
       <c r="C1033" s="2">
-        <v>7061.4318889969099</v>
+        <v>3002.6068070695001</v>
       </c>
       <c r="D1033" s="1">
         <v>43933</v>
@@ -18993,7 +18993,7 @@
         <v>31</v>
       </c>
       <c r="C1034" s="2">
-        <v>8059.7268477706402</v>
+        <v>3327.79035175432</v>
       </c>
       <c r="D1034" s="1">
         <v>43934</v>
@@ -19010,7 +19010,7 @@
         <v>32</v>
       </c>
       <c r="C1035" s="2">
-        <v>9198.5409536173593</v>
+        <v>3688.0343797816499</v>
       </c>
       <c r="D1035" s="1">
         <v>43935</v>
@@ -19027,7 +19027,7 @@
         <v>33</v>
       </c>
       <c r="C1036" s="2">
-        <v>10497.4681151441</v>
+        <v>4087.08316074307</v>
       </c>
       <c r="D1036" s="1">
         <v>43936</v>
@@ -19044,7 +19044,7 @@
         <v>34</v>
       </c>
       <c r="C1037" s="2">
-        <v>11978.778307262601</v>
+        <v>4529.0726454200903</v>
       </c>
       <c r="D1037" s="1">
         <v>43937</v>
@@ -19061,7 +19061,7 @@
         <v>35</v>
       </c>
       <c r="C1038" s="2">
-        <v>13667.766052552</v>
+        <v>5018.5695597256999</v>
       </c>
       <c r="D1038" s="1">
         <v>43938</v>
@@ -19078,7 +19078,7 @@
         <v>36</v>
       </c>
       <c r="C1039" s="2">
-        <v>15593.139102192001</v>
+        <v>5560.6139727875598</v>
       </c>
       <c r="D1039" s="1">
         <v>43939</v>
@@ -19095,7 +19095,7 @@
         <v>37</v>
       </c>
       <c r="C1040" s="2">
-        <v>17787.450298253199</v>
+        <v>6160.7655350180003</v>
       </c>
       <c r="D1040" s="1">
         <v>43940</v>
@@ -19112,7 +19112,7 @@
         <v>38</v>
       </c>
       <c r="C1041" s="2">
-        <v>20287.575291474499</v>
+        <v>6825.15361307281</v>
       </c>
       <c r="D1041" s="1">
         <v>43941</v>
@@ -19129,7 +19129,7 @@
         <v>39</v>
       </c>
       <c r="C1042" s="2">
-        <v>23135.238180759901</v>
+        <v>7560.5313821975897</v>
       </c>
       <c r="D1042" s="1">
         <v>43942</v>
@@ -19146,7 +19146,7 @@
         <v>40</v>
       </c>
       <c r="C1043" s="2">
-        <v>26377.586169642302</v>
+        <v>8374.3341860910405</v>
       </c>
       <c r="D1043" s="1">
         <v>43943</v>
@@ -19163,7 +19163,7 @@
         <v>41</v>
       </c>
       <c r="C1044" s="2">
-        <v>30067.813022733</v>
+        <v>9274.7420000117199</v>
       </c>
       <c r="D1044" s="1">
         <v>43944</v>
@@ -19180,7 +19180,7 @@
         <v>42</v>
       </c>
       <c r="C1045" s="2">
-        <v>34265.829063158599</v>
+        <v>10270.7463155483</v>
       </c>
       <c r="D1045" s="1">
         <v>43945</v>
@@ -19197,7 +19197,7 @@
         <v>43</v>
       </c>
       <c r="C1046" s="2">
-        <v>39038.97276045</v>
+        <v>11372.221003177699</v>
       </c>
       <c r="D1046" s="1">
         <v>43946</v>
@@ -19214,7 +19214,7 @@
         <v>44</v>
       </c>
       <c r="C1047" s="2">
-        <v>44462.755145208197</v>
+        <v>12589.9973557425</v>
       </c>
       <c r="D1047" s="1">
         <v>43947</v>
@@ -19231,7 +19231,7 @@
         <v>45</v>
       </c>
       <c r="C1048" s="2">
-        <v>50621.623634777701</v>
+        <v>13935.9425421616</v>
       </c>
       <c r="D1048" s="1">
         <v>43948</v>
@@ -19248,7 +19248,7 @@
         <v>46</v>
       </c>
       <c r="C1049" s="2">
-        <v>57609.725435082</v>
+        <v>15423.0413209382</v>
       </c>
       <c r="D1049" s="1">
         <v>43949</v>
@@ -19265,7 +19265,7 @@
         <v>47</v>
       </c>
       <c r="C1050" s="2">
-        <v>65531.642762622403</v>
+        <v>17065.479940207399</v>
       </c>
       <c r="D1050" s="1">
         <v>43950</v>
@@ -19282,7 +19282,7 @@
         <v>48</v>
       </c>
       <c r="C1051" s="2">
-        <v>74503.060732491504</v>
+        <v>18878.7312615999</v>
       </c>
       <c r="D1051" s="1">
         <v>43951</v>
@@ -19299,7 +19299,7 @@
         <v>49</v>
       </c>
       <c r="C1052" s="2">
-        <v>84651.320186702796</v>
+        <v>20879.639812737802</v>
       </c>
       <c r="D1052" s="1">
         <v>43952</v>
@@ -19316,7 +19316,7 @@
         <v>50</v>
       </c>
       <c r="C1053" s="2">
-        <v>96115.786797620094</v>
+        <v>23086.504432866899</v>
       </c>
       <c r="D1053" s="1">
         <v>43953</v>
@@ -19333,7 +19333,7 @@
         <v>51</v>
       </c>
       <c r="C1054" s="2">
-        <v>109047.95611026599</v>
+        <v>25519.157047699999</v>
       </c>
       <c r="D1054" s="1">
         <v>43954</v>
@@ -19350,7 +19350,7 @@
         <v>52</v>
       </c>
       <c r="C1055" s="2">
-        <v>123611.19075175701</v>
+        <v>28199.0331440521</v>
       </c>
       <c r="D1055" s="1">
         <v>43955</v>
@@ -19367,7 +19367,7 @@
         <v>53</v>
       </c>
       <c r="C1056" s="2">
-        <v>139979.96519469901</v>
+        <v>31149.231530768</v>
       </c>
       <c r="D1056" s="1">
         <v>43956</v>
@@ -19384,7 +19384,7 @@
         <v>54</v>
       </c>
       <c r="C1057" s="2">
-        <v>158338.47069645501</v>
+        <v>34394.5590636001</v>
       </c>
       <c r="D1057" s="1">
         <v>43957</v>
@@ -19401,7 +19401,7 @@
         <v>55</v>
       </c>
       <c r="C1058" s="2">
-        <v>178878.41177074701</v>
+        <v>37961.552740840802</v>
       </c>
       <c r="D1058" s="1">
         <v>43958</v>
@@ -19418,7 +19418,7 @@
         <v>56</v>
       </c>
       <c r="C1059" s="2">
-        <v>201795.80660166699</v>
+        <v>41878.475199225897</v>
       </c>
       <c r="D1059" s="1">
         <v>43959</v>
@@ -19435,7 +19435,7 @@
         <v>57</v>
       </c>
       <c r="C1060" s="2">
-        <v>227286.59484187799</v>
+        <v>46175.274670362604</v>
       </c>
       <c r="D1060" s="1">
         <v>43960</v>
@@ -19452,7 +19452,7 @@
         <v>58</v>
       </c>
       <c r="C1061" s="2">
-        <v>255540.858813361</v>
+        <v>50883.500665969499</v>
       </c>
       <c r="D1061" s="1">
         <v>43961</v>
@@ -19469,7 +19469,7 @@
         <v>59</v>
       </c>
       <c r="C1062" s="2">
-        <v>286735.48739877401</v>
+        <v>56036.1654176749</v>
       </c>
       <c r="D1062" s="1">
         <v>43962</v>
@@ -19486,7 +19486,7 @@
         <v>60</v>
       </c>
       <c r="C1063" s="2">
-        <v>321025.16294031998</v>
+        <v>61667.539715983003</v>
       </c>
       <c r="D1063" s="1">
         <v>43963</v>
@@ -19503,7 +19503,7 @@
         <v>61</v>
       </c>
       <c r="C1064" s="2">
-        <v>358531.638659677</v>
+        <v>67812.871008906106</v>
       </c>
       <c r="D1064" s="1">
         <v>43964</v>
@@ -19520,7 +19520,7 @@
         <v>62</v>
       </c>
       <c r="C1065" s="2">
-        <v>399331.40457967098</v>
+        <v>74508.009953348796</v>
       </c>
       <c r="D1065" s="1">
         <v>43965</v>
@@ -19537,7 +19537,7 @@
         <v>63</v>
       </c>
       <c r="C1066" s="2">
-        <v>443442.01804628101</v>
+        <v>81788.931968482197</v>
       </c>
       <c r="D1066" s="1">
         <v>43966</v>
@@ -19554,7 +19554,7 @@
         <v>64</v>
       </c>
       <c r="C1067" s="2">
-        <v>490807.59923564998</v>
+        <v>89691.139784176004</v>
       </c>
       <c r="D1067" s="1">
         <v>43967</v>
@@ -19571,7 +19571,7 @@
         <v>65</v>
       </c>
       <c r="C1068" s="2">
-        <v>541284.25303142099</v>
+        <v>98248.9343278054</v>
       </c>
       <c r="D1068" s="1">
         <v>43968</v>
@@ -19588,7 +19588,7 @@
         <v>66</v>
       </c>
       <c r="C1069" s="2">
-        <v>594626.45109716395</v>
+        <v>107494.54229101499</v>
       </c>
       <c r="D1069" s="1">
         <v>43969</v>
@@ -19605,7 +19605,7 @@
         <v>67</v>
       </c>
       <c r="C1070" s="2">
-        <v>650475.660993814</v>
+        <v>117457.09238416</v>
       </c>
       <c r="D1070" s="1">
         <v>43970</v>
@@ -19622,7 +19622,7 @@
         <v>68</v>
       </c>
       <c r="C1071" s="2">
-        <v>708352.69336689997</v>
+        <v>128161.43802015</v>
       </c>
       <c r="D1071" s="1">
         <v>43971</v>
@@ -19639,7 +19639,7 @@
         <v>69</v>
       </c>
       <c r="C1072" s="2">
-        <v>767655.29239795799</v>
+        <v>139626.82797429</v>
       </c>
       <c r="D1072" s="1">
         <v>43972</v>
@@ -19656,7 +19656,7 @@
         <v>70</v>
       </c>
       <c r="C1073" s="2">
-        <v>827662.36983708595</v>
+        <v>151865.43754098899</v>
       </c>
       <c r="D1073" s="1">
         <v>43973</v>
@@ -19673,7 +19673,7 @@
         <v>71</v>
       </c>
       <c r="C1074" s="2">
-        <v>887545.94176650303</v>
+        <v>164880.784520863</v>
       </c>
       <c r="D1074" s="1">
         <v>43974</v>
@@ -19690,7 +19690,7 @@
         <v>72</v>
       </c>
       <c r="C1075" s="2">
-        <v>946391.23807276797</v>
+        <v>178666.0623053</v>
       </c>
       <c r="D1075" s="1">
         <v>43975</v>
@@ -19707,7 +19707,7 @@
         <v>73</v>
       </c>
       <c r="C1076" s="2">
-        <v>1003224.70344692</v>
+        <v>193202.44140089501</v>
       </c>
       <c r="D1076" s="1">
         <v>43976</v>
@@ -19724,7 +19724,7 @@
         <v>74</v>
       </c>
       <c r="C1077" s="2">
-        <v>1057048.7207317699</v>
+        <v>208457.40621318301</v>
       </c>
       <c r="D1077" s="1">
         <v>43977</v>
@@ -19741,7 +19741,7 @@
         <v>75</v>
       </c>
       <c r="C1078" s="2">
-        <v>1106881.0021605899</v>
+        <v>224383.204073409</v>
       </c>
       <c r="D1078" s="1">
         <v>43978</v>
@@ -19758,7 +19758,7 @@
         <v>76</v>
       </c>
       <c r="C1079" s="2">
-        <v>1151795.89386539</v>
+        <v>240915.50369280099</v>
       </c>
       <c r="D1079" s="1">
         <v>43979</v>
@@ -19775,7 +19775,7 @@
         <v>77</v>
       </c>
       <c r="C1080" s="2">
-        <v>1190964.42146028</v>
+        <v>257972.36832508899</v>
       </c>
       <c r="D1080" s="1">
         <v>43980</v>
@@ -19792,7 +19792,7 @@
         <v>78</v>
       </c>
       <c r="C1081" s="2">
-        <v>1223689.87991448</v>
+        <v>275453.651387066</v>
       </c>
       <c r="D1081" s="1">
         <v>43981</v>
@@ -19809,7 +19809,7 @@
         <v>79</v>
       </c>
       <c r="C1082" s="2">
-        <v>1249436.1598539399</v>
+        <v>293240.930524392</v>
       </c>
       <c r="D1082" s="1">
         <v>43982</v>
@@ -19826,7 +19826,7 @@
         <v>80</v>
       </c>
       <c r="C1083" s="2">
-        <v>1267846.70743203</v>
+        <v>311198.07055308699</v>
       </c>
       <c r="D1083" s="1">
         <v>43983</v>
@@ -19843,7 +19843,7 @@
         <v>81</v>
       </c>
       <c r="C1084" s="2">
-        <v>1278753.0449252799</v>
+        <v>329172.496263712</v>
       </c>
       <c r="D1084" s="1">
         <v>43984</v>
@@ -19860,7 +19860,7 @@
         <v>82</v>
       </c>
       <c r="C1085" s="2">
-        <v>1282172.8174111799</v>
+        <v>346997.23342002602</v>
       </c>
       <c r="D1085" s="1">
         <v>43985</v>
@@ -19877,7 +19877,7 @@
         <v>83</v>
       </c>
       <c r="C1086" s="2">
-        <v>1278298.30228679</v>
+        <v>364493.69793494203</v>
       </c>
       <c r="D1086" s="1">
         <v>43986</v>
@@ -19894,7 +19894,7 @@
         <v>84</v>
       </c>
       <c r="C1087" s="2">
-        <v>1267477.08238633</v>
+        <v>381475.21788735897</v>
       </c>
       <c r="D1087" s="1">
         <v>43987</v>
@@ -19911,7 +19911,7 @@
         <v>85</v>
       </c>
       <c r="C1088" s="2">
-        <v>1250187.04660874</v>
+        <v>397751.183735119</v>
       </c>
       <c r="D1088" s="1">
         <v>43988</v>
@@ -19928,7 +19928,7 @@
         <v>86</v>
       </c>
       <c r="C1089" s="2">
-        <v>1227008.07944418</v>
+        <v>413131.66613535403</v>
       </c>
       <c r="D1089" s="1">
         <v>43989</v>
@@ -19945,7 +19945,7 @@
         <v>87</v>
       </c>
       <c r="C1090" s="2">
-        <v>1198592.6730784101</v>
+        <v>427432.34177530103</v>
       </c>
       <c r="D1090" s="1">
         <v>43990</v>
@@ -19962,7 +19962,7 @@
         <v>88</v>
       </c>
       <c r="C1091" s="2">
-        <v>1165637.3849452699</v>
+        <v>440479.46793008101</v>
       </c>
       <c r="D1091" s="1">
         <v>43991</v>
@@ -19979,7 +19979,7 @@
         <v>89</v>
       </c>
       <c r="C1092" s="2">
-        <v>1128856.64399274</v>
+        <v>452114.692946797</v>
       </c>
       <c r="D1092" s="1">
         <v>43992</v>
@@ -19996,7 +19996,7 @@
         <v>90</v>
       </c>
       <c r="C1093" s="2">
-        <v>1088959.93527711</v>
+        <v>462199.44169566699</v>
       </c>
       <c r="D1093" s="1">
         <v>43993</v>
@@ -20013,7 +20013,7 @@
         <v>91</v>
       </c>
       <c r="C1094" s="2">
-        <v>1046632.93741098</v>
+        <v>470618.64543685701</v>
       </c>
       <c r="D1094" s="1">
         <v>43994</v>
@@ -20030,7 +20030,7 @@
         <v>92</v>
       </c>
       <c r="C1095" s="2">
-        <v>1002522.80027868</v>
+        <v>477283.69961150602</v>
       </c>
       <c r="D1095" s="1">
         <v>43995</v>
@@ -20047,7 +20047,7 @@
         <v>93</v>
       </c>
       <c r="C1096" s="2">
-        <v>957227.42587596399</v>
+        <v>482134.40040355403</v>
       </c>
       <c r="D1096" s="1">
         <v>43996</v>
@@ -20064,7 +20064,7 @@
         <v>94</v>
       </c>
       <c r="C1097" s="2">
-        <v>911288.41487076902</v>
+        <v>485139.88755175</v>
       </c>
       <c r="D1097" s="1">
         <v>43997</v>
@@ -20081,7 +20081,7 @@
         <v>95</v>
       </c>
       <c r="C1098" s="2">
-        <v>865187.22467202204</v>
+        <v>486298.58611300797</v>
       </c>
       <c r="D1098" s="1">
         <v>43998</v>
@@ -20098,7 +20098,7 @@
         <v>96</v>
       </c>
       <c r="C1099" s="2">
-        <v>819343.981612326</v>
+        <v>485637.11810246098</v>
       </c>
       <c r="D1099" s="1">
         <v>43999</v>
@@ -20115,7 +20115,7 @@
         <v>97</v>
       </c>
       <c r="C1100" s="2">
-        <v>774118.40260419098</v>
+        <v>483208.39903080702</v>
       </c>
       <c r="D1100" s="1">
         <v>44000</v>
@@ -20132,7 +20132,7 @@
         <v>98</v>
       </c>
       <c r="C1101" s="2">
-        <v>729812.31852149998</v>
+        <v>479088.99020255799</v>
       </c>
       <c r="D1101" s="1">
         <v>44001</v>
@@ -20149,7 +20149,7 @@
         <v>99</v>
       </c>
       <c r="C1102" s="2">
-        <v>686673.33937438496</v>
+        <v>473375.91598417697</v>
       </c>
       <c r="D1102" s="1">
         <v>44002</v>
@@ -20166,7 +20166,7 @@
         <v>100</v>
       </c>
       <c r="C1103" s="2">
-        <v>644899.26777723501</v>
+        <v>466183.126213182</v>
       </c>
       <c r="D1103" s="1">
         <v>44003</v>
@@ -20183,7 +20183,7 @@
         <v>101</v>
       </c>
       <c r="C1104" s="2">
-        <v>604642.91742492304</v>
+        <v>457637.77223579102</v>
       </c>
       <c r="D1104" s="1">
         <v>44004</v>
@@ -20200,7 +20200,7 @@
         <v>102</v>
       </c>
       <c r="C1105" s="2">
-        <v>566017.09804386401</v>
+        <v>447876.48048774601</v>
       </c>
       <c r="D1105" s="1">
         <v>44005</v>
@@ -20217,7 +20217,7 @@
         <v>103</v>
       </c>
       <c r="C1106" s="2">
-        <v>529099.560114227</v>
+        <v>437041.75615204498</v>
       </c>
       <c r="D1106" s="1">
         <v>44006</v>
@@ -20234,7 +20234,7 @@
         <v>104</v>
       </c>
       <c r="C1107" s="2">
-        <v>493937.75305090199</v>
+        <v>425278.63706810802</v>
       </c>
       <c r="D1107" s="1">
         <v>44007</v>
@@ -20251,7 +20251,7 @@
         <v>105</v>
       </c>
       <c r="C1108" s="2">
-        <v>460553.30001246999</v>
+        <v>412731.68510293798</v>
       </c>
       <c r="D1108" s="1">
         <v>44008</v>
@@ -20268,7 +20268,7 @@
         <v>106</v>
       </c>
       <c r="C1109" s="2">
-        <v>428946.12790073099</v>
+        <v>399542.36939083098</v>
       </c>
       <c r="D1109" s="1">
         <v>44009</v>
@@ -20285,7 +20285,7 @@
         <v>107</v>
       </c>
       <c r="C1110" s="2">
-        <v>399098.21775300102</v>
+        <v>385846.87400417402</v>
       </c>
       <c r="D1110" s="1">
         <v>44010</v>
@@ -20302,7 +20302,7 @@
         <v>108</v>
       </c>
       <c r="C1111" s="2">
-        <v>370976.95636267902</v>
+        <v>371774.33401978499</v>
       </c>
       <c r="D1111" s="1">
         <v>44011</v>
@@ -20319,7 +20319,7 @@
         <v>109</v>
       </c>
       <c r="C1112" s="2">
-        <v>344538.10614121699</v>
+        <v>357445.48630152701</v>
       </c>
       <c r="D1112" s="1">
         <v>44012</v>
@@ -20336,7 +20336,7 @@
         <v>110</v>
       </c>
       <c r="C1113" s="2">
-        <v>319728.39470701298</v>
+        <v>342971.71438698401</v>
       </c>
       <c r="D1113" s="1">
         <v>44013</v>
@@ -20353,7 +20353,7 @@
         <v>111</v>
       </c>
       <c r="C1114" s="2">
-        <v>296487.75687454198</v>
+        <v>328454.43912436703</v>
       </c>
       <c r="D1114" s="1">
         <v>44014</v>
@@ -20370,7 +20370,7 @@
         <v>112</v>
       </c>
       <c r="C1115" s="2">
-        <v>274751.25149503601</v>
+        <v>313984.821651773</v>
       </c>
       <c r="D1115" s="1">
         <v>44015</v>
@@ -20387,7 +20387,7 @@
         <v>113</v>
       </c>
       <c r="C1116" s="2">
-        <v>254450.684213345</v>
+        <v>299643.730297592</v>
       </c>
       <c r="D1116" s="1">
         <v>44016</v>
@@ -20404,7 +20404,7 @@
         <v>114</v>
       </c>
       <c r="C1117" s="2">
-        <v>235515.966693633</v>
+        <v>285501.91920842201</v>
       </c>
       <c r="D1117" s="1">
         <v>44017</v>
@@ -20421,7 +20421,7 @@
         <v>115</v>
       </c>
       <c r="C1118" s="2">
-        <v>217876.242886755</v>
+        <v>271620.38394880999</v>
       </c>
       <c r="D1118" s="1">
         <v>44018</v>
@@ -20438,7 +20438,7 @@
         <v>116</v>
       </c>
       <c r="C1119" s="2">
-        <v>201460.80844014901</v>
+        <v>258050.84801434001</v>
       </c>
       <c r="D1119" s="1">
         <v>44019</v>
@@ -20455,7 +20455,7 @@
         <v>117</v>
       </c>
       <c r="C1120" s="2">
-        <v>186199.85309775401</v>
+        <v>244836.342576964</v>
       </c>
       <c r="D1120" s="1">
         <v>44020</v>
@@ -20472,7 +20472,7 @@
         <v>118</v>
       </c>
       <c r="C1121" s="2">
-        <v>172025.04743160401</v>
+        <v>232011.85233852899</v>
       </c>
       <c r="D1121" s="1">
         <v>44021</v>
@@ -20489,7 +20489,7 @@
         <v>119</v>
       </c>
       <c r="C1122" s="2">
-        <v>158870.00008279999</v>
+        <v>219604.996710123</v>
       </c>
       <c r="D1122" s="1">
         <v>44022</v>
@@ -20506,7 +20506,7 @@
         <v>120</v>
       </c>
       <c r="C1123" s="2">
-        <v>146670.60116602</v>
+        <v>207636.72491177899</v>
       </c>
       <c r="D1123" s="1">
         <v>44023</v>
@@ -20523,7 +20523,7 @@
         <v>121</v>
       </c>
       <c r="C1124" s="2">
-        <v>135365.27250043399</v>
+        <v>196122.00769516599</v>
       </c>
       <c r="D1124" s="1">
         <v>44024</v>
@@ -20540,7 +20540,7 @@
         <v>122</v>
       </c>
       <c r="C1125" s="2">
-        <v>124895.13889149499</v>
+        <v>185070.51081081401</v>
       </c>
       <c r="D1125" s="1">
         <v>44025</v>
@@ -20557,7 +20557,7 @@
         <v>123</v>
       </c>
       <c r="C1126" s="2">
-        <v>115204.134446583</v>
+        <v>174487.240719425</v>
       </c>
       <c r="D1126" s="1">
         <v>44026</v>
@@ -20574,7 +20574,7 @@
         <v>124</v>
       </c>
       <c r="C1127" s="2">
-        <v>106239.05543983199</v>
+        <v>164373.15228079399</v>
       </c>
       <c r="D1127" s="1">
         <v>44027</v>
@@ -20591,7 +20591,7 @@
         <v>125</v>
       </c>
       <c r="C1128" s="2">
-        <v>97949.569713278004</v>
+        <v>154725.71726239199</v>
       </c>
       <c r="D1128" s="1">
         <v>44028</v>
@@ -20608,7 +20608,7 @@
         <v>126</v>
       </c>
       <c r="C1129" s="2">
-        <v>90288.191953971298</v>
+        <v>145539.44773288901</v>
       </c>
       <c r="D1129" s="1">
         <v>44029</v>
@@ -20625,7 +20625,7 @@
         <v>127</v>
       </c>
       <c r="C1130" s="2">
-        <v>83210.231116100098</v>
+        <v>136806.373357959</v>
       </c>
       <c r="D1130" s="1">
         <v>44030</v>
@@ -20642,7 +20642,7 @@
         <v>128</v>
       </c>
       <c r="C1131" s="2">
-        <v>76673.716961393104</v>
+        <v>128516.47491611</v>
       </c>
       <c r="D1131" s="1">
         <v>44031</v>
@@ -20659,7 +20659,7 @@
         <v>129</v>
       </c>
       <c r="C1132" s="2">
-        <v>70639.3107998942</v>
+        <v>120658.07110878199</v>
       </c>
       <c r="D1132" s="1">
         <v>44032</v>
@@ -20676,7 +20676,7 @@
         <v>130</v>
       </c>
       <c r="C1133" s="2">
-        <v>65070.204173221697</v>
+        <v>113218.164770772</v>
       </c>
       <c r="D1133" s="1">
         <v>44033</v>
@@ -20693,7 +20693,7 @@
         <v>131</v>
       </c>
       <c r="C1134" s="2">
-        <v>59932.010107061498</v>
+        <v>106182.74749553901</v>
       </c>
       <c r="D1134" s="1">
         <v>44034</v>
@@ -20710,7 +20710,7 @@
         <v>132</v>
       </c>
       <c r="C1135" s="2">
-        <v>55192.648821059302</v>
+        <v>99537.066577633697</v>
       </c>
       <c r="D1135" s="1">
         <v>44035</v>
@@ -20727,7 +20727,7 @@
         <v>133</v>
       </c>
       <c r="C1136" s="2">
-        <v>50822.230756668199</v>
+        <v>93265.857839141099</v>
       </c>
       <c r="D1136" s="1">
         <v>44036</v>
@@ -20744,7 +20744,7 @@
         <v>134</v>
       </c>
       <c r="C1137" s="2">
-        <v>46792.939228102499</v>
+        <v>87353.545422108698</v>
       </c>
       <c r="D1137" s="1">
         <v>44037</v>
@@ -20761,7 +20761,7 @@
         <v>135</v>
       </c>
       <c r="C1138" s="2">
-        <v>43078.913343097804</v>
+        <v>81784.4135204497</v>
       </c>
       <c r="D1138" s="1">
         <v>44038</v>
@@ -20778,7 +20778,7 @@
         <v>136</v>
       </c>
       <c r="C1139" s="2">
-        <v>39656.133213772802</v>
+        <v>76542.751355957793</v>
       </c>
       <c r="D1139" s="1">
         <v>44039</v>
@@ -20795,7 +20795,7 @@
         <v>137</v>
       </c>
       <c r="C1140" s="2">
-        <v>36502.308006593797</v>
+        <v>71612.974858765898</v>
       </c>
       <c r="D1140" s="1">
         <v>44040</v>
@@ -20812,7 +20812,7 @@
         <v>138</v>
       </c>
       <c r="C1141" s="2">
-        <v>33596.767450670697</v>
+        <v>66979.727719161907</v>
       </c>
       <c r="D1141" s="1">
         <v>44041</v>
@@ -20829,7 +20829,7 @@
         <v>139</v>
       </c>
       <c r="C1142" s="2">
-        <v>30920.357709989599</v>
+        <v>62627.963690760298</v>
       </c>
       <c r="D1142" s="1">
         <v>44042</v>
@@ -20846,7 +20846,7 @@
         <v>140</v>
       </c>
       <c r="C1143" s="2">
-        <v>28455.341483107299</v>
+        <v>58543.012986310103</v>
       </c>
       <c r="D1143" s="1">
         <v>44043</v>
@@ -20863,7 +20863,7 @@
         <v>141</v>
       </c>
       <c r="C1144" s="2">
-        <v>26185.302887997201</v>
+        <v>54710.634552554402</v>
       </c>
       <c r="D1144" s="1">
         <v>44044</v>
@@ -20880,7 +20880,7 @@
         <v>142</v>
       </c>
       <c r="C1145" s="2">
-        <v>24095.057212762302</v>
+        <v>51117.055869433803</v>
       </c>
       <c r="D1145" s="1">
         <v>44045</v>
@@ -20897,7 +20897,7 @@
         <v>143</v>
       </c>
       <c r="C1146" s="2">
-        <v>22170.565402103501</v>
+        <v>47749.002286018898</v>
       </c>
       <c r="D1146" s="1">
         <v>44046</v>
@@ -20914,7 +20914,7 @@
         <v>144</v>
       </c>
       <c r="C1147" s="2">
-        <v>20398.853411296401</v>
+        <v>44593.717436574902</v>
       </c>
       <c r="D1147" s="1">
         <v>44047</v>
@@ -20931,7 +20931,7 @@
         <v>145</v>
       </c>
       <c r="C1148" s="2">
-        <v>18767.936325462</v>
+        <v>41638.975798953899</v>
       </c>
       <c r="D1148" s="1">
         <v>44048</v>
@@ -20948,7 +20948,7 @@
         <v>146</v>
       </c>
       <c r="C1149" s="2">
-        <v>17266.7471016493</v>
+        <v>38873.0887992762</v>
       </c>
       <c r="D1149" s="1">
         <v>44049</v>
@@ -20965,7 +20965,7 @@
         <v>147</v>
       </c>
       <c r="C1150" s="2">
-        <v>15885.069756040901</v>
+        <v>36284.905375969698</v>
       </c>
       <c r="D1150" s="1">
         <v>44050</v>
@@ -20982,7 +20982,7 @@
         <v>148</v>
       </c>
       <c r="C1151" s="2">
-        <v>14613.4768165119</v>
+        <v>33863.808204198598</v>
       </c>
       <c r="D1151" s="1">
         <v>44051</v>
@@ -20999,7 +20999,7 @@
         <v>149</v>
       </c>
       <c r="C1152" s="2">
-        <v>13443.271028446399</v>
+        <v>31599.705969540399</v>
       </c>
       <c r="D1152" s="1">
         <v>44052</v>
@@ -21016,7 +21016,7 @@
         <v>150</v>
       </c>
       <c r="C1153" s="2">
-        <v>12366.4308305377</v>
+        <v>29483.022906446098</v>
       </c>
       <c r="D1153" s="1">
         <v>44053</v>
@@ -21033,7 +21033,7 @@
         <v>151</v>
       </c>
       <c r="C1154" s="2">
-        <v>11375.559693101801</v>
+        <v>27504.685674962999</v>
       </c>
       <c r="D1154" s="1">
         <v>44054</v>
@@ -21050,7 +21050,7 @@
         <v>152</v>
       </c>
       <c r="C1155" s="2">
-        <v>10463.8388783634</v>
+        <v>25656.108621410302</v>
       </c>
       <c r="D1155" s="1">
         <v>44055</v>
@@ -21067,7 +21067,7 @@
         <v>153</v>
       </c>
       <c r="C1156" s="2">
-        <v>9624.9835895831602</v>
+        <v>23929.177371257501</v>
       </c>
       <c r="D1156" s="1">
         <v>44056</v>
@@ -21084,7 +21084,7 @@
         <v>154</v>
       </c>
       <c r="C1157" s="2">
-        <v>8853.2022278180502</v>
+        <v>22316.231702085301</v>
       </c>
       <c r="D1157" s="1">
         <v>44057</v>
@@ -21101,7 +21101,7 @@
         <v>155</v>
       </c>
       <c r="C1158" s="2">
-        <v>8143.1586064204803</v>
+        <v>20810.0474066936</v>
       </c>
       <c r="D1158" s="1">
         <v>44058</v>
@@ -21118,7 +21118,7 @@
         <v>156</v>
       </c>
       <c r="C1159" s="2">
-        <v>7489.9368973013798</v>
+        <v>19403.818008368598</v>
       </c>
       <c r="D1159" s="1">
         <v>44059</v>
@@ -21135,7 +21135,7 @@
         <v>157</v>
       </c>
       <c r="C1160" s="2">
-        <v>6889.0091583825097</v>
+        <v>18091.136042562201</v>
       </c>
       <c r="D1160" s="1">
         <v>44060</v>
@@ -21152,7 +21152,7 @@
         <v>158</v>
       </c>
       <c r="C1161" s="2">
-        <v>6336.20528779706</v>
+        <v>16865.9745761093</v>
       </c>
       <c r="D1161" s="1">
         <v>44061</v>
@@ -21169,7 +21169,7 @@
         <v>159</v>
       </c>
       <c r="C1162" s="2">
-        <v>5827.68519645172</v>
+        <v>15722.668660597499</v>
       </c>
       <c r="D1162" s="1">
         <v>44062</v>
@@ -21186,7 +21186,7 @@
         <v>160</v>
       </c>
       <c r="C1163" s="2">
-        <v>5359.9130891852601</v>
+        <v>14655.897276194801</v>
       </c>
       <c r="D1163" s="1">
         <v>44063</v>
